--- a/lib/report/benchmark_report/web14/exl/201909/jsliu__bank_test_&_city_(HF)(201909)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201909/jsliu__bank_test_&_city_(HF)(201909)_Two_Cycles_Comparison.xlsx
@@ -368,7 +368,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 11/18/19 4:54:08AM</t>
+    <t>Printed on: 01/09/20 11:43:49AM</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle: September, 2019    Evaluation Date: September 30, 2019</t>
@@ -675,7 +675,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201906</t>
   </si>
   <si>
-    <t>Printed on: 11/18/19 4:53:59AM</t>
+    <t>Printed on: 01/09/20 11:43:44AM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -3103,7 +3103,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
       <c r="H8" s="75">
-        <v>-15.701288176224525</v>
+        <v>-15.70140829676097</v>
       </c>
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
@@ -3115,7 +3115,7 @@
       <c r="N8" s="75"/>
       <c r="O8" s="75"/>
       <c r="P8" s="75">
-        <v>-16.274409548019175</v>
+        <v>-16.274245768121187</v>
       </c>
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
@@ -3151,7 +3151,7 @@
       <c r="AL8" s="75"/>
       <c r="AM8" s="75"/>
       <c r="AN8" s="75">
-        <v>0.66841302360937083</v>
+        <v>0.668325760254116</v>
       </c>
       <c r="AO8" s="75"/>
       <c r="AP8" s="75"/>
@@ -3169,7 +3169,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
       <c r="H9" s="75">
-        <v>-11.469417679560729</v>
+        <v>-11.469405229517493</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
@@ -3181,7 +3181,7 @@
       <c r="N9" s="75"/>
       <c r="O9" s="75"/>
       <c r="P9" s="75">
-        <v>-11.20714470019948</v>
+        <v>-11.206784955773005</v>
       </c>
       <c r="Q9" s="75"/>
       <c r="R9" s="75"/>
@@ -3217,7 +3217,7 @@
       <c r="AL9" s="75"/>
       <c r="AM9" s="75"/>
       <c r="AN9" s="75">
-        <v>1.1238804590005622</v>
+        <v>1.1238037052215246</v>
       </c>
       <c r="AO9" s="75"/>
       <c r="AP9" s="75"/>
@@ -3235,7 +3235,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="75">
-        <v>-7.4420724455811893</v>
+        <v>-7.4421247277851368</v>
       </c>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
@@ -3247,7 +3247,7 @@
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
       <c r="P10" s="75">
-        <v>-6.8615992503607117</v>
+        <v>-6.8615992487968063</v>
       </c>
       <c r="Q10" s="75"/>
       <c r="R10" s="75"/>
@@ -3283,7 +3283,7 @@
       <c r="AL10" s="75"/>
       <c r="AM10" s="75"/>
       <c r="AN10" s="75">
-        <v>1.5582365746403868</v>
+        <v>1.5581493301383942</v>
       </c>
       <c r="AO10" s="75"/>
       <c r="AP10" s="75"/>
@@ -3301,7 +3301,7 @@
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75">
-        <v>-3.64651408577811</v>
+        <v>-3.64659813100454</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
@@ -3313,7 +3313,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="75"/>
       <c r="P11" s="75">
-        <v>-3.1833574716048605</v>
+        <v>-3.183496012913368</v>
       </c>
       <c r="Q11" s="75"/>
       <c r="R11" s="75"/>
@@ -3349,7 +3349,7 @@
       <c r="AL11" s="75"/>
       <c r="AM11" s="75"/>
       <c r="AN11" s="75">
-        <v>1.9673331570495642</v>
+        <v>1.96723914585592</v>
       </c>
       <c r="AO11" s="75"/>
       <c r="AP11" s="75"/>
@@ -3415,7 +3415,7 @@
       <c r="AL12" s="75"/>
       <c r="AM12" s="75"/>
       <c r="AN12" s="75">
-        <v>2.3596116335609296</v>
+        <v>2.359523376059387</v>
       </c>
       <c r="AO12" s="75"/>
       <c r="AP12" s="75"/>
@@ -3433,7 +3433,7 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75">
-        <v>0.083289306660485521</v>
+        <v>0.0832045958305328</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
@@ -3445,7 +3445,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
       <c r="P13" s="75">
-        <v>-0.81431062916473718</v>
+        <v>-0.8146296920428221</v>
       </c>
       <c r="Q13" s="75"/>
       <c r="R13" s="75"/>
@@ -3481,7 +3481,7 @@
       <c r="AL13" s="75"/>
       <c r="AM13" s="75"/>
       <c r="AN13" s="75">
-        <v>2.3698865737077583</v>
+        <v>2.3697891357960623</v>
       </c>
       <c r="AO13" s="75"/>
       <c r="AP13" s="75"/>
@@ -3499,7 +3499,7 @@
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
       <c r="H14" s="75">
-        <v>-0.8613727335588689</v>
+        <v>-0.8616293996626565</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
@@ -3511,7 +3511,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="75"/>
       <c r="P14" s="75">
-        <v>-2.5759372179541753</v>
+        <v>-2.5766110060657303</v>
       </c>
       <c r="Q14" s="75"/>
       <c r="R14" s="75"/>
@@ -3547,7 +3547,7 @@
       <c r="AL14" s="75"/>
       <c r="AM14" s="75"/>
       <c r="AN14" s="75">
-        <v>2.2684796793601554</v>
+        <v>2.2683645797367316</v>
       </c>
       <c r="AO14" s="75"/>
       <c r="AP14" s="75"/>
@@ -3611,7 +3611,7 @@
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75">
-        <v>-0.42577004608764951</v>
+        <v>-0.42538430348755546</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -3623,7 +3623,7 @@
       <c r="N16" s="75"/>
       <c r="O16" s="75"/>
       <c r="P16" s="75">
-        <v>-2.0256397714875729</v>
+        <v>-2.0253955278165847</v>
       </c>
       <c r="Q16" s="75"/>
       <c r="R16" s="75"/>
@@ -3659,7 +3659,7 @@
       <c r="AL16" s="75"/>
       <c r="AM16" s="75"/>
       <c r="AN16" s="75">
-        <v>2.3152973238077039</v>
+        <v>2.3152508990761929</v>
       </c>
       <c r="AO16" s="75"/>
       <c r="AP16" s="75"/>
@@ -3677,7 +3677,7 @@
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
       <c r="H17" s="75">
-        <v>-12.652202226996211</v>
+        <v>-12.652172694559488</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -3689,7 +3689,7 @@
       <c r="N17" s="75"/>
       <c r="O17" s="75"/>
       <c r="P17" s="75">
-        <v>-13.555138438468987</v>
+        <v>-13.555063802011679</v>
       </c>
       <c r="Q17" s="75"/>
       <c r="R17" s="75"/>
@@ -3725,7 +3725,7 @@
       <c r="AL17" s="75"/>
       <c r="AM17" s="75"/>
       <c r="AN17" s="75">
-        <v>0.99836327811223069</v>
+        <v>0.99828939733492983</v>
       </c>
       <c r="AO17" s="75"/>
       <c r="AP17" s="75"/>
@@ -3941,13 +3941,13 @@
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74">
-        <v>2689.0402231528155</v>
+        <v>2689.01814117359</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
       <c r="L23" s="68">
-        <v>2912.8394932286037</v>
+        <v>2912.8174112493784</v>
       </c>
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
@@ -3981,7 +3981,7 @@
       <c r="AL23" s="74"/>
       <c r="AM23" s="74"/>
       <c r="AN23" s="74">
-        <v>-1441.4806499737701</v>
+        <v>-1441.5027319529954</v>
       </c>
       <c r="AO23" s="74"/>
       <c r="AP23" s="74"/>
@@ -3999,13 +3999,13 @@
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74">
-        <v>5114.4002337023849</v>
+        <v>5114.2774626119726</v>
       </c>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
       <c r="L24" s="68">
-        <v>5554.1902444054131</v>
+        <v>5554.0674733150008</v>
       </c>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
@@ -4039,7 +4039,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
       <c r="AN24" s="74">
-        <v>-3154.4500419993346</v>
+        <v>-3154.5728130897469</v>
       </c>
       <c r="AO24" s="74"/>
       <c r="AP24" s="74"/>
@@ -4057,13 +4057,13 @@
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74">
-        <v>567.75387999242514</v>
+        <v>567.73264406604358</v>
       </c>
       <c r="I25" s="74"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="68">
-        <v>3563.4268069362142</v>
+        <v>3563.4055710098328</v>
       </c>
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
@@ -4097,13 +4097,13 @@
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
       <c r="AJ25" s="74">
-        <v>-754.7460196257224</v>
+        <v>-754.74517357287857</v>
       </c>
       <c r="AK25" s="74"/>
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
       <c r="AN25" s="74">
-        <v>-1441.480649973769</v>
+        <v>-1441.5027319529945</v>
       </c>
       <c r="AO25" s="74"/>
       <c r="AP25" s="74"/>
@@ -4121,13 +4121,13 @@
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74">
-        <v>881.9302375196612</v>
+        <v>881.81217030244079</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
       <c r="L26" s="68">
-        <v>6867.00112900354</v>
+        <v>6866.88306178632</v>
       </c>
       <c r="M26" s="68"/>
       <c r="N26" s="68"/>
@@ -4161,13 +4161,13 @@
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
       <c r="AJ26" s="74">
-        <v>-1497.8557820685392</v>
+        <v>-1497.851078195343</v>
       </c>
       <c r="AK26" s="74"/>
       <c r="AL26" s="74"/>
       <c r="AM26" s="74"/>
       <c r="AN26" s="74">
-        <v>-3154.4500419993328</v>
+        <v>-3154.5728130897492</v>
       </c>
       <c r="AO26" s="74"/>
       <c r="AP26" s="74"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="AK87" s="123"/>
       <c r="AL87" s="123">
-        <v>5.0858242235902305</v>
+        <v>0.151242475397909</v>
       </c>
       <c r="AM87" s="123"/>
       <c r="AN87" s="123">
@@ -9574,7 +9574,7 @@
         <v>-0.0048046135414537838</v>
       </c>
       <c r="AY87" s="125">
-        <v>-1.1840036023859915</v>
+        <v>-72.441395323635163</v>
       </c>
       <c r="AZ87" s="125">
         <v>0.55105633802816789</v>
@@ -11171,55 +11171,55 @@
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="74">
-        <v>2665.8775638761463</v>
+        <v>2665.8487703069759</v>
       </c>
       <c r="E114" s="74"/>
       <c r="F114" s="74"/>
       <c r="G114" s="74"/>
       <c r="H114" s="74">
-        <v>2691.2799061105011</v>
+        <v>2691.255527849763</v>
       </c>
       <c r="I114" s="74"/>
       <c r="J114" s="74"/>
       <c r="K114" s="74"/>
       <c r="L114" s="74">
-        <v>2689.0402231528155</v>
+        <v>2689.01814117359</v>
       </c>
       <c r="M114" s="74"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
       <c r="P114" s="74">
-        <v>2590.9839926433087</v>
+        <v>2590.960455895181</v>
       </c>
       <c r="Q114" s="74"/>
       <c r="R114" s="74"/>
       <c r="S114" s="74"/>
       <c r="T114" s="74">
-        <v>2488.9199016549646</v>
+        <v>2488.8980571546822</v>
       </c>
       <c r="U114" s="74"/>
       <c r="V114" s="74"/>
       <c r="W114" s="74"/>
       <c r="X114" s="74">
-        <v>2380.6229683880269</v>
+        <v>2380.6037538671521</v>
       </c>
       <c r="Y114" s="74"/>
       <c r="Z114" s="74"/>
       <c r="AA114" s="74"/>
       <c r="AB114" s="74">
-        <v>2266.8262685410009</v>
+        <v>2266.8044236539522</v>
       </c>
       <c r="AC114" s="74"/>
       <c r="AD114" s="74"/>
       <c r="AE114" s="74"/>
       <c r="AF114" s="74">
-        <v>2348.8174161542511</v>
+        <v>2348.7989221642738</v>
       </c>
       <c r="AG114" s="74"/>
       <c r="AH114" s="74"/>
       <c r="AI114" s="74"/>
       <c r="AJ114" s="73">
-        <v>-3.64651408577811</v>
+        <v>-3.64659813100454</v>
       </c>
       <c r="AK114" s="73"/>
       <c r="AL114" s="73"/>
@@ -12131,42 +12131,42 @@
       <c r="Q130" s="68"/>
       <c r="R130" s="68"/>
       <c r="S130" s="68">
-        <v>173.09500975375</v>
+        <v>173.09494327840298</v>
       </c>
       <c r="T130" s="68"/>
       <c r="U130" s="68"/>
       <c r="V130" s="68">
-        <v>339.56220414626097</v>
+        <v>339.561984185934</v>
       </c>
       <c r="W130" s="68"/>
       <c r="X130" s="68"/>
       <c r="Y130" s="68">
-        <v>255.72973497558002</v>
+        <v>255.729298715778</v>
       </c>
       <c r="Z130" s="68"/>
       <c r="AA130" s="68"/>
       <c r="AB130" s="68">
-        <v>168.761767665617</v>
+        <v>168.76105496116</v>
       </c>
       <c r="AC130" s="68"/>
       <c r="AD130" s="68"/>
       <c r="AE130" s="68">
-        <v>331.687894430155</v>
+        <v>331.686843673525</v>
       </c>
       <c r="AF130" s="68"/>
       <c r="AG130" s="68"/>
       <c r="AH130" s="68">
-        <v>250.215129529976</v>
+        <v>250.21364150996502</v>
       </c>
       <c r="AI130" s="68"/>
       <c r="AJ130" s="68"/>
       <c r="AK130" s="68">
-        <v>163.027956942203</v>
+        <v>163.02590326737499</v>
       </c>
       <c r="AL130" s="68"/>
       <c r="AM130" s="68"/>
       <c r="AN130" s="68">
-        <v>328.303426520217</v>
+        <v>328.30061218476203</v>
       </c>
       <c r="AO130" s="68"/>
       <c r="AP130" s="68"/>
@@ -12257,42 +12257,42 @@
       <c r="Q132" s="68"/>
       <c r="R132" s="68"/>
       <c r="S132" s="68">
-        <v>145.26356835973002</v>
+        <v>145.263501884383</v>
       </c>
       <c r="T132" s="68"/>
       <c r="U132" s="68"/>
       <c r="V132" s="68">
-        <v>312.661540213196</v>
+        <v>312.66132025286896</v>
       </c>
       <c r="W132" s="68"/>
       <c r="X132" s="68"/>
       <c r="Y132" s="68">
-        <v>230.59958968996202</v>
+        <v>230.59915343016</v>
       </c>
       <c r="Z132" s="68"/>
       <c r="AA132" s="68"/>
       <c r="AB132" s="68">
-        <v>144.80161350756902</v>
+        <v>144.800900803112</v>
       </c>
       <c r="AC132" s="68"/>
       <c r="AD132" s="68"/>
       <c r="AE132" s="68">
-        <v>307.892554915625</v>
+        <v>307.891504158994</v>
       </c>
       <c r="AF132" s="68"/>
       <c r="AG132" s="68"/>
       <c r="AH132" s="68">
-        <v>226.362835849582</v>
+        <v>226.36134782957203</v>
       </c>
       <c r="AI132" s="68"/>
       <c r="AJ132" s="68"/>
       <c r="AK132" s="68">
-        <v>139.134513404064</v>
+        <v>139.132459729236</v>
       </c>
       <c r="AL132" s="68"/>
       <c r="AM132" s="68"/>
       <c r="AN132" s="68">
-        <v>304.417817274687</v>
+        <v>304.415002939232</v>
       </c>
       <c r="AO132" s="68"/>
       <c r="AP132" s="68"/>
@@ -12446,42 +12446,42 @@
       <c r="Q135" s="68"/>
       <c r="R135" s="68"/>
       <c r="S135" s="68">
-        <v>-29.625320529159197</v>
+        <v>-29.6253870045063</v>
       </c>
       <c r="T135" s="68"/>
       <c r="U135" s="68"/>
       <c r="V135" s="68">
-        <v>137.772651324307</v>
+        <v>137.77243136398</v>
       </c>
       <c r="W135" s="68"/>
       <c r="X135" s="68"/>
       <c r="Y135" s="68">
-        <v>55.7107008010734</v>
+        <v>55.7102645412714</v>
       </c>
       <c r="Z135" s="68"/>
       <c r="AA135" s="68"/>
       <c r="AB135" s="68">
-        <v>-30.0872753813196</v>
+        <v>-30.0879880857769</v>
       </c>
       <c r="AC135" s="68"/>
       <c r="AD135" s="68"/>
       <c r="AE135" s="68">
-        <v>133.003666026736</v>
+        <v>133.002615270105</v>
       </c>
       <c r="AF135" s="68"/>
       <c r="AG135" s="68"/>
       <c r="AH135" s="68">
-        <v>51.4739469606927</v>
+        <v>51.4724589406825</v>
       </c>
       <c r="AI135" s="68"/>
       <c r="AJ135" s="68"/>
       <c r="AK135" s="68">
-        <v>-35.7543754848249</v>
+        <v>-35.7564291596529</v>
       </c>
       <c r="AL135" s="68"/>
       <c r="AM135" s="68"/>
       <c r="AN135" s="68">
-        <v>129.528928385798</v>
+        <v>129.526114050343</v>
       </c>
       <c r="AO135" s="68"/>
       <c r="AP135" s="68"/>
@@ -12509,42 +12509,42 @@
       <c r="Q136" s="68"/>
       <c r="R136" s="68"/>
       <c r="S136" s="68">
-        <v>-1.13506975207507</v>
+        <v>-1.13507229902323</v>
       </c>
       <c r="T136" s="68"/>
       <c r="U136" s="68"/>
       <c r="V136" s="68">
-        <v>5.2786456446094494</v>
+        <v>5.27863721701073</v>
       </c>
       <c r="W136" s="68"/>
       <c r="X136" s="68"/>
       <c r="Y136" s="68">
-        <v>2.13450960923653</v>
+        <v>2.1344928943015797</v>
       </c>
       <c r="Z136" s="68"/>
       <c r="AA136" s="68"/>
       <c r="AB136" s="68">
-        <v>-1.1527691716980701</v>
+        <v>-1.15279647838226</v>
       </c>
       <c r="AC136" s="68"/>
       <c r="AD136" s="68"/>
       <c r="AE136" s="68">
-        <v>5.0959259014075</v>
+        <v>5.09588564253276</v>
       </c>
       <c r="AF136" s="68"/>
       <c r="AG136" s="68"/>
       <c r="AH136" s="68">
-        <v>1.97218187588861</v>
+        <v>1.97212486362768</v>
       </c>
       <c r="AI136" s="68"/>
       <c r="AJ136" s="68"/>
       <c r="AK136" s="68">
-        <v>-1.36989944386302</v>
+        <v>-1.36997812872233</v>
       </c>
       <c r="AL136" s="68"/>
       <c r="AM136" s="68"/>
       <c r="AN136" s="68">
-        <v>4.96279419102674</v>
+        <v>4.96268636208211</v>
       </c>
       <c r="AO136" s="68"/>
       <c r="AP136" s="68"/>
@@ -12572,42 +12572,42 @@
       <c r="Q137" s="68"/>
       <c r="R137" s="68"/>
       <c r="S137" s="68">
-        <v>-28.4902507770842</v>
+        <v>-28.490314705483097</v>
       </c>
       <c r="T137" s="68"/>
       <c r="U137" s="68"/>
       <c r="V137" s="68">
-        <v>132.494005679697</v>
+        <v>132.493794146969</v>
       </c>
       <c r="W137" s="68"/>
       <c r="X137" s="68"/>
       <c r="Y137" s="68">
-        <v>53.5761911918369</v>
+        <v>53.5757716469698</v>
       </c>
       <c r="Z137" s="68"/>
       <c r="AA137" s="68"/>
       <c r="AB137" s="68">
-        <v>-28.9345062096215</v>
+        <v>-28.9351916073947</v>
       </c>
       <c r="AC137" s="68"/>
       <c r="AD137" s="68"/>
       <c r="AE137" s="68">
-        <v>127.90774012532799</v>
+        <v>127.906729627572</v>
       </c>
       <c r="AF137" s="68"/>
       <c r="AG137" s="68"/>
       <c r="AH137" s="68">
-        <v>49.5017650848041</v>
+        <v>49.5003340770548</v>
       </c>
       <c r="AI137" s="68"/>
       <c r="AJ137" s="68"/>
       <c r="AK137" s="68">
-        <v>-34.3844760409619</v>
+        <v>-34.3864510309306</v>
       </c>
       <c r="AL137" s="68"/>
       <c r="AM137" s="68"/>
       <c r="AN137" s="68">
-        <v>124.566134194771</v>
+        <v>124.563427688261</v>
       </c>
       <c r="AO137" s="68"/>
       <c r="AP137" s="68"/>
@@ -12637,42 +12637,42 @@
       <c r="Q138" s="68"/>
       <c r="R138" s="68"/>
       <c r="S138" s="68">
-        <v>16518.7110501717</v>
+        <v>16518.7109862485</v>
       </c>
       <c r="T138" s="68"/>
       <c r="U138" s="68"/>
       <c r="V138" s="68">
-        <v>16651.2050560815</v>
+        <v>16651.2047806208</v>
       </c>
       <c r="W138" s="68"/>
       <c r="X138" s="68"/>
       <c r="Y138" s="68">
-        <v>16704.7812472981</v>
+        <v>16704.7805522907</v>
       </c>
       <c r="Z138" s="68"/>
       <c r="AA138" s="68"/>
       <c r="AB138" s="68">
-        <v>16675.846741688</v>
+        <v>16675.8453612647</v>
       </c>
       <c r="AC138" s="68"/>
       <c r="AD138" s="68"/>
       <c r="AE138" s="68">
-        <v>16803.7544809681</v>
+        <v>16803.7520900774</v>
       </c>
       <c r="AF138" s="68"/>
       <c r="AG138" s="68"/>
       <c r="AH138" s="68">
-        <v>16853.256246437697</v>
+        <v>16853.2524245681</v>
       </c>
       <c r="AI138" s="68"/>
       <c r="AJ138" s="68"/>
       <c r="AK138" s="68">
-        <v>16818.8717695153</v>
+        <v>16818.865972604</v>
       </c>
       <c r="AL138" s="68"/>
       <c r="AM138" s="68"/>
       <c r="AN138" s="68">
-        <v>16943.4379038402</v>
+        <v>16943.4294004167</v>
       </c>
       <c r="AO138" s="68"/>
       <c r="AP138" s="68"/>
@@ -12793,13 +12793,13 @@
       <c r="F144" s="141"/>
       <c r="G144" s="141"/>
       <c r="H144" s="141">
-        <v>971.828025564782</v>
+        <v>971.82260850269608</v>
       </c>
       <c r="I144" s="141"/>
       <c r="J144" s="141"/>
       <c r="K144" s="141"/>
       <c r="L144" s="141">
-        <v>-2105.805448931118</v>
+        <v>-2105.8108659932036</v>
       </c>
       <c r="M144" s="141"/>
       <c r="N144" s="141"/>
@@ -12811,13 +12811,13 @@
       <c r="R144" s="141"/>
       <c r="S144" s="141"/>
       <c r="T144" s="141">
-        <v>1051.97109987</v>
+        <v>1051.94098214966</v>
       </c>
       <c r="U144" s="141"/>
       <c r="V144" s="141"/>
       <c r="W144" s="141"/>
       <c r="X144" s="141">
-        <v>-409.68789628677</v>
+        <v>-409.71801400711013</v>
       </c>
       <c r="Y144" s="141"/>
       <c r="Z144" s="141"/>
@@ -12835,13 +12835,13 @@
       <c r="F145" s="141"/>
       <c r="G145" s="141"/>
       <c r="H145" s="141">
-        <v>2837.92585458156</v>
+        <v>2837.9100357122197</v>
       </c>
       <c r="I145" s="141"/>
       <c r="J145" s="141"/>
       <c r="K145" s="141"/>
       <c r="L145" s="141">
-        <v>222.2322565003098</v>
+        <v>222.21643763096955</v>
       </c>
       <c r="M145" s="141"/>
       <c r="N145" s="141"/>
@@ -12853,13 +12853,13 @@
       <c r="R145" s="141"/>
       <c r="S145" s="141"/>
       <c r="T145" s="141">
-        <v>3071.9591368634196</v>
+        <v>3071.87118729315</v>
       </c>
       <c r="U145" s="141"/>
       <c r="V145" s="141"/>
       <c r="W145" s="141"/>
       <c r="X145" s="141">
-        <v>1829.6890255885996</v>
+        <v>1829.6010760183299</v>
       </c>
       <c r="Y145" s="141"/>
       <c r="Z145" s="141"/>
@@ -12877,13 +12877,13 @@
       <c r="F146" s="143"/>
       <c r="G146" s="143"/>
       <c r="H146" s="143">
-        <v>3809.75388014634</v>
+        <v>3809.7326442149197</v>
       </c>
       <c r="I146" s="143"/>
       <c r="J146" s="143"/>
       <c r="K146" s="143"/>
       <c r="L146" s="143">
-        <v>-1883.5731924308095</v>
+        <v>-1883.5944283622298</v>
       </c>
       <c r="M146" s="143"/>
       <c r="N146" s="143"/>
@@ -12895,13 +12895,13 @@
       <c r="R146" s="143"/>
       <c r="S146" s="143"/>
       <c r="T146" s="143">
-        <v>4123.9302367334194</v>
+        <v>4123.81216944281</v>
       </c>
       <c r="U146" s="143"/>
       <c r="V146" s="143"/>
       <c r="W146" s="143"/>
       <c r="X146" s="143">
-        <v>1420.00112930184</v>
+        <v>1419.8830620112303</v>
       </c>
       <c r="Y146" s="143"/>
       <c r="Z146" s="143"/>
@@ -14399,13 +14399,13 @@
       <c r="F183" s="143"/>
       <c r="G183" s="143"/>
       <c r="H183" s="143">
-        <v>73749.7538801463</v>
+        <v>73749.732644214891</v>
       </c>
       <c r="I183" s="143"/>
       <c r="J183" s="143"/>
       <c r="K183" s="143"/>
       <c r="L183" s="143">
-        <v>61155.3631045377</v>
+        <v>61155.3418686063</v>
       </c>
       <c r="M183" s="143"/>
       <c r="N183" s="143"/>
@@ -14417,13 +14417,13 @@
       <c r="R183" s="143"/>
       <c r="S183" s="143"/>
       <c r="T183" s="143">
-        <v>74063.9302367334</v>
+        <v>74063.8121694428</v>
       </c>
       <c r="U183" s="143"/>
       <c r="V183" s="143"/>
       <c r="W183" s="143"/>
       <c r="X183" s="143">
-        <v>64458.937426270357</v>
+        <v>64458.819358979752</v>
       </c>
       <c r="Y183" s="143"/>
       <c r="Z183" s="143"/>
@@ -14819,13 +14819,13 @@
       <c r="F195" s="143"/>
       <c r="G195" s="143"/>
       <c r="H195" s="143">
-        <v>17062.753880146298</v>
+        <v>17062.7326442149</v>
       </c>
       <c r="I195" s="143"/>
       <c r="J195" s="143"/>
       <c r="K195" s="143"/>
       <c r="L195" s="143">
-        <v>88685.321437871</v>
+        <v>88685.3002019396</v>
       </c>
       <c r="M195" s="143"/>
       <c r="N195" s="143"/>
@@ -14837,13 +14837,13 @@
       <c r="R195" s="143"/>
       <c r="S195" s="143"/>
       <c r="T195" s="143">
-        <v>17376.9302367334</v>
+        <v>17376.812169442797</v>
       </c>
       <c r="U195" s="143"/>
       <c r="V195" s="143"/>
       <c r="W195" s="143"/>
       <c r="X195" s="143">
-        <v>91988.8957596037</v>
+        <v>91988.7776923131</v>
       </c>
       <c r="Y195" s="143"/>
       <c r="Z195" s="143"/>
@@ -15063,13 +15063,13 @@
       <c r="F202" s="141"/>
       <c r="G202" s="141"/>
       <c r="H202" s="141">
-        <v>45636.937739702174</v>
+        <v>45636.888743597578</v>
       </c>
       <c r="I202" s="141"/>
       <c r="J202" s="141"/>
       <c r="K202" s="141"/>
       <c r="L202" s="141">
-        <v>-32191.767861847315</v>
+        <v>-32191.816857951912</v>
       </c>
       <c r="M202" s="141"/>
       <c r="N202" s="141"/>
@@ -15081,13 +15081,13 @@
       <c r="R202" s="141"/>
       <c r="S202" s="141"/>
       <c r="T202" s="141">
-        <v>41098.068245285409</v>
+        <v>41097.445655335956</v>
       </c>
       <c r="U202" s="141"/>
       <c r="V202" s="141"/>
       <c r="W202" s="141"/>
       <c r="X202" s="141">
-        <v>454.31192123950314</v>
+        <v>453.68933129005018</v>
       </c>
       <c r="Y202" s="141"/>
       <c r="Z202" s="141"/>
@@ -15105,13 +15105,13 @@
       <c r="F203" s="143"/>
       <c r="G203" s="143"/>
       <c r="H203" s="143">
-        <v>45636.937739702174</v>
+        <v>45636.888743597578</v>
       </c>
       <c r="I203" s="143"/>
       <c r="J203" s="143"/>
       <c r="K203" s="143"/>
       <c r="L203" s="143">
-        <v>-32191.767861847315</v>
+        <v>-32191.816857951912</v>
       </c>
       <c r="M203" s="143"/>
       <c r="N203" s="143"/>
@@ -15123,13 +15123,13 @@
       <c r="R203" s="143"/>
       <c r="S203" s="143"/>
       <c r="T203" s="143">
-        <v>41098.068245285409</v>
+        <v>41097.445655335956</v>
       </c>
       <c r="U203" s="143"/>
       <c r="V203" s="143"/>
       <c r="W203" s="143"/>
       <c r="X203" s="143">
-        <v>454.31192123950314</v>
+        <v>453.68933129005018</v>
       </c>
       <c r="Y203" s="143"/>
       <c r="Z203" s="143"/>
@@ -15165,13 +15165,13 @@
       <c r="R204" s="141"/>
       <c r="S204" s="141"/>
       <c r="T204" s="141">
-        <v>157597.42342906754</v>
+        <v>157597.85561617621</v>
       </c>
       <c r="U204" s="141"/>
       <c r="V204" s="141"/>
       <c r="W204" s="141"/>
       <c r="X204" s="141">
-        <v>107968.68418200439</v>
+        <v>107969.11636911306</v>
       </c>
       <c r="Y204" s="141"/>
       <c r="Z204" s="141"/>
@@ -15207,13 +15207,13 @@
       <c r="R205" s="143"/>
       <c r="S205" s="143"/>
       <c r="T205" s="143">
-        <v>157597.42342906754</v>
+        <v>157597.85561617621</v>
       </c>
       <c r="U205" s="143"/>
       <c r="V205" s="143"/>
       <c r="W205" s="143"/>
       <c r="X205" s="143">
-        <v>107968.68418200439</v>
+        <v>107969.11636911306</v>
       </c>
       <c r="Y205" s="143"/>
       <c r="Z205" s="143"/>
@@ -15385,13 +15385,13 @@
       <c r="F210" s="141"/>
       <c r="G210" s="141"/>
       <c r="H210" s="141">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="I210" s="141"/>
       <c r="J210" s="141"/>
       <c r="K210" s="141"/>
       <c r="L210" s="141">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="M210" s="141"/>
       <c r="N210" s="141"/>
@@ -15401,13 +15401,13 @@
       <c r="R210" s="141"/>
       <c r="S210" s="141"/>
       <c r="T210" s="141">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="U210" s="141"/>
       <c r="V210" s="141"/>
       <c r="W210" s="141"/>
       <c r="X210" s="141">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="Y210" s="141"/>
       <c r="Z210" s="141"/>
@@ -15425,13 +15425,13 @@
       <c r="F211" s="143"/>
       <c r="G211" s="143"/>
       <c r="H211" s="143">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="I211" s="143"/>
       <c r="J211" s="143"/>
       <c r="K211" s="143"/>
       <c r="L211" s="143">
-        <v>167169.18285440351</v>
+        <v>167166.35642331492</v>
       </c>
       <c r="M211" s="143"/>
       <c r="N211" s="143"/>
@@ -15443,13 +15443,13 @@
       <c r="R211" s="143"/>
       <c r="S211" s="143"/>
       <c r="T211" s="143">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="U211" s="143"/>
       <c r="V211" s="143"/>
       <c r="W211" s="143"/>
       <c r="X211" s="143">
-        <v>171274.36053389023</v>
+        <v>171261.93688942911</v>
       </c>
       <c r="Y211" s="143"/>
       <c r="Z211" s="143"/>
@@ -15467,13 +15467,13 @@
       <c r="F212" s="143"/>
       <c r="G212" s="143"/>
       <c r="H212" s="143">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="I212" s="143"/>
       <c r="J212" s="143"/>
       <c r="K212" s="143"/>
       <c r="L212" s="143">
-        <v>164796.34048247078</v>
+        <v>164793.5140513822</v>
       </c>
       <c r="M212" s="143"/>
       <c r="N212" s="143"/>
@@ -15485,13 +15485,13 @@
       <c r="R212" s="143"/>
       <c r="S212" s="143"/>
       <c r="T212" s="143">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="U212" s="143"/>
       <c r="V212" s="143"/>
       <c r="W212" s="143"/>
       <c r="X212" s="143">
-        <v>168577.54942683992</v>
+        <v>168565.1257823788</v>
       </c>
       <c r="Y212" s="143"/>
       <c r="Z212" s="143"/>
@@ -15509,13 +15509,13 @@
       <c r="F213" s="143"/>
       <c r="G213" s="143"/>
       <c r="H213" s="143">
-        <v>1181874.9587653424</v>
+        <v>1181872.1323342545</v>
       </c>
       <c r="I213" s="143"/>
       <c r="J213" s="143"/>
       <c r="K213" s="143"/>
       <c r="L213" s="143">
-        <v>1099357.5531812275</v>
+        <v>1099354.7267501396</v>
       </c>
       <c r="M213" s="143"/>
       <c r="N213" s="143"/>
@@ -15527,13 +15527,13 @@
       <c r="R213" s="143"/>
       <c r="S213" s="143"/>
       <c r="T213" s="143">
-        <v>1180142.5865210025</v>
+        <v>1180130.5950636489</v>
       </c>
       <c r="U213" s="143"/>
       <c r="V213" s="143"/>
       <c r="W213" s="143"/>
       <c r="X213" s="143">
-        <v>1107586.8954174309</v>
+        <v>1107574.9039600773</v>
       </c>
       <c r="Y213" s="143"/>
       <c r="Z213" s="143"/>
@@ -15589,13 +15589,13 @@
       <c r="F215" s="141"/>
       <c r="G215" s="141"/>
       <c r="H215" s="141">
-        <v>18512.252635527231</v>
+        <v>18512.24542506519</v>
       </c>
       <c r="I215" s="141"/>
       <c r="J215" s="141"/>
       <c r="K215" s="141"/>
       <c r="L215" s="141">
-        <v>16158.179084298841</v>
+        <v>16158.1718738368</v>
       </c>
       <c r="M215" s="141"/>
       <c r="N215" s="141"/>
@@ -15607,13 +15607,13 @@
       <c r="R215" s="141"/>
       <c r="S215" s="141"/>
       <c r="T215" s="141">
-        <v>18372.931914815148</v>
+        <v>18372.939943037669</v>
       </c>
       <c r="U215" s="141"/>
       <c r="V215" s="141"/>
       <c r="W215" s="141"/>
       <c r="X215" s="141">
-        <v>16004.237675860064</v>
+        <v>16004.245704082585</v>
       </c>
       <c r="Y215" s="141"/>
       <c r="Z215" s="141"/>
@@ -15631,13 +15631,13 @@
       <c r="F216" s="143"/>
       <c r="G216" s="143"/>
       <c r="H216" s="143">
-        <v>18512.252635527231</v>
+        <v>18512.24542506519</v>
       </c>
       <c r="I216" s="143"/>
       <c r="J216" s="143"/>
       <c r="K216" s="143"/>
       <c r="L216" s="143">
-        <v>14065.154048901324</v>
+        <v>14065.146838439283</v>
       </c>
       <c r="M216" s="143"/>
       <c r="N216" s="143"/>
@@ -15649,13 +15649,13 @@
       <c r="R216" s="143"/>
       <c r="S216" s="143"/>
       <c r="T216" s="143">
-        <v>18372.931914815148</v>
+        <v>18372.939943037669</v>
       </c>
       <c r="U216" s="143"/>
       <c r="V216" s="143"/>
       <c r="W216" s="143"/>
       <c r="X216" s="143">
-        <v>14076.80120268111</v>
+        <v>14076.809230903631</v>
       </c>
       <c r="Y216" s="143"/>
       <c r="Z216" s="143"/>
@@ -15757,13 +15757,13 @@
       <c r="F219" s="141"/>
       <c r="G219" s="141"/>
       <c r="H219" s="141">
-        <v>662140.290467387</v>
+        <v>662117.69724173786</v>
       </c>
       <c r="I219" s="141"/>
       <c r="J219" s="141"/>
       <c r="K219" s="141"/>
       <c r="L219" s="141">
-        <v>635190.00088011939</v>
+        <v>635167.4076544703</v>
       </c>
       <c r="M219" s="141"/>
       <c r="N219" s="141"/>
@@ -15775,13 +15775,13 @@
       <c r="R219" s="141"/>
       <c r="S219" s="141"/>
       <c r="T219" s="141">
-        <v>524424.42222166189</v>
+        <v>524328.1361375011</v>
       </c>
       <c r="U219" s="141"/>
       <c r="V219" s="141"/>
       <c r="W219" s="141"/>
       <c r="X219" s="141">
-        <v>501101.045208571</v>
+        <v>501004.75912441022</v>
       </c>
       <c r="Y219" s="141"/>
       <c r="Z219" s="141"/>
@@ -15841,13 +15841,13 @@
       <c r="F221" s="143"/>
       <c r="G221" s="143"/>
       <c r="H221" s="143">
-        <v>663853.6636333022</v>
+        <v>663831.07040765346</v>
       </c>
       <c r="I221" s="143"/>
       <c r="J221" s="143"/>
       <c r="K221" s="143"/>
       <c r="L221" s="143">
-        <v>630136.49647196522</v>
+        <v>630113.90324631648</v>
       </c>
       <c r="M221" s="143"/>
       <c r="N221" s="143"/>
@@ -15859,13 +15859,13 @@
       <c r="R221" s="143"/>
       <c r="S221" s="143"/>
       <c r="T221" s="143">
-        <v>525817.65810044063</v>
+        <v>525721.37201628</v>
       </c>
       <c r="U221" s="143"/>
       <c r="V221" s="143"/>
       <c r="W221" s="143"/>
       <c r="X221" s="143">
-        <v>496625.95985972288</v>
+        <v>496529.6737755622</v>
       </c>
       <c r="Y221" s="143"/>
       <c r="Z221" s="143"/>
@@ -15883,13 +15883,13 @@
       <c r="F222" s="143"/>
       <c r="G222" s="143"/>
       <c r="H222" s="143">
-        <v>666663.5956254038</v>
+        <v>666641.002399755</v>
       </c>
       <c r="I222" s="143"/>
       <c r="J222" s="143"/>
       <c r="K222" s="143"/>
       <c r="L222" s="143">
-        <v>630718.88264552131</v>
+        <v>630696.28941987245</v>
       </c>
       <c r="M222" s="143"/>
       <c r="N222" s="143"/>
@@ -15901,13 +15901,13 @@
       <c r="R222" s="143"/>
       <c r="S222" s="143"/>
       <c r="T222" s="143">
-        <v>528102.56494163873</v>
+        <v>528006.278857478</v>
       </c>
       <c r="U222" s="143"/>
       <c r="V222" s="143"/>
       <c r="W222" s="143"/>
       <c r="X222" s="143">
-        <v>496410.63932814135</v>
+        <v>496314.35324398067</v>
       </c>
       <c r="Y222" s="143"/>
       <c r="Z222" s="143"/>
@@ -16047,13 +16047,13 @@
       <c r="F226" s="143"/>
       <c r="G226" s="143"/>
       <c r="H226" s="143">
-        <v>864606.30041158746</v>
+        <v>864583.699975477</v>
       </c>
       <c r="I226" s="143"/>
       <c r="J226" s="143"/>
       <c r="K226" s="143"/>
       <c r="L226" s="143">
-        <v>822022.03488503618</v>
+        <v>821999.43444892566</v>
       </c>
       <c r="M226" s="143"/>
       <c r="N226" s="143"/>
@@ -16065,13 +16065,13 @@
       <c r="R226" s="143"/>
       <c r="S226" s="143"/>
       <c r="T226" s="143">
-        <v>703546.59290632955</v>
+        <v>703450.31485039135</v>
       </c>
       <c r="U226" s="143"/>
       <c r="V226" s="143"/>
       <c r="W226" s="143"/>
       <c r="X226" s="143">
-        <v>665914.86138843407</v>
+        <v>665818.58333249588</v>
       </c>
       <c r="Y226" s="143"/>
       <c r="Z226" s="143"/>
@@ -16211,13 +16211,13 @@
       <c r="F230" s="141"/>
       <c r="G230" s="141"/>
       <c r="H230" s="141">
-        <v>340476.29942283325</v>
+        <v>340473.827476102</v>
       </c>
       <c r="I230" s="141"/>
       <c r="J230" s="141"/>
       <c r="K230" s="141"/>
       <c r="L230" s="141">
-        <v>299819.39258583228</v>
+        <v>299816.920639101</v>
       </c>
       <c r="M230" s="141"/>
       <c r="N230" s="141"/>
@@ -16229,13 +16229,13 @@
       <c r="R230" s="141"/>
       <c r="S230" s="141"/>
       <c r="T230" s="141">
-        <v>254438.60635074781</v>
+        <v>254437.96815059794</v>
       </c>
       <c r="U230" s="141"/>
       <c r="V230" s="141"/>
       <c r="W230" s="141"/>
       <c r="X230" s="141">
-        <v>218507.60210546467</v>
+        <v>218506.9639053148</v>
       </c>
       <c r="Y230" s="141"/>
       <c r="Z230" s="141"/>
@@ -16253,13 +16253,13 @@
       <c r="F231" s="141"/>
       <c r="G231" s="141"/>
       <c r="H231" s="141">
-        <v>188573.43945692442</v>
+        <v>188579.30528773429</v>
       </c>
       <c r="I231" s="141"/>
       <c r="J231" s="141"/>
       <c r="K231" s="141"/>
       <c r="L231" s="141">
-        <v>184440.976288701</v>
+        <v>184446.84211951087</v>
       </c>
       <c r="M231" s="141"/>
       <c r="N231" s="141"/>
@@ -16271,13 +16271,13 @@
       <c r="R231" s="141"/>
       <c r="S231" s="141"/>
       <c r="T231" s="141">
-        <v>170962.95807579011</v>
+        <v>170971.7992679906</v>
       </c>
       <c r="U231" s="141"/>
       <c r="V231" s="141"/>
       <c r="W231" s="141"/>
       <c r="X231" s="141">
-        <v>166544.40069727434</v>
+        <v>166553.24188947483</v>
       </c>
       <c r="Y231" s="141"/>
       <c r="Z231" s="141"/>
@@ -16379,13 +16379,13 @@
       <c r="F234" s="143"/>
       <c r="G234" s="143"/>
       <c r="H234" s="143">
-        <v>1760352.7735727972</v>
+        <v>1760333.5670207653</v>
       </c>
       <c r="I234" s="143"/>
       <c r="J234" s="143"/>
       <c r="K234" s="143"/>
       <c r="L234" s="143">
-        <v>1647633.304530995</v>
+        <v>1647614.0979789631</v>
       </c>
       <c r="M234" s="143"/>
       <c r="N234" s="143"/>
@@ -16397,13 +16397,13 @@
       <c r="R234" s="143"/>
       <c r="S234" s="143"/>
       <c r="T234" s="143">
-        <v>1495945.5133852309</v>
+        <v>1495857.4383213457</v>
       </c>
       <c r="U234" s="143"/>
       <c r="V234" s="143"/>
       <c r="W234" s="143"/>
       <c r="X234" s="143">
-        <v>1391528.0004213669</v>
+        <v>1391439.9253574817</v>
       </c>
       <c r="Y234" s="143"/>
       <c r="Z234" s="143"/>
@@ -16627,13 +16627,13 @@
       <c r="F240" s="143"/>
       <c r="G240" s="143"/>
       <c r="H240" s="143">
-        <v>2987864.6700778422</v>
+        <v>2987842.5880986168</v>
       </c>
       <c r="I240" s="143"/>
       <c r="J240" s="143"/>
       <c r="K240" s="143"/>
       <c r="L240" s="143">
-        <v>2714799.0898503759</v>
+        <v>2714777.0078711505</v>
       </c>
       <c r="M240" s="143"/>
       <c r="N240" s="143"/>
@@ -16645,13 +16645,13 @@
       <c r="R240" s="143"/>
       <c r="S240" s="143"/>
       <c r="T240" s="143">
-        <v>2717186.1681515193</v>
+        <v>2717085.4790403312</v>
       </c>
       <c r="U240" s="143"/>
       <c r="V240" s="143"/>
       <c r="W240" s="143"/>
       <c r="X240" s="143">
-        <v>2499569.2077600379</v>
+        <v>2499468.51864885</v>
       </c>
       <c r="Y240" s="143"/>
       <c r="Z240" s="143"/>
@@ -17047,13 +17047,13 @@
       <c r="F252" s="143"/>
       <c r="G252" s="143"/>
       <c r="H252" s="143">
-        <v>2689040.2231528154</v>
+        <v>2689018.14117359</v>
       </c>
       <c r="I252" s="143"/>
       <c r="J252" s="143"/>
       <c r="K252" s="143"/>
       <c r="L252" s="143">
-        <v>2912839.4932286036</v>
+        <v>2912817.4112493782</v>
       </c>
       <c r="M252" s="143"/>
       <c r="N252" s="143"/>
@@ -17065,13 +17065,13 @@
       <c r="R252" s="143"/>
       <c r="S252" s="143"/>
       <c r="T252" s="143">
-        <v>2425360.0105495704</v>
+        <v>2425259.321438381</v>
       </c>
       <c r="U252" s="143"/>
       <c r="V252" s="143"/>
       <c r="W252" s="143"/>
       <c r="X252" s="143">
-        <v>2641350.7511768104</v>
+        <v>2641250.0620656209</v>
       </c>
       <c r="Y252" s="143"/>
       <c r="Z252" s="143"/>
@@ -17313,13 +17313,13 @@
       <c r="R259" s="136"/>
       <c r="S259" s="136"/>
       <c r="T259" s="136">
-        <v>1.3979010437442583</v>
+        <v>1.3979010572578059</v>
       </c>
       <c r="U259" s="136"/>
       <c r="V259" s="136"/>
       <c r="W259" s="136"/>
       <c r="X259" s="136">
-        <v>-0.64047367195574156</v>
+        <v>-0.640473658442194</v>
       </c>
       <c r="Y259" s="136"/>
       <c r="Z259" s="136"/>
@@ -17337,13 +17337,13 @@
       <c r="F260" s="144"/>
       <c r="G260" s="144"/>
       <c r="H260" s="144">
-        <v>1.3119014928251083</v>
+        <v>1.3119014928251074</v>
       </c>
       <c r="I260" s="144"/>
       <c r="J260" s="144"/>
       <c r="K260" s="144"/>
       <c r="L260" s="144">
-        <v>0.24828264577058112</v>
+        <v>0.24828264577058024</v>
       </c>
       <c r="M260" s="144"/>
       <c r="N260" s="144"/>
@@ -17355,13 +17355,13 @@
       <c r="R260" s="144"/>
       <c r="S260" s="144"/>
       <c r="T260" s="144">
-        <v>1.0413112340044368</v>
+        <v>1.04131124407082</v>
       </c>
       <c r="U260" s="144"/>
       <c r="V260" s="144"/>
       <c r="W260" s="144"/>
       <c r="X260" s="144">
-        <v>0.10481775200715304</v>
+        <v>0.10481776207353633</v>
       </c>
       <c r="Y260" s="144"/>
       <c r="Z260" s="144"/>
@@ -17397,13 +17397,13 @@
       <c r="R261" s="136"/>
       <c r="S261" s="136"/>
       <c r="T261" s="136">
-        <v>2.8643661110335832</v>
+        <v>2.8643739661246044</v>
       </c>
       <c r="U261" s="136"/>
       <c r="V261" s="136"/>
       <c r="W261" s="136"/>
       <c r="X261" s="136">
-        <v>0.61613871381923246</v>
+        <v>0.61614656891025366</v>
       </c>
       <c r="Y261" s="136"/>
       <c r="Z261" s="136"/>
@@ -17439,13 +17439,13 @@
       <c r="R262" s="144"/>
       <c r="S262" s="144"/>
       <c r="T262" s="144">
-        <v>2.8643661110335832</v>
+        <v>2.8643739661246044</v>
       </c>
       <c r="U262" s="144"/>
       <c r="V262" s="144"/>
       <c r="W262" s="144"/>
       <c r="X262" s="144">
-        <v>0.61613871381923246</v>
+        <v>0.61614656891025366</v>
       </c>
       <c r="Y262" s="144"/>
       <c r="Z262" s="144"/>
@@ -17617,13 +17617,13 @@
       <c r="F267" s="136"/>
       <c r="G267" s="136"/>
       <c r="H267" s="136">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="I267" s="136"/>
       <c r="J267" s="136"/>
       <c r="K267" s="136"/>
       <c r="L267" s="136">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="M267" s="136"/>
       <c r="N267" s="136"/>
@@ -17633,13 +17633,13 @@
       <c r="R267" s="136"/>
       <c r="S267" s="136"/>
       <c r="T267" s="136">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="U267" s="136"/>
       <c r="V267" s="136"/>
       <c r="W267" s="136"/>
       <c r="X267" s="136">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="Y267" s="136"/>
       <c r="Z267" s="136"/>
@@ -17657,13 +17657,13 @@
       <c r="F268" s="144"/>
       <c r="G268" s="144"/>
       <c r="H268" s="144">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="I268" s="144"/>
       <c r="J268" s="144"/>
       <c r="K268" s="144"/>
       <c r="L268" s="144">
-        <v>-0.13811500030905632</v>
+        <v>-0.13815338550834433</v>
       </c>
       <c r="M268" s="144"/>
       <c r="N268" s="144"/>
@@ -17675,13 +17675,13 @@
       <c r="R268" s="144"/>
       <c r="S268" s="144"/>
       <c r="T268" s="144">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="U268" s="144"/>
       <c r="V268" s="144"/>
       <c r="W268" s="144"/>
       <c r="X268" s="144">
-        <v>-0.20353118005210735</v>
+        <v>-0.20369955201709233</v>
       </c>
       <c r="Y268" s="144"/>
       <c r="Z268" s="144"/>
@@ -17699,13 +17699,13 @@
       <c r="F269" s="144"/>
       <c r="G269" s="144"/>
       <c r="H269" s="144">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="I269" s="144"/>
       <c r="J269" s="144"/>
       <c r="K269" s="144"/>
       <c r="L269" s="144">
-        <v>-0.15155677077263663</v>
+        <v>-0.15159515597192463</v>
       </c>
       <c r="M269" s="144"/>
       <c r="N269" s="144"/>
@@ -17717,13 +17717,13 @@
       <c r="R269" s="144"/>
       <c r="S269" s="144"/>
       <c r="T269" s="144">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="U269" s="144"/>
       <c r="V269" s="144"/>
       <c r="W269" s="144"/>
       <c r="X269" s="144">
-        <v>-0.23829388828240372</v>
+        <v>-0.2384622602473887</v>
       </c>
       <c r="Y269" s="144"/>
       <c r="Z269" s="144"/>
@@ -17741,13 +17741,13 @@
       <c r="F270" s="144"/>
       <c r="G270" s="144"/>
       <c r="H270" s="144">
-        <v>2.6628415769406346</v>
+        <v>2.6628351159177686</v>
       </c>
       <c r="I270" s="144"/>
       <c r="J270" s="144"/>
       <c r="K270" s="144"/>
       <c r="L270" s="144">
-        <v>0.063625127953188088</v>
+        <v>0.063618666930322032</v>
       </c>
       <c r="M270" s="144"/>
       <c r="N270" s="144"/>
@@ -17759,13 +17759,13 @@
       <c r="R270" s="144"/>
       <c r="S270" s="144"/>
       <c r="T270" s="144">
-        <v>2.6598513008444811</v>
+        <v>2.6598239486236031</v>
       </c>
       <c r="U270" s="144"/>
       <c r="V270" s="144"/>
       <c r="W270" s="144"/>
       <c r="X270" s="144">
-        <v>0.38148586130588669</v>
+        <v>0.38145850908500867</v>
       </c>
       <c r="Y270" s="144"/>
       <c r="Z270" s="144"/>
@@ -17821,13 +17821,13 @@
       <c r="F272" s="136"/>
       <c r="G272" s="136"/>
       <c r="H272" s="136">
-        <v>10.870213122978514</v>
+        <v>10.870208699382175</v>
       </c>
       <c r="I272" s="136"/>
       <c r="J272" s="136"/>
       <c r="K272" s="136"/>
       <c r="L272" s="136">
-        <v>6.6834815382131945</v>
+        <v>6.6834771146168555</v>
       </c>
       <c r="M272" s="136"/>
       <c r="N272" s="136"/>
@@ -17839,13 +17839,13 @@
       <c r="R272" s="136"/>
       <c r="S272" s="136"/>
       <c r="T272" s="136">
-        <v>10.784740288186617</v>
+        <v>10.784745213476532</v>
       </c>
       <c r="U272" s="136"/>
       <c r="V272" s="136"/>
       <c r="W272" s="136"/>
       <c r="X272" s="136">
-        <v>6.5689810940962676</v>
+        <v>6.5689860193861822</v>
       </c>
       <c r="Y272" s="136"/>
       <c r="Z272" s="136"/>
@@ -17863,13 +17863,13 @@
       <c r="F273" s="144"/>
       <c r="G273" s="144"/>
       <c r="H273" s="144">
-        <v>10.870213122978514</v>
+        <v>10.870208699382175</v>
       </c>
       <c r="I273" s="144"/>
       <c r="J273" s="144"/>
       <c r="K273" s="144"/>
       <c r="L273" s="144">
-        <v>5.9629478181731139</v>
+        <v>5.9629433945767749</v>
       </c>
       <c r="M273" s="144"/>
       <c r="N273" s="144"/>
@@ -17881,13 +17881,13 @@
       <c r="R273" s="144"/>
       <c r="S273" s="144"/>
       <c r="T273" s="144">
-        <v>10.784740288186617</v>
+        <v>10.784745213476532</v>
       </c>
       <c r="U273" s="144"/>
       <c r="V273" s="144"/>
       <c r="W273" s="144"/>
       <c r="X273" s="144">
-        <v>6.0605966999940142</v>
+        <v>6.0606016252839288</v>
       </c>
       <c r="Y273" s="144"/>
       <c r="Z273" s="144"/>
@@ -17989,13 +17989,13 @@
       <c r="F276" s="136"/>
       <c r="G276" s="136"/>
       <c r="H276" s="136">
-        <v>5.7064645203862945</v>
+        <v>5.7062621753880265</v>
       </c>
       <c r="I276" s="136"/>
       <c r="J276" s="136"/>
       <c r="K276" s="136"/>
       <c r="L276" s="136">
-        <v>-2.3096533353935165</v>
+        <v>-2.3098556803917845</v>
       </c>
       <c r="M276" s="136"/>
       <c r="N276" s="136"/>
@@ -18007,13 +18007,13 @@
       <c r="R276" s="136"/>
       <c r="S276" s="136"/>
       <c r="T276" s="136">
-        <v>4.4773976049836008</v>
+        <v>4.47653750305839</v>
       </c>
       <c r="U276" s="136"/>
       <c r="V276" s="136"/>
       <c r="W276" s="136"/>
       <c r="X276" s="136">
-        <v>-2.3091219206615712</v>
+        <v>-2.309982022586782</v>
       </c>
       <c r="Y276" s="136"/>
       <c r="Z276" s="136"/>
@@ -18073,13 +18073,13 @@
       <c r="F278" s="144"/>
       <c r="G278" s="144"/>
       <c r="H278" s="144">
-        <v>5.70729013383009</v>
+        <v>5.7070882410196262</v>
       </c>
       <c r="I278" s="144"/>
       <c r="J278" s="144"/>
       <c r="K278" s="144"/>
       <c r="L278" s="144">
-        <v>-1.6131984785790392</v>
+        <v>-1.6134003713895027</v>
       </c>
       <c r="M278" s="144"/>
       <c r="N278" s="144"/>
@@ -18091,13 +18091,13 @@
       <c r="R278" s="144"/>
       <c r="S278" s="144"/>
       <c r="T278" s="144">
-        <v>4.4781449285386508</v>
+        <v>4.4772867487148167</v>
       </c>
       <c r="U278" s="144"/>
       <c r="V278" s="144"/>
       <c r="W278" s="144"/>
       <c r="X278" s="144">
-        <v>-1.7264452117455837</v>
+        <v>-1.7273033915694178</v>
       </c>
       <c r="Y278" s="144"/>
       <c r="Z278" s="144"/>
@@ -18115,13 +18115,13 @@
       <c r="F279" s="144"/>
       <c r="G279" s="144"/>
       <c r="H279" s="144">
-        <v>5.7086361808113635</v>
+        <v>5.7084350252297247</v>
       </c>
       <c r="I279" s="144"/>
       <c r="J279" s="144"/>
       <c r="K279" s="144"/>
       <c r="L279" s="144">
-        <v>-1.3597047364167594</v>
+        <v>-1.3599058919983982</v>
       </c>
       <c r="M279" s="144"/>
       <c r="N279" s="144"/>
@@ -18133,13 +18133,13 @@
       <c r="R279" s="144"/>
       <c r="S279" s="144"/>
       <c r="T279" s="144">
-        <v>4.4793633348314179</v>
+        <v>4.4785082887244334</v>
       </c>
       <c r="U279" s="144"/>
       <c r="V279" s="144"/>
       <c r="W279" s="144"/>
       <c r="X279" s="144">
-        <v>-1.6287099182278704</v>
+        <v>-1.6295649643348549</v>
       </c>
       <c r="Y279" s="144"/>
       <c r="Z279" s="144"/>
@@ -18279,13 +18279,13 @@
       <c r="F283" s="144"/>
       <c r="G283" s="144"/>
       <c r="H283" s="144">
-        <v>5.9281919292427148</v>
+        <v>5.9280305048416819</v>
       </c>
       <c r="I283" s="144"/>
       <c r="J283" s="144"/>
       <c r="K283" s="144"/>
       <c r="L283" s="144">
-        <v>-0.6776620370425972</v>
+        <v>-0.67782346144363</v>
       </c>
       <c r="M283" s="144"/>
       <c r="N283" s="144"/>
@@ -18297,13 +18297,13 @@
       <c r="R283" s="144"/>
       <c r="S283" s="144"/>
       <c r="T283" s="144">
-        <v>4.7503479693075148</v>
+        <v>4.7496620837068466</v>
       </c>
       <c r="U283" s="144"/>
       <c r="V283" s="144"/>
       <c r="W283" s="144"/>
       <c r="X283" s="144">
-        <v>-0.97068996575990241</v>
+        <v>-0.97137585136057059</v>
       </c>
       <c r="Y283" s="144"/>
       <c r="Z283" s="144"/>
@@ -18443,13 +18443,13 @@
       <c r="F287" s="136"/>
       <c r="G287" s="136"/>
       <c r="H287" s="136">
-        <v>11.743565492563784</v>
+        <v>11.743475642390232</v>
       </c>
       <c r="I287" s="136"/>
       <c r="J287" s="136"/>
       <c r="K287" s="136"/>
       <c r="L287" s="136">
-        <v>3.5380722865756269</v>
+        <v>3.5379824364020749</v>
       </c>
       <c r="M287" s="136"/>
       <c r="N287" s="136"/>
@@ -18461,13 +18461,13 @@
       <c r="R287" s="136"/>
       <c r="S287" s="136"/>
       <c r="T287" s="136">
-        <v>8.560668212402943</v>
+        <v>8.5606451986516756</v>
       </c>
       <c r="U287" s="136"/>
       <c r="V287" s="136"/>
       <c r="W287" s="136"/>
       <c r="X287" s="136">
-        <v>1.4956920820402582</v>
+        <v>1.4956690682889908</v>
       </c>
       <c r="Y287" s="136"/>
       <c r="Z287" s="136"/>
@@ -18485,13 +18485,13 @@
       <c r="F288" s="136"/>
       <c r="G288" s="136"/>
       <c r="H288" s="136">
-        <v>11.320388838802584</v>
+        <v>11.320806930824618</v>
       </c>
       <c r="I288" s="136"/>
       <c r="J288" s="136"/>
       <c r="K288" s="136"/>
       <c r="L288" s="136">
-        <v>5.9459211045921254</v>
+        <v>5.94633919661416</v>
       </c>
       <c r="M288" s="136"/>
       <c r="N288" s="136"/>
@@ -18503,13 +18503,13 @@
       <c r="R288" s="136"/>
       <c r="S288" s="136"/>
       <c r="T288" s="136">
-        <v>9.5638175149535609</v>
+        <v>9.5644476783148</v>
       </c>
       <c r="U288" s="136"/>
       <c r="V288" s="136"/>
       <c r="W288" s="136"/>
       <c r="X288" s="136">
-        <v>3.9574779402032068</v>
+        <v>3.9581081035644452</v>
       </c>
       <c r="Y288" s="136"/>
       <c r="Z288" s="136"/>
@@ -18611,13 +18611,13 @@
       <c r="F291" s="144"/>
       <c r="G291" s="144"/>
       <c r="H291" s="144">
-        <v>6.3292987524767641</v>
+        <v>6.3292251382833031</v>
       </c>
       <c r="I291" s="144"/>
       <c r="J291" s="144"/>
       <c r="K291" s="144"/>
       <c r="L291" s="144">
-        <v>0.34985002553625577</v>
+        <v>0.3497764113427948</v>
       </c>
       <c r="M291" s="144"/>
       <c r="N291" s="144"/>
@@ -18629,13 +18629,13 @@
       <c r="R291" s="144"/>
       <c r="S291" s="144"/>
       <c r="T291" s="144">
-        <v>5.2681150596341926</v>
+        <v>5.2677784233709275</v>
       </c>
       <c r="U291" s="144"/>
       <c r="V291" s="144"/>
       <c r="W291" s="144"/>
       <c r="X291" s="144">
-        <v>-0.14273712530948135</v>
+        <v>-0.14307376157274643</v>
       </c>
       <c r="Y291" s="144"/>
       <c r="Z291" s="144"/>
@@ -18859,13 +18859,13 @@
       <c r="F297" s="144"/>
       <c r="G297" s="144"/>
       <c r="H297" s="144">
-        <v>3.8957690551196351</v>
+        <v>3.895739285921282</v>
       </c>
       <c r="I297" s="144"/>
       <c r="J297" s="144"/>
       <c r="K297" s="144"/>
       <c r="L297" s="144">
-        <v>2.0343985909601958</v>
+        <v>2.0343688217618432</v>
       </c>
       <c r="M297" s="144"/>
       <c r="N297" s="144"/>
@@ -18877,13 +18877,13 @@
       <c r="R297" s="144"/>
       <c r="S297" s="144"/>
       <c r="T297" s="144">
-        <v>3.489403895951162</v>
+        <v>3.4892709432279827</v>
       </c>
       <c r="U297" s="144"/>
       <c r="V297" s="144"/>
       <c r="W297" s="144"/>
       <c r="X297" s="144">
-        <v>1.6418613232131853</v>
+        <v>1.6417283704900061</v>
       </c>
       <c r="Y297" s="144"/>
       <c r="Z297" s="144"/>
@@ -19439,13 +19439,13 @@
       <c r="F313" s="141"/>
       <c r="G313" s="141"/>
       <c r="H313" s="141">
-        <v>10854.528061035311</v>
+        <v>10854.509579505311</v>
       </c>
       <c r="I313" s="141"/>
       <c r="J313" s="141"/>
       <c r="K313" s="141"/>
       <c r="L313" s="141">
-        <v>-34953.729719793941</v>
+        <v>-34953.748201323942</v>
       </c>
       <c r="M313" s="141"/>
       <c r="N313" s="141"/>
@@ -19457,13 +19457,13 @@
       <c r="R313" s="141"/>
       <c r="S313" s="141"/>
       <c r="T313" s="141">
-        <v>12168.08288214863</v>
+        <v>12167.873071141445</v>
       </c>
       <c r="U313" s="141"/>
       <c r="V313" s="141"/>
       <c r="W313" s="141"/>
       <c r="X313" s="141">
-        <v>-14253.181923462864</v>
+        <v>-14253.391734470051</v>
       </c>
       <c r="Y313" s="141"/>
       <c r="Z313" s="141"/>
@@ -19481,13 +19481,13 @@
       <c r="F314" s="141"/>
       <c r="G314" s="141"/>
       <c r="H314" s="141">
-        <v>2837.9258545815633</v>
+        <v>2837.9100357122284</v>
       </c>
       <c r="I314" s="141"/>
       <c r="J314" s="141"/>
       <c r="K314" s="141"/>
       <c r="L314" s="141">
-        <v>222.23225650031026</v>
+        <v>222.21643763097515</v>
       </c>
       <c r="M314" s="141"/>
       <c r="N314" s="141"/>
@@ -19499,13 +19499,13 @@
       <c r="R314" s="141"/>
       <c r="S314" s="141"/>
       <c r="T314" s="141">
-        <v>3069.4377466425067</v>
+        <v>3069.3495234900188</v>
       </c>
       <c r="U314" s="141"/>
       <c r="V314" s="141"/>
       <c r="W314" s="141"/>
       <c r="X314" s="141">
-        <v>1827.1676353676928</v>
+        <v>1827.0794122152049</v>
       </c>
       <c r="Y314" s="141"/>
       <c r="Z314" s="141"/>
@@ -19523,13 +19523,13 @@
       <c r="F315" s="143"/>
       <c r="G315" s="143"/>
       <c r="H315" s="143">
-        <v>13692.453915616883</v>
+        <v>13692.419615217541</v>
       </c>
       <c r="I315" s="143"/>
       <c r="J315" s="143"/>
       <c r="K315" s="143"/>
       <c r="L315" s="143">
-        <v>-34731.497463293636</v>
+        <v>-34731.531763692976</v>
       </c>
       <c r="M315" s="143"/>
       <c r="N315" s="143"/>
@@ -19541,13 +19541,13 @@
       <c r="R315" s="143"/>
       <c r="S315" s="143"/>
       <c r="T315" s="143">
-        <v>15237.520628791132</v>
+        <v>15237.222594631458</v>
       </c>
       <c r="U315" s="143"/>
       <c r="V315" s="143"/>
       <c r="W315" s="143"/>
       <c r="X315" s="143">
-        <v>-12426.014288095203</v>
+        <v>-12426.312322254877</v>
       </c>
       <c r="Y315" s="143"/>
       <c r="Z315" s="143"/>
@@ -19803,13 +19803,13 @@
       <c r="F322" s="141"/>
       <c r="G322" s="141"/>
       <c r="H322" s="141">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="I322" s="141"/>
       <c r="J322" s="141"/>
       <c r="K322" s="141"/>
       <c r="L322" s="141">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="M322" s="141"/>
       <c r="N322" s="141"/>
@@ -19819,13 +19819,13 @@
       <c r="R322" s="141"/>
       <c r="S322" s="141"/>
       <c r="T322" s="141">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="U322" s="141"/>
       <c r="V322" s="141"/>
       <c r="W322" s="141"/>
       <c r="X322" s="141">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="Y322" s="141"/>
       <c r="Z322" s="141"/>
@@ -19843,13 +19843,13 @@
       <c r="F323" s="143"/>
       <c r="G323" s="143"/>
       <c r="H323" s="143">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="I323" s="143"/>
       <c r="J323" s="143"/>
       <c r="K323" s="143"/>
       <c r="L323" s="143">
-        <v>991.83734717033053</v>
+        <v>991.831213997471</v>
       </c>
       <c r="M323" s="143"/>
       <c r="N323" s="143"/>
@@ -19861,13 +19861,13 @@
       <c r="R323" s="143"/>
       <c r="S323" s="143"/>
       <c r="T323" s="143">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="U323" s="143"/>
       <c r="V323" s="143"/>
       <c r="W323" s="143"/>
       <c r="X323" s="143">
-        <v>1176.0979235160683</v>
+        <v>1176.062140718793</v>
       </c>
       <c r="Y323" s="143"/>
       <c r="Z323" s="143"/>
@@ -19885,13 +19885,13 @@
       <c r="F324" s="143"/>
       <c r="G324" s="143"/>
       <c r="H324" s="143">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="I324" s="143"/>
       <c r="J324" s="143"/>
       <c r="K324" s="143"/>
       <c r="L324" s="143">
-        <v>959.58392658639286</v>
+        <v>959.5777934135333</v>
       </c>
       <c r="M324" s="143"/>
       <c r="N324" s="143"/>
@@ -19903,13 +19903,13 @@
       <c r="R324" s="143"/>
       <c r="S324" s="143"/>
       <c r="T324" s="143">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="U324" s="143"/>
       <c r="V324" s="143"/>
       <c r="W324" s="143"/>
       <c r="X324" s="143">
-        <v>1153.8887910948197</v>
+        <v>1153.8530082975444</v>
       </c>
       <c r="Y324" s="143"/>
       <c r="Z324" s="143"/>
@@ -19927,13 +19927,13 @@
       <c r="F325" s="143"/>
       <c r="G325" s="143"/>
       <c r="H325" s="143">
-        <v>1351.6394819149218</v>
+        <v>1351.6333487420625</v>
       </c>
       <c r="I325" s="143"/>
       <c r="J325" s="143"/>
       <c r="K325" s="143"/>
       <c r="L325" s="143">
-        <v>1139.9854513722039</v>
+        <v>1139.9793181993443</v>
       </c>
       <c r="M325" s="143"/>
       <c r="N325" s="143"/>
@@ -19945,13 +19945,13 @@
       <c r="R325" s="143"/>
       <c r="S325" s="143"/>
       <c r="T325" s="143">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="U325" s="143"/>
       <c r="V325" s="143"/>
       <c r="W325" s="143"/>
       <c r="X325" s="143">
-        <v>568.262116461895</v>
+        <v>568.22633366461957</v>
       </c>
       <c r="Y325" s="143"/>
       <c r="Z325" s="143"/>
@@ -20175,13 +20175,13 @@
       <c r="F331" s="141"/>
       <c r="G331" s="141"/>
       <c r="H331" s="141">
-        <v>4849.8676850174243</v>
+        <v>4849.807226899421</v>
       </c>
       <c r="I331" s="141"/>
       <c r="J331" s="141"/>
       <c r="K331" s="141"/>
       <c r="L331" s="141">
-        <v>4758.2479196610047</v>
+        <v>4758.1874615430015</v>
       </c>
       <c r="M331" s="141"/>
       <c r="N331" s="141"/>
@@ -20193,13 +20193,13 @@
       <c r="R331" s="141"/>
       <c r="S331" s="141"/>
       <c r="T331" s="141">
-        <v>4333.6429144641625</v>
+        <v>4333.3103945731073</v>
       </c>
       <c r="U331" s="141"/>
       <c r="V331" s="141"/>
       <c r="W331" s="141"/>
       <c r="X331" s="141">
-        <v>4231.664882481663</v>
+        <v>4231.3323625906078</v>
       </c>
       <c r="Y331" s="141"/>
       <c r="Z331" s="141"/>
@@ -20259,13 +20259,13 @@
       <c r="F333" s="143"/>
       <c r="G333" s="143"/>
       <c r="H333" s="143">
-        <v>4859.0545356086341</v>
+        <v>4858.994077490629</v>
       </c>
       <c r="I333" s="143"/>
       <c r="J333" s="143"/>
       <c r="K333" s="143"/>
       <c r="L333" s="143">
-        <v>4715.5685169872968</v>
+        <v>4715.5080588692908</v>
       </c>
       <c r="M333" s="143"/>
       <c r="N333" s="143"/>
@@ -20277,13 +20277,13 @@
       <c r="R333" s="143"/>
       <c r="S333" s="143"/>
       <c r="T333" s="143">
-        <v>4342.9035098197419</v>
+        <v>4342.570989928684</v>
       </c>
       <c r="U333" s="143"/>
       <c r="V333" s="143"/>
       <c r="W333" s="143"/>
       <c r="X333" s="143">
-        <v>4191.0763135473953</v>
+        <v>4190.7437936563374</v>
       </c>
       <c r="Y333" s="143"/>
       <c r="Z333" s="143"/>
@@ -20301,13 +20301,13 @@
       <c r="F334" s="143"/>
       <c r="G334" s="143"/>
       <c r="H334" s="143">
-        <v>4874.1209705782157</v>
+        <v>4874.0605124602134</v>
       </c>
       <c r="I334" s="143"/>
       <c r="J334" s="143"/>
       <c r="K334" s="143"/>
       <c r="L334" s="143">
-        <v>4714.6922248948067</v>
+        <v>4714.6317667768044</v>
       </c>
       <c r="M334" s="143"/>
       <c r="N334" s="143"/>
@@ -20319,13 +20319,13 @@
       <c r="R334" s="143"/>
       <c r="S334" s="143"/>
       <c r="T334" s="143">
-        <v>4358.0908862028891</v>
+        <v>4357.758366311833</v>
       </c>
       <c r="U334" s="143"/>
       <c r="V334" s="143"/>
       <c r="W334" s="143"/>
       <c r="X334" s="143">
-        <v>4190.5155696673328</v>
+        <v>4190.1830497762767</v>
       </c>
       <c r="Y334" s="143"/>
       <c r="Z334" s="143"/>
@@ -20465,13 +20465,13 @@
       <c r="F338" s="143"/>
       <c r="G338" s="143"/>
       <c r="H338" s="143">
-        <v>5725.4127529218558</v>
+        <v>5725.3522948038526</v>
       </c>
       <c r="I338" s="143"/>
       <c r="J338" s="143"/>
       <c r="K338" s="143"/>
       <c r="L338" s="143">
-        <v>5545.8965276354957</v>
+        <v>5545.8360695174924</v>
       </c>
       <c r="M338" s="143"/>
       <c r="N338" s="143"/>
@@ -20483,13 +20483,13 @@
       <c r="R338" s="143"/>
       <c r="S338" s="143"/>
       <c r="T338" s="143">
-        <v>5294.33571862633</v>
+        <v>5294.003198735275</v>
       </c>
       <c r="U338" s="143"/>
       <c r="V338" s="143"/>
       <c r="W338" s="143"/>
       <c r="X338" s="143">
-        <v>5113.658798147123</v>
+        <v>5113.3262782560678</v>
       </c>
       <c r="Y338" s="143"/>
       <c r="Z338" s="143"/>
@@ -20629,13 +20629,13 @@
       <c r="F342" s="141"/>
       <c r="G342" s="141"/>
       <c r="H342" s="141">
-        <v>1170.5477607957694</v>
+        <v>1170.5488679268306</v>
       </c>
       <c r="I342" s="141"/>
       <c r="J342" s="141"/>
       <c r="K342" s="141"/>
       <c r="L342" s="141">
-        <v>1047.958675147102</v>
+        <v>1047.9597822781634</v>
       </c>
       <c r="M342" s="141"/>
       <c r="N342" s="141"/>
@@ -20647,13 +20647,13 @@
       <c r="R342" s="141"/>
       <c r="S342" s="141"/>
       <c r="T342" s="141">
-        <v>1322.6091128634068</v>
+        <v>1322.6093632118932</v>
       </c>
       <c r="U342" s="141"/>
       <c r="V342" s="141"/>
       <c r="W342" s="141"/>
       <c r="X342" s="141">
-        <v>1181.8308519824866</v>
+        <v>1181.831102330973</v>
       </c>
       <c r="Y342" s="141"/>
       <c r="Z342" s="141"/>
@@ -20671,13 +20671,13 @@
       <c r="F343" s="141"/>
       <c r="G343" s="141"/>
       <c r="H343" s="141">
-        <v>560.43954243792007</v>
+        <v>560.43701872391136</v>
       </c>
       <c r="I343" s="141"/>
       <c r="J343" s="141"/>
       <c r="K343" s="141"/>
       <c r="L343" s="141">
-        <v>547.77129344161744</v>
+        <v>547.76876972760874</v>
       </c>
       <c r="M343" s="141"/>
       <c r="N343" s="141"/>
@@ -20689,13 +20689,13 @@
       <c r="R343" s="141"/>
       <c r="S343" s="141"/>
       <c r="T343" s="141">
-        <v>880.54824685474944</v>
+        <v>880.54540476228158</v>
       </c>
       <c r="U343" s="141"/>
       <c r="V343" s="141"/>
       <c r="W343" s="141"/>
       <c r="X343" s="141">
-        <v>861.01660202476558</v>
+        <v>861.01375993229783</v>
       </c>
       <c r="Y343" s="141"/>
       <c r="Z343" s="141"/>
@@ -20797,13 +20797,13 @@
       <c r="F346" s="143"/>
       <c r="G346" s="143"/>
       <c r="H346" s="143">
-        <v>7602.025260532032</v>
+        <v>7601.963385831079</v>
       </c>
       <c r="I346" s="143"/>
       <c r="J346" s="143"/>
       <c r="K346" s="143"/>
       <c r="L346" s="143">
-        <v>7124.5438338679332</v>
+        <v>7124.4819591669811</v>
       </c>
       <c r="M346" s="143"/>
       <c r="N346" s="143"/>
@@ -20815,13 +20815,13 @@
       <c r="R346" s="143"/>
       <c r="S346" s="143"/>
       <c r="T346" s="143">
-        <v>7643.610638570558</v>
+        <v>7643.2755269355212</v>
       </c>
       <c r="U346" s="143"/>
       <c r="V346" s="143"/>
       <c r="W346" s="143"/>
       <c r="X346" s="143">
-        <v>6868.3908877340673</v>
+        <v>6868.0557760990305</v>
       </c>
       <c r="Y346" s="143"/>
       <c r="Z346" s="143"/>
@@ -21045,13 +21045,13 @@
       <c r="F352" s="143"/>
       <c r="G352" s="143"/>
       <c r="H352" s="143">
-        <v>22646.118658063828</v>
+        <v>22646.01634979068</v>
       </c>
       <c r="I352" s="143"/>
       <c r="J352" s="143"/>
       <c r="K352" s="143"/>
       <c r="L352" s="143">
-        <v>-26466.9681780535</v>
+        <v>-26467.070486326647</v>
       </c>
       <c r="M352" s="143"/>
       <c r="N352" s="143"/>
@@ -21063,13 +21063,13 @@
       <c r="R352" s="143"/>
       <c r="S352" s="143"/>
       <c r="T352" s="143">
-        <v>24108.389164289671</v>
+        <v>24107.720235697685</v>
       </c>
       <c r="U352" s="143"/>
       <c r="V352" s="143"/>
       <c r="W352" s="143"/>
       <c r="X352" s="143">
-        <v>-4989.3612838992176</v>
+        <v>-4990.0302124912032</v>
       </c>
       <c r="Y352" s="143"/>
       <c r="Z352" s="143"/>
@@ -21713,13 +21713,13 @@
       <c r="F370" s="144"/>
       <c r="G370" s="144"/>
       <c r="H370" s="144">
-        <v>0.19142776728246194</v>
+        <v>0.19142617199506995</v>
       </c>
       <c r="I370" s="144"/>
       <c r="J370" s="144"/>
       <c r="K370" s="144"/>
       <c r="L370" s="144">
-        <v>0.10308844418788278</v>
+        <v>0.10308684890049079</v>
       </c>
       <c r="M370" s="144"/>
       <c r="N370" s="144"/>
@@ -21731,13 +21731,13 @@
       <c r="R370" s="144"/>
       <c r="S370" s="144"/>
       <c r="T370" s="144">
-        <v>0.15588445467553375</v>
+        <v>0.15587825980010878</v>
       </c>
       <c r="U370" s="144"/>
       <c r="V370" s="144"/>
       <c r="W370" s="144"/>
       <c r="X370" s="144">
-        <v>0.078779531138924247</v>
+        <v>0.078773336263499277</v>
       </c>
       <c r="Y370" s="144"/>
       <c r="Z370" s="144"/>
@@ -21755,13 +21755,13 @@
       <c r="F371" s="136"/>
       <c r="G371" s="136"/>
       <c r="H371" s="136">
-        <v>1.6472201784000002</v>
+        <v>1.6479601064999996</v>
       </c>
       <c r="I371" s="136"/>
       <c r="J371" s="136"/>
       <c r="K371" s="136"/>
       <c r="L371" s="136">
-        <v>-0.048772728799999721</v>
+        <v>-0.048032800700000378</v>
       </c>
       <c r="M371" s="136"/>
       <c r="N371" s="136"/>
@@ -21773,13 +21773,13 @@
       <c r="R371" s="136"/>
       <c r="S371" s="136"/>
       <c r="T371" s="136">
-        <v>1.6539250659</v>
+        <v>1.6549308419999997</v>
       </c>
       <c r="U371" s="136"/>
       <c r="V371" s="136"/>
       <c r="W371" s="136"/>
       <c r="X371" s="136">
-        <v>-0.0792947037499998</v>
+        <v>-0.078288927650000062</v>
       </c>
       <c r="Y371" s="136"/>
       <c r="Z371" s="136"/>
@@ -21797,13 +21797,13 @@
       <c r="F372" s="144"/>
       <c r="G372" s="144"/>
       <c r="H372" s="144">
-        <v>1.6472201784000002</v>
+        <v>1.6479601064999996</v>
       </c>
       <c r="I372" s="144"/>
       <c r="J372" s="144"/>
       <c r="K372" s="144"/>
       <c r="L372" s="144">
-        <v>-0.048772728799999721</v>
+        <v>-0.048032800700000378</v>
       </c>
       <c r="M372" s="144"/>
       <c r="N372" s="144"/>
@@ -21815,13 +21815,13 @@
       <c r="R372" s="144"/>
       <c r="S372" s="144"/>
       <c r="T372" s="144">
-        <v>1.6539250659</v>
+        <v>1.6549308419999997</v>
       </c>
       <c r="U372" s="144"/>
       <c r="V372" s="144"/>
       <c r="W372" s="144"/>
       <c r="X372" s="144">
-        <v>-0.0792947037499998</v>
+        <v>-0.078288927650000062</v>
       </c>
       <c r="Y372" s="144"/>
       <c r="Z372" s="144"/>
@@ -21993,13 +21993,13 @@
       <c r="F377" s="136"/>
       <c r="G377" s="136"/>
       <c r="H377" s="136">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="I377" s="136"/>
       <c r="J377" s="136"/>
       <c r="K377" s="136"/>
       <c r="L377" s="136">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="M377" s="136"/>
       <c r="N377" s="136"/>
@@ -22009,13 +22009,13 @@
       <c r="R377" s="136"/>
       <c r="S377" s="136"/>
       <c r="T377" s="136">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="U377" s="136"/>
       <c r="V377" s="136"/>
       <c r="W377" s="136"/>
       <c r="X377" s="136">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="Y377" s="136"/>
       <c r="Z377" s="136"/>
@@ -22033,13 +22033,13 @@
       <c r="F378" s="144"/>
       <c r="G378" s="144"/>
       <c r="H378" s="144">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="I378" s="144"/>
       <c r="J378" s="144"/>
       <c r="K378" s="144"/>
       <c r="L378" s="144">
-        <v>-0.92235066811254773</v>
+        <v>-0.92317098201254844</v>
       </c>
       <c r="M378" s="144"/>
       <c r="N378" s="144"/>
@@ -22051,13 +22051,13 @@
       <c r="R378" s="144"/>
       <c r="S378" s="144"/>
       <c r="T378" s="144">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="U378" s="144"/>
       <c r="V378" s="144"/>
       <c r="W378" s="144"/>
       <c r="X378" s="144">
-        <v>-0.97314917915351673</v>
+        <v>-0.9739693971535166</v>
       </c>
       <c r="Y378" s="144"/>
       <c r="Z378" s="144"/>
@@ -22075,13 +22075,13 @@
       <c r="F379" s="144"/>
       <c r="G379" s="144"/>
       <c r="H379" s="144">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="I379" s="144"/>
       <c r="J379" s="144"/>
       <c r="K379" s="144"/>
       <c r="L379" s="144">
-        <v>-0.85884487202031456</v>
+        <v>-0.85966518592031527</v>
       </c>
       <c r="M379" s="144"/>
       <c r="N379" s="144"/>
@@ -22093,13 +22093,13 @@
       <c r="R379" s="144"/>
       <c r="S379" s="144"/>
       <c r="T379" s="144">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="U379" s="144"/>
       <c r="V379" s="144"/>
       <c r="W379" s="144"/>
       <c r="X379" s="144">
-        <v>-0.92859456273351171</v>
+        <v>-0.92941478073351158</v>
       </c>
       <c r="Y379" s="144"/>
       <c r="Z379" s="144"/>
@@ -22117,13 +22117,13 @@
       <c r="F380" s="144"/>
       <c r="G380" s="144"/>
       <c r="H380" s="144">
-        <v>2.72622243958894</v>
+        <v>2.725456268366095</v>
       </c>
       <c r="I380" s="144"/>
       <c r="J380" s="144"/>
       <c r="K380" s="144"/>
       <c r="L380" s="144">
-        <v>-0.78408341907787138</v>
+        <v>-0.78484959030071622</v>
       </c>
       <c r="M380" s="144"/>
       <c r="N380" s="144"/>
@@ -22135,13 +22135,13 @@
       <c r="R380" s="144"/>
       <c r="S380" s="144"/>
       <c r="T380" s="144">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="U380" s="144"/>
       <c r="V380" s="144"/>
       <c r="W380" s="144"/>
       <c r="X380" s="144">
-        <v>-0.72203735115822942</v>
+        <v>-0.7228575691582293</v>
       </c>
       <c r="Y380" s="144"/>
       <c r="Z380" s="144"/>
@@ -22197,13 +22197,13 @@
       <c r="F382" s="136"/>
       <c r="G382" s="136"/>
       <c r="H382" s="136">
-        <v>6.0651544711000014</v>
+        <v>6.0649080903999986</v>
       </c>
       <c r="I382" s="136"/>
       <c r="J382" s="136"/>
       <c r="K382" s="136"/>
       <c r="L382" s="136">
-        <v>-0.41722279305667254</v>
+        <v>-0.41746917375667536</v>
       </c>
       <c r="M382" s="136"/>
       <c r="N382" s="136"/>
@@ -22215,13 +22215,13 @@
       <c r="R382" s="136"/>
       <c r="S382" s="136"/>
       <c r="T382" s="136">
-        <v>6.0512266789</v>
+        <v>6.0523452405</v>
       </c>
       <c r="U382" s="136"/>
       <c r="V382" s="136"/>
       <c r="W382" s="136"/>
       <c r="X382" s="136">
-        <v>-0.45695971579910477</v>
+        <v>-0.45584115419910454</v>
       </c>
       <c r="Y382" s="136"/>
       <c r="Z382" s="136"/>
@@ -22239,13 +22239,13 @@
       <c r="F383" s="144"/>
       <c r="G383" s="144"/>
       <c r="H383" s="144">
-        <v>6.0651544711000014</v>
+        <v>6.0649080903999986</v>
       </c>
       <c r="I383" s="144"/>
       <c r="J383" s="144"/>
       <c r="K383" s="144"/>
       <c r="L383" s="144">
-        <v>-0.062289555452623269</v>
+        <v>-0.062535936152626093</v>
       </c>
       <c r="M383" s="144"/>
       <c r="N383" s="144"/>
@@ -22257,13 +22257,13 @@
       <c r="R383" s="144"/>
       <c r="S383" s="144"/>
       <c r="T383" s="144">
-        <v>6.0512266789</v>
+        <v>6.0523452405</v>
       </c>
       <c r="U383" s="144"/>
       <c r="V383" s="144"/>
       <c r="W383" s="144"/>
       <c r="X383" s="144">
-        <v>-0.096939068378361526</v>
+        <v>-0.095820506778361292</v>
       </c>
       <c r="Y383" s="144"/>
       <c r="Z383" s="144"/>
@@ -22365,13 +22365,13 @@
       <c r="F386" s="136"/>
       <c r="G386" s="136"/>
       <c r="H386" s="136">
-        <v>3.5994314468000006</v>
+        <v>3.5979805574999997</v>
       </c>
       <c r="I386" s="136"/>
       <c r="J386" s="136"/>
       <c r="K386" s="136"/>
       <c r="L386" s="136">
-        <v>-0.96030838119999906</v>
+        <v>-0.9617592705</v>
       </c>
       <c r="M386" s="136"/>
       <c r="N386" s="136"/>
@@ -22383,13 +22383,13 @@
       <c r="R386" s="136"/>
       <c r="S386" s="136"/>
       <c r="T386" s="136">
-        <v>3.6101403625000006</v>
+        <v>3.6086896415</v>
       </c>
       <c r="U386" s="136"/>
       <c r="V386" s="136"/>
       <c r="W386" s="136"/>
       <c r="X386" s="136">
-        <v>-1.0208841090999994</v>
+        <v>-1.0223348301000002</v>
       </c>
       <c r="Y386" s="136"/>
       <c r="Z386" s="136"/>
@@ -22449,13 +22449,13 @@
       <c r="F388" s="144"/>
       <c r="G388" s="144"/>
       <c r="H388" s="144">
-        <v>3.6013912277766504</v>
+        <v>3.5999443960707977</v>
       </c>
       <c r="I388" s="144"/>
       <c r="J388" s="144"/>
       <c r="K388" s="144"/>
       <c r="L388" s="144">
-        <v>-0.95923232135807</v>
+        <v>-0.96067915306392271</v>
       </c>
       <c r="M388" s="144"/>
       <c r="N388" s="144"/>
@@ -22467,13 +22467,13 @@
       <c r="R388" s="144"/>
       <c r="S388" s="144"/>
       <c r="T388" s="144">
-        <v>3.6107214310052975</v>
+        <v>3.6092739495261466</v>
       </c>
       <c r="U388" s="144"/>
       <c r="V388" s="144"/>
       <c r="W388" s="144"/>
       <c r="X388" s="144">
-        <v>-0.9015308848090009</v>
+        <v>-0.90297836628815187</v>
       </c>
       <c r="Y388" s="144"/>
       <c r="Z388" s="144"/>
@@ -22491,13 +22491,13 @@
       <c r="F389" s="144"/>
       <c r="G389" s="144"/>
       <c r="H389" s="144">
-        <v>3.6045650152407629</v>
+        <v>3.6031247613254878</v>
       </c>
       <c r="I389" s="144"/>
       <c r="J389" s="144"/>
       <c r="K389" s="144"/>
       <c r="L389" s="144">
-        <v>-0.95329122189574145</v>
+        <v>-0.95473147581101658</v>
       </c>
       <c r="M389" s="144"/>
       <c r="N389" s="144"/>
@@ -22509,13 +22509,13 @@
       <c r="R389" s="144"/>
       <c r="S389" s="144"/>
       <c r="T389" s="144">
-        <v>3.6116688716487584</v>
+        <v>3.6102266709549387</v>
       </c>
       <c r="U389" s="144"/>
       <c r="V389" s="144"/>
       <c r="W389" s="144"/>
       <c r="X389" s="144">
-        <v>-0.86613302467829634</v>
+        <v>-0.86757522537211607</v>
       </c>
       <c r="Y389" s="144"/>
       <c r="Z389" s="144"/>
@@ -22655,13 +22655,13 @@
       <c r="F393" s="144"/>
       <c r="G393" s="144"/>
       <c r="H393" s="144">
-        <v>3.7961583770744594</v>
+        <v>3.7949877165439934</v>
       </c>
       <c r="I393" s="144"/>
       <c r="J393" s="144"/>
       <c r="K393" s="144"/>
       <c r="L393" s="144">
-        <v>-0.78148629746860943</v>
+        <v>-0.78265695799907542</v>
       </c>
       <c r="M393" s="144"/>
       <c r="N393" s="144"/>
@@ -22673,13 +22673,13 @@
       <c r="R393" s="144"/>
       <c r="S393" s="144"/>
       <c r="T393" s="144">
-        <v>3.7980477297263149</v>
+        <v>3.796879659045878</v>
       </c>
       <c r="U393" s="144"/>
       <c r="V393" s="144"/>
       <c r="W393" s="144"/>
       <c r="X393" s="144">
-        <v>-0.64557601238322482</v>
+        <v>-0.64674408306366171</v>
       </c>
       <c r="Y393" s="144"/>
       <c r="Z393" s="144"/>
@@ -22819,13 +22819,13 @@
       <c r="F397" s="136"/>
       <c r="G397" s="136"/>
       <c r="H397" s="136">
-        <v>4.261684301</v>
+        <v>4.2613207719</v>
       </c>
       <c r="I397" s="136"/>
       <c r="J397" s="136"/>
       <c r="K397" s="136"/>
       <c r="L397" s="136">
-        <v>-0.0821947631000004</v>
+        <v>-0.082558292199999883</v>
       </c>
       <c r="M397" s="136"/>
       <c r="N397" s="136"/>
@@ -22837,13 +22837,13 @@
       <c r="R397" s="136"/>
       <c r="S397" s="136"/>
       <c r="T397" s="136">
-        <v>4.2024568161999989</v>
+        <v>4.2027810921</v>
       </c>
       <c r="U397" s="136"/>
       <c r="V397" s="136"/>
       <c r="W397" s="136"/>
       <c r="X397" s="136">
-        <v>-0.12405237020000115</v>
+        <v>-0.12372809429999965</v>
       </c>
       <c r="Y397" s="136"/>
       <c r="Z397" s="136"/>
@@ -22861,13 +22861,13 @@
       <c r="F398" s="136"/>
       <c r="G398" s="136"/>
       <c r="H398" s="136">
-        <v>9.7041199106</v>
+        <v>9.7068141058</v>
       </c>
       <c r="I398" s="136"/>
       <c r="J398" s="136"/>
       <c r="K398" s="136"/>
       <c r="L398" s="136">
-        <v>0.078750712799999789</v>
+        <v>0.081444907999999927</v>
       </c>
       <c r="M398" s="136"/>
       <c r="N398" s="136"/>
@@ -22879,13 +22879,13 @@
       <c r="R398" s="136"/>
       <c r="S398" s="136"/>
       <c r="T398" s="136">
-        <v>9.5859583451</v>
+        <v>9.585978174900001</v>
       </c>
       <c r="U398" s="136"/>
       <c r="V398" s="136"/>
       <c r="W398" s="136"/>
       <c r="X398" s="136">
-        <v>0.05247768189999924</v>
+        <v>0.052497511700000388</v>
       </c>
       <c r="Y398" s="136"/>
       <c r="Z398" s="136"/>
@@ -22987,13 +22987,13 @@
       <c r="F401" s="144"/>
       <c r="G401" s="144"/>
       <c r="H401" s="144">
-        <v>4.3648220275813152</v>
+        <v>4.36411237472685</v>
       </c>
       <c r="I401" s="144"/>
       <c r="J401" s="144"/>
       <c r="K401" s="144"/>
       <c r="L401" s="144">
-        <v>-0.038603470212962954</v>
+        <v>-0.03931312306742818</v>
       </c>
       <c r="M401" s="144"/>
       <c r="N401" s="144"/>
@@ -23005,13 +23005,13 @@
       <c r="R401" s="144"/>
       <c r="S401" s="144"/>
       <c r="T401" s="144">
-        <v>4.5624524572927951</v>
+        <v>4.561711371110877</v>
       </c>
       <c r="U401" s="144"/>
       <c r="V401" s="144"/>
       <c r="W401" s="144"/>
       <c r="X401" s="144">
-        <v>0.013957884823188493</v>
+        <v>0.013216798641270344</v>
       </c>
       <c r="Y401" s="144"/>
       <c r="Z401" s="144"/>
@@ -23235,13 +23235,13 @@
       <c r="F407" s="144"/>
       <c r="G407" s="144"/>
       <c r="H407" s="144">
-        <v>1.8186773192745342</v>
+        <v>1.8183636886040189</v>
       </c>
       <c r="I407" s="144"/>
       <c r="J407" s="144"/>
       <c r="K407" s="144"/>
       <c r="L407" s="144">
-        <v>1.6750444581514827</v>
+        <v>1.6747308274809671</v>
       </c>
       <c r="M407" s="144"/>
       <c r="N407" s="144"/>
@@ -23253,13 +23253,13 @@
       <c r="R407" s="144"/>
       <c r="S407" s="144"/>
       <c r="T407" s="144">
-        <v>1.7824164197872705</v>
+        <v>1.7821027260275182</v>
       </c>
       <c r="U407" s="144"/>
       <c r="V407" s="144"/>
       <c r="W407" s="144"/>
       <c r="X407" s="144">
-        <v>1.5634843789148645</v>
+        <v>1.5631706851551122</v>
       </c>
       <c r="Y407" s="144"/>
       <c r="Z407" s="144"/>
@@ -24021,13 +24021,13 @@
       <c r="F428" s="141"/>
       <c r="G428" s="141"/>
       <c r="H428" s="141">
-        <v>25.184720701868596</v>
+        <v>25.184713224926352</v>
       </c>
       <c r="I428" s="141"/>
       <c r="J428" s="141"/>
       <c r="K428" s="141"/>
       <c r="L428" s="141">
-        <v>24.8081315978842</v>
+        <v>24.808124120941958</v>
       </c>
       <c r="M428" s="141"/>
       <c r="N428" s="141"/>
@@ -24039,13 +24039,13 @@
       <c r="R428" s="141"/>
       <c r="S428" s="141"/>
       <c r="T428" s="141">
-        <v>24.65730155339218</v>
+        <v>24.657020046123659</v>
       </c>
       <c r="U428" s="141"/>
       <c r="V428" s="141"/>
       <c r="W428" s="141"/>
       <c r="X428" s="141">
-        <v>23.831465175687036</v>
+        <v>23.831183668418518</v>
       </c>
       <c r="Y428" s="141"/>
       <c r="Z428" s="141"/>
@@ -24105,13 +24105,13 @@
       <c r="F430" s="143"/>
       <c r="G430" s="143"/>
       <c r="H430" s="143">
-        <v>25.379116361730063</v>
+        <v>25.379108884787851</v>
       </c>
       <c r="I430" s="143"/>
       <c r="J430" s="143"/>
       <c r="K430" s="143"/>
       <c r="L430" s="143">
-        <v>24.163729478926708</v>
+        <v>24.163722001984492</v>
       </c>
       <c r="M430" s="143"/>
       <c r="N430" s="143"/>
@@ -24123,13 +24123,13 @@
       <c r="R430" s="143"/>
       <c r="S430" s="143"/>
       <c r="T430" s="143">
-        <v>24.847584944821886</v>
+        <v>24.847303437553361</v>
       </c>
       <c r="U430" s="143"/>
       <c r="V430" s="143"/>
       <c r="W430" s="143"/>
       <c r="X430" s="143">
-        <v>23.203259036059624</v>
+        <v>23.202977528791095</v>
       </c>
       <c r="Y430" s="143"/>
       <c r="Z430" s="143"/>
@@ -24147,13 +24147,13 @@
       <c r="F431" s="143"/>
       <c r="G431" s="143"/>
       <c r="H431" s="143">
-        <v>25.697925243903761</v>
+        <v>25.69791776696151</v>
       </c>
       <c r="I431" s="143"/>
       <c r="J431" s="143"/>
       <c r="K431" s="143"/>
       <c r="L431" s="143">
-        <v>24.151097827324325</v>
+        <v>24.151090350382077</v>
       </c>
       <c r="M431" s="143"/>
       <c r="N431" s="143"/>
@@ -24165,13 +24165,13 @@
       <c r="R431" s="143"/>
       <c r="S431" s="143"/>
       <c r="T431" s="143">
-        <v>25.159649706767297</v>
+        <v>25.159368199498768</v>
       </c>
       <c r="U431" s="143"/>
       <c r="V431" s="143"/>
       <c r="W431" s="143"/>
       <c r="X431" s="143">
-        <v>23.192493629909471</v>
+        <v>23.192212122640942</v>
       </c>
       <c r="Y431" s="143"/>
       <c r="Z431" s="143"/>
@@ -24311,13 +24311,13 @@
       <c r="F435" s="143"/>
       <c r="G435" s="143"/>
       <c r="H435" s="143">
-        <v>34.896557994777169</v>
+        <v>34.896550517834882</v>
       </c>
       <c r="I435" s="143"/>
       <c r="J435" s="143"/>
       <c r="K435" s="143"/>
       <c r="L435" s="143">
-        <v>32.815359027884675</v>
+        <v>32.815351550942395</v>
       </c>
       <c r="M435" s="143"/>
       <c r="N435" s="143"/>
@@ -24329,13 +24329,13 @@
       <c r="R435" s="143"/>
       <c r="S435" s="143"/>
       <c r="T435" s="143">
-        <v>38.687891122049784</v>
+        <v>38.687609614781259</v>
       </c>
       <c r="U435" s="143"/>
       <c r="V435" s="143"/>
       <c r="W435" s="143"/>
       <c r="X435" s="143">
-        <v>36.134074050493858</v>
+        <v>36.133792543225326</v>
       </c>
       <c r="Y435" s="143"/>
       <c r="Z435" s="143"/>
@@ -24475,13 +24475,13 @@
       <c r="F439" s="141"/>
       <c r="G439" s="141"/>
       <c r="H439" s="141">
-        <v>17.6456840322548</v>
+        <v>17.64568206679423</v>
       </c>
       <c r="I439" s="141"/>
       <c r="J439" s="141"/>
       <c r="K439" s="141"/>
       <c r="L439" s="141">
-        <v>14.535621690959243</v>
+        <v>14.535619725498675</v>
       </c>
       <c r="M439" s="141"/>
       <c r="N439" s="141"/>
@@ -24493,13 +24493,13 @@
       <c r="R439" s="141"/>
       <c r="S439" s="141"/>
       <c r="T439" s="141">
-        <v>19.10583719179095</v>
+        <v>19.105831639663403</v>
       </c>
       <c r="U439" s="141"/>
       <c r="V439" s="141"/>
       <c r="W439" s="141"/>
       <c r="X439" s="141">
-        <v>15.502878741367882</v>
+        <v>15.502873189240336</v>
       </c>
       <c r="Y439" s="141"/>
       <c r="Z439" s="141"/>
@@ -24517,13 +24517,13 @@
       <c r="F440" s="141"/>
       <c r="G440" s="141"/>
       <c r="H440" s="141">
-        <v>29.748384048524311</v>
+        <v>29.748384048265006</v>
       </c>
       <c r="I440" s="141"/>
       <c r="J440" s="141"/>
       <c r="K440" s="141"/>
       <c r="L440" s="141">
-        <v>28.622225701974273</v>
+        <v>28.622225701714964</v>
       </c>
       <c r="M440" s="141"/>
       <c r="N440" s="141"/>
@@ -24535,13 +24535,13 @@
       <c r="R440" s="141"/>
       <c r="S440" s="141"/>
       <c r="T440" s="141">
-        <v>36.782598340991825</v>
+        <v>36.782598341233978</v>
       </c>
       <c r="U440" s="141"/>
       <c r="V440" s="141"/>
       <c r="W440" s="141"/>
       <c r="X440" s="141">
-        <v>35.500047452612009</v>
+        <v>35.500047452854162</v>
       </c>
       <c r="Y440" s="141"/>
       <c r="Z440" s="141"/>
@@ -24643,13 +24643,13 @@
       <c r="F443" s="143"/>
       <c r="G443" s="143"/>
       <c r="H443" s="143">
-        <v>109.79824490190607</v>
+        <v>109.79823545924397</v>
       </c>
       <c r="I443" s="143"/>
       <c r="J443" s="143"/>
       <c r="K443" s="143"/>
       <c r="L443" s="143">
-        <v>101.18187880443827</v>
+        <v>101.18186936177617</v>
       </c>
       <c r="M443" s="143"/>
       <c r="N443" s="143"/>
@@ -24661,13 +24661,13 @@
       <c r="R443" s="143"/>
       <c r="S443" s="143"/>
       <c r="T443" s="143">
-        <v>122.12646813382831</v>
+        <v>122.12618107467426</v>
       </c>
       <c r="U443" s="143"/>
       <c r="V443" s="143"/>
       <c r="W443" s="143"/>
       <c r="X443" s="143">
-        <v>111.91270667766953</v>
+        <v>111.91241961851549</v>
       </c>
       <c r="Y443" s="143"/>
       <c r="Z443" s="143"/>
@@ -25051,13 +25051,13 @@
       <c r="F454" s="141"/>
       <c r="G454" s="141"/>
       <c r="H454" s="141">
-        <v>83.6297569407325</v>
+        <v>83.6354150460955</v>
       </c>
       <c r="I454" s="141"/>
       <c r="J454" s="141"/>
       <c r="K454" s="141"/>
       <c r="L454" s="141">
-        <v>80.643660745734124</v>
+        <v>80.649318851097121</v>
       </c>
       <c r="M454" s="141"/>
       <c r="N454" s="141"/>
@@ -25069,13 +25069,13 @@
       <c r="R454" s="141"/>
       <c r="S454" s="141"/>
       <c r="T454" s="141">
-        <v>121.418919817875</v>
+        <v>121.42691936066599</v>
       </c>
       <c r="U454" s="141"/>
       <c r="V454" s="141"/>
       <c r="W454" s="141"/>
       <c r="X454" s="141">
-        <v>117.98576478347451</v>
+        <v>117.99376432626552</v>
       </c>
       <c r="Y454" s="141"/>
       <c r="Z454" s="141"/>
@@ -25135,13 +25135,13 @@
       <c r="F456" s="143"/>
       <c r="G456" s="143"/>
       <c r="H456" s="143">
-        <v>83.9844577293414</v>
+        <v>83.9901158347043</v>
       </c>
       <c r="I456" s="143"/>
       <c r="J456" s="143"/>
       <c r="K456" s="143"/>
       <c r="L456" s="143">
-        <v>79.30227728378344</v>
+        <v>79.307935389146323</v>
       </c>
       <c r="M456" s="143"/>
       <c r="N456" s="143"/>
@@ -25153,13 +25153,13 @@
       <c r="R456" s="143"/>
       <c r="S456" s="143"/>
       <c r="T456" s="143">
-        <v>121.758150258163</v>
+        <v>121.766149800953</v>
       </c>
       <c r="U456" s="143"/>
       <c r="V456" s="143"/>
       <c r="W456" s="143"/>
       <c r="X456" s="143">
-        <v>116.50022073917633</v>
+        <v>116.50822028196633</v>
       </c>
       <c r="Y456" s="143"/>
       <c r="Z456" s="143"/>
@@ -25177,13 +25177,13 @@
       <c r="F457" s="143"/>
       <c r="G457" s="143"/>
       <c r="H457" s="143">
-        <v>84.566167022659812</v>
+        <v>84.5718251280228</v>
       </c>
       <c r="I457" s="143"/>
       <c r="J457" s="143"/>
       <c r="K457" s="143"/>
       <c r="L457" s="143">
-        <v>79.289379028630151</v>
+        <v>79.295037133993148</v>
       </c>
       <c r="M457" s="143"/>
       <c r="N457" s="143"/>
@@ -25195,13 +25195,13 @@
       <c r="R457" s="143"/>
       <c r="S457" s="143"/>
       <c r="T457" s="143">
-        <v>122.314488180234</v>
+        <v>122.32248772302499</v>
       </c>
       <c r="U457" s="143"/>
       <c r="V457" s="143"/>
       <c r="W457" s="143"/>
       <c r="X457" s="143">
-        <v>116.4860259378323</v>
+        <v>116.49402548062329</v>
       </c>
       <c r="Y457" s="143"/>
       <c r="Z457" s="143"/>
@@ -25341,13 +25341,13 @@
       <c r="F461" s="143"/>
       <c r="G461" s="143"/>
       <c r="H461" s="143">
-        <v>151.129511087046</v>
+        <v>151.135169192409</v>
       </c>
       <c r="I461" s="143"/>
       <c r="J461" s="143"/>
       <c r="K461" s="143"/>
       <c r="L461" s="143">
-        <v>143.06381478932178</v>
+        <v>143.06947289468477</v>
       </c>
       <c r="M461" s="143"/>
       <c r="N461" s="143"/>
@@ -25359,13 +25359,13 @@
       <c r="R461" s="143"/>
       <c r="S461" s="143"/>
       <c r="T461" s="143">
-        <v>249.052943873707</v>
+        <v>249.060943416498</v>
       </c>
       <c r="U461" s="143"/>
       <c r="V461" s="143"/>
       <c r="W461" s="143"/>
       <c r="X461" s="143">
-        <v>240.39034853490432</v>
+        <v>240.39834807769532</v>
       </c>
       <c r="Y461" s="143"/>
       <c r="Z461" s="143"/>
@@ -25505,13 +25505,13 @@
       <c r="F465" s="141"/>
       <c r="G465" s="141"/>
       <c r="H465" s="141">
-        <v>26.393839268901502</v>
+        <v>26.3938066967282</v>
       </c>
       <c r="I465" s="141"/>
       <c r="J465" s="141"/>
       <c r="K465" s="141"/>
       <c r="L465" s="141">
-        <v>9.8964194318042029</v>
+        <v>9.8963868596309</v>
       </c>
       <c r="M465" s="141"/>
       <c r="N465" s="141"/>
@@ -25523,13 +25523,13 @@
       <c r="R465" s="141"/>
       <c r="S465" s="141"/>
       <c r="T465" s="141">
-        <v>28.2381108541089</v>
+        <v>28.238153708939898</v>
       </c>
       <c r="U465" s="141"/>
       <c r="V465" s="141"/>
       <c r="W465" s="141"/>
       <c r="X465" s="141">
-        <v>12.643776814777302</v>
+        <v>12.6438196696083</v>
       </c>
       <c r="Y465" s="141"/>
       <c r="Z465" s="141"/>
@@ -25547,13 +25547,13 @@
       <c r="F466" s="141"/>
       <c r="G466" s="141"/>
       <c r="H466" s="141">
-        <v>37.5929436932556</v>
+        <v>37.5929990301701</v>
       </c>
       <c r="I466" s="141"/>
       <c r="J466" s="141"/>
       <c r="K466" s="141"/>
       <c r="L466" s="141">
-        <v>33.421492656297879</v>
+        <v>33.421547993212378</v>
       </c>
       <c r="M466" s="141"/>
       <c r="N466" s="141"/>
@@ -25565,13 +25565,13 @@
       <c r="R466" s="141"/>
       <c r="S466" s="141"/>
       <c r="T466" s="141">
-        <v>32.163780408509</v>
+        <v>32.1637262856442</v>
       </c>
       <c r="U466" s="141"/>
       <c r="V466" s="141"/>
       <c r="W466" s="141"/>
       <c r="X466" s="141">
-        <v>28.420213430502329</v>
+        <v>28.42015930763753</v>
       </c>
       <c r="Y466" s="141"/>
       <c r="Z466" s="141"/>
@@ -25673,13 +25673,13 @@
       <c r="F469" s="143"/>
       <c r="G469" s="143"/>
       <c r="H469" s="143">
-        <v>293.529315326046</v>
+        <v>293.53499619615</v>
       </c>
       <c r="I469" s="143"/>
       <c r="J469" s="143"/>
       <c r="K469" s="143"/>
       <c r="L469" s="143">
-        <v>256.199438126512</v>
+        <v>256.205118996616</v>
       </c>
       <c r="M469" s="143"/>
       <c r="N469" s="143"/>
@@ -25691,13 +25691,13 @@
       <c r="R469" s="143"/>
       <c r="S469" s="143"/>
       <c r="T469" s="143">
-        <v>364.986803230586</v>
+        <v>364.994791505343</v>
       </c>
       <c r="U469" s="143"/>
       <c r="V469" s="143"/>
       <c r="W469" s="143"/>
       <c r="X469" s="143">
-        <v>322.894451607283</v>
+        <v>322.90243988203997</v>
       </c>
       <c r="Y469" s="143"/>
       <c r="Z469" s="143"/>
@@ -25849,16 +25849,16 @@
         <v>-65.4712264536086</v>
       </c>
       <c r="G479" s="1">
-        <v>687.095031801516</v>
+        <v>687.094745365842</v>
       </c>
       <c r="H479" s="1">
-        <v>683.29375811315606</v>
+        <v>683.291558392266</v>
       </c>
       <c r="I479" s="1">
-        <v>669.915166528333</v>
+        <v>669.90881049804</v>
       </c>
       <c r="J479" s="1">
-        <v>648.736266709811</v>
+        <v>648.723026917442</v>
       </c>
     </row>
     <row r="494" ht="14.25" customHeight="1">
@@ -25936,7 +25936,7 @@
       <c r="K496" s="52"/>
       <c r="L496" s="52"/>
       <c r="M496" s="52">
-        <v>769.077537093538</v>
+        <v>769.07725065786394</v>
       </c>
       <c r="N496" s="52"/>
       <c r="O496" s="52"/>
@@ -25944,7 +25944,7 @@
       <c r="Q496" s="52"/>
       <c r="R496" s="52"/>
       <c r="S496" s="53">
-        <v>-352.98603193866381</v>
+        <v>-352.98593771640259</v>
       </c>
       <c r="T496" s="53"/>
       <c r="U496" s="53"/>
@@ -25969,7 +25969,7 @@
       <c r="K497" s="52"/>
       <c r="L497" s="52"/>
       <c r="M497" s="52">
-        <v>463.007254040698</v>
+        <v>463.007040983315</v>
       </c>
       <c r="N497" s="52"/>
       <c r="O497" s="52"/>
@@ -25977,7 +25977,7 @@
       <c r="Q497" s="52"/>
       <c r="R497" s="52"/>
       <c r="S497" s="53">
-        <v>-141.45096276102936</v>
+        <v>-141.45094368695749</v>
       </c>
       <c r="T497" s="53"/>
       <c r="U497" s="53"/>
@@ -26002,7 +26002,7 @@
       <c r="K498" s="52"/>
       <c r="L498" s="52"/>
       <c r="M498" s="52">
-        <v>293.78029878082049</v>
+        <v>293.78022548693951</v>
       </c>
       <c r="N498" s="52"/>
       <c r="O498" s="52"/>
@@ -26010,7 +26010,7 @@
       <c r="Q498" s="52"/>
       <c r="R498" s="52"/>
       <c r="S498" s="53">
-        <v>-62.335859130664041</v>
+        <v>-62.335868527315448</v>
       </c>
       <c r="T498" s="53"/>
       <c r="U498" s="53"/>
@@ -26035,7 +26035,7 @@
       <c r="K499" s="52"/>
       <c r="L499" s="52"/>
       <c r="M499" s="52">
-        <v>12.289984272019524</v>
+        <v>12.289984187609434</v>
       </c>
       <c r="N499" s="52"/>
       <c r="O499" s="52"/>
@@ -26043,7 +26043,7 @@
       <c r="Q499" s="52"/>
       <c r="R499" s="52"/>
       <c r="S499" s="53">
-        <v>-62.757623418122655</v>
+        <v>-62.757623673910807</v>
       </c>
       <c r="T499" s="53"/>
       <c r="U499" s="53"/>
@@ -26101,7 +26101,7 @@
       <c r="K501" s="52"/>
       <c r="L501" s="52"/>
       <c r="M501" s="52">
-        <v>687.09503180151637</v>
+        <v>687.0947453658423</v>
       </c>
       <c r="N501" s="52"/>
       <c r="O501" s="52"/>
@@ -26109,7 +26109,7 @@
       <c r="Q501" s="52"/>
       <c r="R501" s="52"/>
       <c r="S501" s="53">
-        <v>-425.63745583010257</v>
+        <v>-425.63732007859824</v>
       </c>
       <c r="T501" s="53"/>
       <c r="U501" s="53"/>
@@ -26241,7 +26241,7 @@
       <c r="Q505" s="52"/>
       <c r="R505" s="52"/>
       <c r="S505" s="53">
-        <v>-352.98603193866381</v>
+        <v>-352.98593771640259</v>
       </c>
       <c r="T505" s="53"/>
       <c r="U505" s="53"/>
@@ -26295,7 +26295,7 @@
       <c r="K507" s="52"/>
       <c r="L507" s="52"/>
       <c r="M507" s="52">
-        <v>6.2233090089980294</v>
+        <v>6.22329803445115</v>
       </c>
       <c r="N507" s="52"/>
       <c r="O507" s="52"/>
@@ -26303,7 +26303,7 @@
       <c r="Q507" s="52"/>
       <c r="R507" s="52"/>
       <c r="S507" s="53">
-        <v>-106.99248203258206</v>
+        <v>-106.99246970163051</v>
       </c>
       <c r="T507" s="53"/>
       <c r="U507" s="53"/>
@@ -26328,7 +26328,7 @@
       <c r="K508" s="52"/>
       <c r="L508" s="52"/>
       <c r="M508" s="52">
-        <v>156.20505612585049</v>
+        <v>156.20478066472359</v>
       </c>
       <c r="N508" s="52"/>
       <c r="O508" s="52"/>
@@ -26336,7 +26336,7 @@
       <c r="Q508" s="52"/>
       <c r="R508" s="52"/>
       <c r="S508" s="53">
-        <v>178.93760022473302</v>
+        <v>178.93710832986355</v>
       </c>
       <c r="T508" s="53"/>
       <c r="U508" s="53"/>
@@ -26417,7 +26417,7 @@
       <c r="K512" s="52"/>
       <c r="L512" s="52"/>
       <c r="M512" s="52">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="N512" s="52"/>
       <c r="O512" s="52"/>
@@ -26446,7 +26446,7 @@
       <c r="K513" s="52"/>
       <c r="L513" s="52"/>
       <c r="M513" s="52">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="N513" s="52"/>
       <c r="O513" s="52"/>
@@ -26475,7 +26475,7 @@
       <c r="K514" s="52"/>
       <c r="L514" s="52"/>
       <c r="M514" s="52">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="N514" s="52"/>
       <c r="O514" s="52"/>
@@ -26504,7 +26504,7 @@
       <c r="K515" s="52"/>
       <c r="L515" s="52"/>
       <c r="M515" s="52">
-        <v>45.636937739702716</v>
+        <v>45.636888743597183</v>
       </c>
       <c r="N515" s="52"/>
       <c r="O515" s="52"/>
@@ -26562,7 +26562,7 @@
       <c r="K517" s="52"/>
       <c r="L517" s="52"/>
       <c r="M517" s="52">
-        <v>2689.0402231528169</v>
+        <v>2689.0181411735916</v>
       </c>
       <c r="N517" s="52"/>
       <c r="O517" s="52"/>
@@ -26734,7 +26734,7 @@
       <c r="K523" s="52"/>
       <c r="L523" s="52"/>
       <c r="M523" s="52">
-        <v>22.619676493722128</v>
+        <v>22.618830440878245</v>
       </c>
       <c r="N523" s="52"/>
       <c r="O523" s="52"/>
@@ -26763,7 +26763,7 @@
       <c r="K524" s="52"/>
       <c r="L524" s="52"/>
       <c r="M524" s="52">
-        <v>567.75387999242514</v>
+        <v>567.73264406604358</v>
       </c>
       <c r="N524" s="52"/>
       <c r="O524" s="52"/>
@@ -31256,7 +31256,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -31450,13 +31452,13 @@
         <v>486.95327222320458</v>
       </c>
       <c r="D8" s="26">
-        <v>-15.701288176224525</v>
+        <v>-15.70140829676097</v>
       </c>
       <c r="E8" s="12">
         <v>591.24281220009959</v>
       </c>
       <c r="F8" s="26">
-        <v>-16.274409548019175</v>
+        <v>-16.274245768121187</v>
       </c>
       <c r="G8" s="12">
         <v>-4.7492631879658189</v>
@@ -31474,7 +31476,7 @@
         <v>5.8737311223042346</v>
       </c>
       <c r="L8" s="12">
-        <v>0.66841302360937083</v>
+        <v>0.668325760254116</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -31485,13 +31487,13 @@
         <v>365.04709041809423</v>
       </c>
       <c r="D9" s="26">
-        <v>-11.469417679560729</v>
+        <v>-11.469405229517493</v>
       </c>
       <c r="E9" s="12">
         <v>440.68535346816128</v>
       </c>
       <c r="F9" s="26">
-        <v>-11.20714470019948</v>
+        <v>-11.206784955773005</v>
       </c>
       <c r="G9" s="12">
         <v>-3.6991359577997511</v>
@@ -31509,7 +31511,7 @@
         <v>5.5411012728618667</v>
       </c>
       <c r="L9" s="12">
-        <v>1.1238804590005622</v>
+        <v>1.1238037052215246</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -31520,13 +31522,13 @@
         <v>242.47366500551547</v>
       </c>
       <c r="D10" s="26">
-        <v>-7.4420724455811893</v>
+        <v>-7.4421247277851368</v>
       </c>
       <c r="E10" s="12">
         <v>289.65140514860826</v>
       </c>
       <c r="F10" s="26">
-        <v>-6.8615992503607117</v>
+        <v>-6.8615992487968063</v>
       </c>
       <c r="G10" s="12">
         <v>-2.5964715741958613</v>
@@ -31544,7 +31546,7 @@
         <v>5.2066479877149821</v>
       </c>
       <c r="L10" s="12">
-        <v>1.5582365746403868</v>
+        <v>1.5581493301383942</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -31555,13 +31557,13 @@
         <v>119.14629719763336</v>
       </c>
       <c r="D11" s="26">
-        <v>-3.64651408577811</v>
+        <v>-3.64659813100454</v>
       </c>
       <c r="E11" s="12">
         <v>138.09140740182568</v>
       </c>
       <c r="F11" s="26">
-        <v>-3.1833574716048605</v>
+        <v>-3.183496012913368</v>
       </c>
       <c r="G11" s="12">
         <v>-1.4170886344950495</v>
@@ -31579,7 +31581,7 @@
         <v>4.8701396869369784</v>
       </c>
       <c r="L11" s="12">
-        <v>1.9673331570495642</v>
+        <v>1.96723914585592</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -31614,7 +31616,7 @@
         <v>4.5450451352869</v>
       </c>
       <c r="L12" s="12">
-        <v>2.3596116335609296</v>
+        <v>2.359523376059387</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -31625,13 +31627,13 @@
         <v>-73.948966368954643</v>
       </c>
       <c r="D13" s="26">
-        <v>0.083289306660485521</v>
+        <v>0.0832045958305328</v>
       </c>
       <c r="E13" s="12">
         <v>-83.596663989674227</v>
       </c>
       <c r="F13" s="26">
-        <v>-0.81431062916473718</v>
+        <v>-0.8146296920428221</v>
       </c>
       <c r="G13" s="12">
         <v>2.4016166315066352</v>
@@ -31649,7 +31651,7 @@
         <v>4.3432867366130958</v>
       </c>
       <c r="L13" s="12">
-        <v>2.3698865737077583</v>
+        <v>2.3697891357960623</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -31660,13 +31662,13 @@
         <v>-86.712084986276238</v>
       </c>
       <c r="D14" s="26">
-        <v>-0.8613727335588689</v>
+        <v>-0.8616293996626565</v>
       </c>
       <c r="E14" s="12">
         <v>-93.213890326031958</v>
       </c>
       <c r="F14" s="26">
-        <v>-2.5759372179541753</v>
+        <v>-2.5766110060657303</v>
       </c>
       <c r="G14" s="12">
         <v>5.0362344826954528</v>
@@ -31684,7 +31686,7 @@
         <v>4.308484526312288</v>
       </c>
       <c r="L14" s="12">
-        <v>2.2684796793601554</v>
+        <v>2.2683645797367316</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
@@ -31710,13 +31712,13 @@
         <v>-79.043577675399078</v>
       </c>
       <c r="D16" s="26">
-        <v>-0.42577004608764951</v>
+        <v>-0.42538430348755546</v>
       </c>
       <c r="E16" s="12">
         <v>-102.63073764138916</v>
       </c>
       <c r="F16" s="26">
-        <v>-2.0256397714875729</v>
+        <v>-2.0253955278165847</v>
       </c>
       <c r="G16" s="12">
         <v>4.6906942775573439</v>
@@ -31734,7 +31736,7 @@
         <v>4.3294090896338</v>
       </c>
       <c r="L16" s="12">
-        <v>2.3152973238077039</v>
+        <v>2.3152508990761929</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -31745,13 +31747,13 @@
         <v>361.6225358387718</v>
       </c>
       <c r="D17" s="26">
-        <v>-12.652202226996211</v>
+        <v>-12.652172694559488</v>
       </c>
       <c r="E17" s="12">
         <v>401.5762645018429</v>
       </c>
       <c r="F17" s="26">
-        <v>-13.555138438468987</v>
+        <v>-13.555063802011679</v>
       </c>
       <c r="G17" s="12">
         <v>-2.998926429719639</v>
@@ -31769,7 +31771,7 @@
         <v>5.5317588428585056</v>
       </c>
       <c r="L17" s="12">
-        <v>0.99836327811223069</v>
+        <v>0.99828939733492983</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
@@ -31839,10 +31841,10 @@
         <v>-223.79927007578826</v>
       </c>
       <c r="D22" s="5">
-        <v>2689.0402231528155</v>
+        <v>2689.01814117359</v>
       </c>
       <c r="E22" s="31">
-        <v>2912.8394932286037</v>
+        <v>2912.8174112493784</v>
       </c>
       <c r="F22" s="5">
         <v>2580.1965140598595</v>
@@ -31854,7 +31856,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5">
-        <v>-1441.4806499737701</v>
+        <v>-1441.5027319529954</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -31865,10 +31867,10 @@
         <v>-439.79001070302814</v>
       </c>
       <c r="D23" s="5">
-        <v>5114.4002337023849</v>
+        <v>5114.2774626119726</v>
       </c>
       <c r="E23" s="31">
-        <v>5554.1902444054131</v>
+        <v>5554.0674733150008</v>
       </c>
       <c r="F23" s="5">
         <v>5160.393028119719</v>
@@ -31880,7 +31882,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5">
-        <v>-3154.4500419993346</v>
+        <v>-3154.5728130897469</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -31891,10 +31893,10 @@
         <v>-2995.6729269437892</v>
       </c>
       <c r="D24" s="5">
-        <v>567.75387999242514</v>
+        <v>567.73264406604358</v>
       </c>
       <c r="E24" s="31">
-        <v>3563.4268069362142</v>
+        <v>3563.4055710098328</v>
       </c>
       <c r="F24" s="5">
         <v>2580.1965140598595</v>
@@ -31909,10 +31911,10 @@
         <v>42</v>
       </c>
       <c r="J24" s="5">
-        <v>-754.7460196257224</v>
+        <v>-754.74517357287857</v>
       </c>
       <c r="K24" s="5">
-        <v>-1441.480649973769</v>
+        <v>-1441.5027319529945</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -31923,10 +31925,10 @@
         <v>-5985.0708914838788</v>
       </c>
       <c r="D25" s="5">
-        <v>881.9302375196612</v>
+        <v>881.81217030244079</v>
       </c>
       <c r="E25" s="31">
-        <v>6867.00112900354</v>
+        <v>6866.88306178632</v>
       </c>
       <c r="F25" s="5">
         <v>5160.393028119719</v>
@@ -31941,10 +31943,10 @@
         <v>84</v>
       </c>
       <c r="J25" s="5">
-        <v>-1497.8557820685392</v>
+        <v>-1497.851078195343</v>
       </c>
       <c r="K25" s="5">
-        <v>-3154.4500419993328</v>
+        <v>-3154.5728130897492</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -32092,31 +32094,31 @@
         <v>159</v>
       </c>
       <c r="C36" s="5">
-        <v>2665.8775638761463</v>
+        <v>2665.8487703069759</v>
       </c>
       <c r="D36" s="5">
-        <v>2691.2799061105011</v>
+        <v>2691.255527849763</v>
       </c>
       <c r="E36" s="5">
-        <v>2689.0402231528155</v>
+        <v>2689.01814117359</v>
       </c>
       <c r="F36" s="5">
-        <v>2590.9839926433087</v>
+        <v>2590.960455895181</v>
       </c>
       <c r="G36" s="5">
-        <v>2488.9199016549646</v>
+        <v>2488.8980571546822</v>
       </c>
       <c r="H36" s="5">
-        <v>2380.6229683880269</v>
+        <v>2380.6037538671521</v>
       </c>
       <c r="I36" s="5">
-        <v>2266.8262685410009</v>
+        <v>2266.8044236539522</v>
       </c>
       <c r="J36" s="5">
-        <v>2348.8174161542511</v>
+        <v>2348.7989221642738</v>
       </c>
       <c r="K36" s="13">
-        <v>-3.64651408577811</v>
+        <v>-3.64659813100454</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -32659,28 +32661,28 @@
         <v>256.420323193527</v>
       </c>
       <c r="H52" s="5">
-        <v>173.09500975375</v>
+        <v>173.09494327840298</v>
       </c>
       <c r="I52" s="5">
-        <v>339.56220414626097</v>
+        <v>339.561984185934</v>
       </c>
       <c r="J52" s="5">
-        <v>255.72973497558002</v>
+        <v>255.729298715778</v>
       </c>
       <c r="K52" s="5">
-        <v>168.761767665617</v>
+        <v>168.76105496116</v>
       </c>
       <c r="L52" s="5">
-        <v>331.687894430155</v>
+        <v>331.686843673525</v>
       </c>
       <c r="M52" s="5">
-        <v>250.215129529976</v>
+        <v>250.21364150996502</v>
       </c>
       <c r="N52" s="5">
-        <v>163.027956942203</v>
+        <v>163.02590326737499</v>
       </c>
       <c r="O52" s="5">
-        <v>328.303426520217</v>
+        <v>328.30061218476203</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -32731,28 +32733,28 @@
         <v>229.16992322859</v>
       </c>
       <c r="H54" s="5">
-        <v>145.26356835973002</v>
+        <v>145.263501884383</v>
       </c>
       <c r="I54" s="5">
-        <v>312.661540213196</v>
+        <v>312.66132025286896</v>
       </c>
       <c r="J54" s="5">
-        <v>230.59958968996202</v>
+        <v>230.59915343016</v>
       </c>
       <c r="K54" s="5">
-        <v>144.80161350756902</v>
+        <v>144.800900803112</v>
       </c>
       <c r="L54" s="5">
-        <v>307.892554915625</v>
+        <v>307.891504158994</v>
       </c>
       <c r="M54" s="5">
-        <v>226.362835849582</v>
+        <v>226.36134782957203</v>
       </c>
       <c r="N54" s="5">
-        <v>139.134513404064</v>
+        <v>139.132459729236</v>
       </c>
       <c r="O54" s="5">
-        <v>304.417817274687</v>
+        <v>304.415002939232</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -32839,28 +32841,28 @@
         <v>54.2810343397013</v>
       </c>
       <c r="H57" s="5">
-        <v>-29.625320529159197</v>
+        <v>-29.6253870045063</v>
       </c>
       <c r="I57" s="5">
-        <v>137.772651324307</v>
+        <v>137.77243136398</v>
       </c>
       <c r="J57" s="5">
-        <v>55.7107008010734</v>
+        <v>55.7102645412714</v>
       </c>
       <c r="K57" s="5">
-        <v>-30.0872753813196</v>
+        <v>-30.0879880857769</v>
       </c>
       <c r="L57" s="5">
-        <v>133.003666026736</v>
+        <v>133.002615270105</v>
       </c>
       <c r="M57" s="5">
-        <v>51.4739469606927</v>
+        <v>51.4724589406825</v>
       </c>
       <c r="N57" s="5">
-        <v>-35.7543754848249</v>
+        <v>-35.7564291596529</v>
       </c>
       <c r="O57" s="5">
-        <v>129.528928385798</v>
+        <v>129.526114050343</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -32875,28 +32877,28 @@
         <v>2.07973311646365</v>
       </c>
       <c r="H58" s="5">
-        <v>-1.13506975207507</v>
+        <v>-1.13507229902323</v>
       </c>
       <c r="I58" s="5">
-        <v>5.2786456446094494</v>
+        <v>5.27863721701073</v>
       </c>
       <c r="J58" s="5">
-        <v>2.13450960923653</v>
+        <v>2.1344928943015797</v>
       </c>
       <c r="K58" s="5">
-        <v>-1.1527691716980701</v>
+        <v>-1.15279647838226</v>
       </c>
       <c r="L58" s="5">
-        <v>5.0959259014075</v>
+        <v>5.09588564253276</v>
       </c>
       <c r="M58" s="5">
-        <v>1.97218187588861</v>
+        <v>1.97212486362768</v>
       </c>
       <c r="N58" s="5">
-        <v>-1.36989944386302</v>
+        <v>-1.36997812872233</v>
       </c>
       <c r="O58" s="5">
-        <v>4.96279419102674</v>
+        <v>4.96268636208211</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -32911,28 +32913,28 @@
         <v>52.2013012232377</v>
       </c>
       <c r="H59" s="5">
-        <v>-28.4902507770842</v>
+        <v>-28.490314705483097</v>
       </c>
       <c r="I59" s="5">
-        <v>132.494005679697</v>
+        <v>132.493794146969</v>
       </c>
       <c r="J59" s="5">
-        <v>53.5761911918369</v>
+        <v>53.5757716469698</v>
       </c>
       <c r="K59" s="5">
-        <v>-28.9345062096215</v>
+        <v>-28.9351916073947</v>
       </c>
       <c r="L59" s="5">
-        <v>127.90774012532799</v>
+        <v>127.906729627572</v>
       </c>
       <c r="M59" s="5">
-        <v>49.5017650848041</v>
+        <v>49.5003340770548</v>
       </c>
       <c r="N59" s="5">
-        <v>-34.3844760409619</v>
+        <v>-34.3864510309306</v>
       </c>
       <c r="O59" s="5">
-        <v>124.566134194771</v>
+        <v>124.563427688261</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -32949,28 +32951,28 @@
         <v>16547.2013012232</v>
       </c>
       <c r="H60" s="5">
-        <v>16518.7110501717</v>
+        <v>16518.7109862485</v>
       </c>
       <c r="I60" s="5">
-        <v>16651.2050560815</v>
+        <v>16651.2047806208</v>
       </c>
       <c r="J60" s="5">
-        <v>16704.7812472981</v>
+        <v>16704.7805522907</v>
       </c>
       <c r="K60" s="5">
-        <v>16675.846741688</v>
+        <v>16675.8453612647</v>
       </c>
       <c r="L60" s="5">
-        <v>16803.7544809681</v>
+        <v>16803.7520900774</v>
       </c>
       <c r="M60" s="5">
-        <v>16853.256246437697</v>
+        <v>16853.2524245681</v>
       </c>
       <c r="N60" s="5">
-        <v>16818.8717695153</v>
+        <v>16818.865972604</v>
       </c>
       <c r="O60" s="5">
-        <v>16943.4379038402</v>
+        <v>16943.4294004167</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -33038,10 +33040,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="G65" s="5">
-        <v>3171.0778582321391</v>
+        <v>3171.0560133450936</v>
       </c>
       <c r="H65" s="5">
         <f>G65-F65</f>
@@ -33152,10 +33154,10 @@
         <f>IF(OR(C68="",D68=""),"",D68-C68)</f>
       </c>
       <c r="F68" s="5">
-        <v>45.636937739702176</v>
+        <v>45.636888743597581</v>
       </c>
       <c r="G68" s="5">
-        <v>131.5355906454183</v>
+        <v>131.53535620831892</v>
       </c>
       <c r="H68" s="5">
         <f>IF(OR(F68="",G68=""),"",G68-F68)</f>
@@ -33184,10 +33186,10 @@
         <f ref="E69:E78" t="shared" si="13">IF(OR(C69="",D69=""),"",D69-C69)</f>
       </c>
       <c r="F69" s="5">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="G69" s="5">
-        <v>1851.0105603465131</v>
+        <v>1850.9904576446152</v>
       </c>
       <c r="H69" s="5">
         <f ref="H69:H78" t="shared" si="14">IF(OR(F69="",G69=""),"",G69-F69)</f>
@@ -33216,10 +33218,10 @@
         <f t="shared" si="13"/>
       </c>
       <c r="F70" s="5">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="G70" s="5">
-        <v>1188.5317072402077</v>
+        <v>1188.5301994921583</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" si="14"/>
@@ -33559,10 +33561,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="5">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="G82" s="5">
-        <v>3134.0516527638806</v>
+        <v>3134.0324382430072</v>
       </c>
       <c r="H82" s="5">
         <f>G82-F82</f>
@@ -33673,10 +33675,10 @@
         <f>IF(OR(C85="",D85=""),"",D85-C85)</f>
       </c>
       <c r="F85" s="5">
-        <v>45.636937739702176</v>
+        <v>45.636888743597581</v>
       </c>
       <c r="G85" s="5">
-        <v>111.19520190717593</v>
+        <v>111.19504293824269</v>
       </c>
       <c r="H85" s="5">
         <f>IF(OR(F85="",G85=""),"",G85-F85)</f>
@@ -33705,10 +33707,10 @@
         <f ref="E86:E95" t="shared" si="21">IF(OR(C86="",D86=""),"",D86-C86)</f>
       </c>
       <c r="F86" s="5">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="G86" s="5">
-        <v>1835.876044272562</v>
+        <v>1835.8585624657358</v>
       </c>
       <c r="H86" s="5">
         <f ref="H86:H95" t="shared" si="22">IF(OR(F86="",G86=""),"",G86-F86)</f>
@@ -33737,10 +33739,10 @@
         <f t="shared" si="21"/>
       </c>
       <c r="F87" s="5">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="G87" s="5">
-        <v>1186.9804065841431</v>
+        <v>1186.9788328390278</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" si="22"/>
@@ -34080,10 +34082,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="5">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="G99" s="5">
-        <v>3090.0286623698134</v>
+        <v>3090.00681786953</v>
       </c>
       <c r="H99" s="5">
         <f>G99-F99</f>
@@ -34194,10 +34196,10 @@
         <f>IF(OR(C102="",D102=""),"",D102-C102)</f>
       </c>
       <c r="F102" s="5">
-        <v>45.636937739702176</v>
+        <v>45.636888743597581</v>
       </c>
       <c r="G102" s="5">
-        <v>90.0932588565052</v>
+        <v>90.093135503661628</v>
       </c>
       <c r="H102" s="5">
         <f>IF(OR(F102="",G102=""),"",G102-F102)</f>
@@ -34226,10 +34228,10 @@
         <f ref="E103:E112" t="shared" si="29">IF(OR(C103="",D103=""),"",D103-C103)</f>
       </c>
       <c r="F103" s="5">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="G103" s="5">
-        <v>1814.5258575464738</v>
+        <v>1814.5058227868071</v>
       </c>
       <c r="H103" s="5">
         <f ref="H103:H112" t="shared" si="30">IF(OR(F103="",G103=""),"",G103-F103)</f>
@@ -34258,10 +34260,10 @@
         <f t="shared" si="29"/>
       </c>
       <c r="F104" s="5">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="G104" s="5">
-        <v>1185.4095459668338</v>
+        <v>1185.4078595790604</v>
       </c>
       <c r="H104" s="5">
         <f t="shared" si="30"/>
@@ -34601,10 +34603,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="5">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="G116" s="5">
-        <v>3038.2468192979513</v>
+        <v>3038.2232825498263</v>
       </c>
       <c r="H116" s="5">
         <f>G116-F116</f>
@@ -34715,10 +34717,10 @@
         <f>IF(OR(C119="",D119=""),"",D119-C119)</f>
       </c>
       <c r="F119" s="5">
-        <v>45.636937739702176</v>
+        <v>45.636888743597581</v>
       </c>
       <c r="G119" s="5">
-        <v>68.2330119888599</v>
+        <v>68.232922591486272</v>
       </c>
       <c r="H119" s="5">
         <f>IF(OR(F119="",G119=""),"",G119-F119)</f>
@@ -34747,10 +34749,10 @@
         <f ref="E120:E129" t="shared" si="37">IF(OR(C120="",D120=""),"",D120-C120)</f>
       </c>
       <c r="F120" s="5">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="G120" s="5">
-        <v>1786.223794995442</v>
+        <v>1786.20227771176</v>
       </c>
       <c r="H120" s="5">
         <f ref="H120:H129" t="shared" si="38">IF(OR(F120="",G120=""),"",G120-F120)</f>
@@ -34779,10 +34781,10 @@
         <f t="shared" si="37"/>
       </c>
       <c r="F121" s="5">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="G121" s="5">
-        <v>1183.7900123136465</v>
+        <v>1183.7880822465797</v>
       </c>
       <c r="H121" s="5">
         <f t="shared" si="38"/>
@@ -35122,10 +35124,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="G133" s="5">
-        <v>2932.3171384931884</v>
+        <v>2932.2927602324507</v>
       </c>
       <c r="H133" s="5">
         <f>G133-F133</f>
@@ -35236,10 +35238,10 @@
         <f>IF(OR(C136="",D136=""),"",D136-C136)</f>
       </c>
       <c r="F136" s="5">
-        <v>45.636937739702176</v>
+        <v>45.636888743597581</v>
       </c>
       <c r="G136" s="5">
-        <v>22.12965208567735</v>
+        <v>22.1296332649257</v>
       </c>
       <c r="H136" s="5">
         <f>IF(OR(F136="",G136=""),"",G136-F136)</f>
@@ -35268,10 +35270,10 @@
         <f ref="E137:E146" t="shared" si="45">IF(OR(C137="",D137=""),"",D137-C137)</f>
       </c>
       <c r="F137" s="5">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="G137" s="5">
-        <v>1734.4217446646737</v>
+        <v>1734.4038075775573</v>
       </c>
       <c r="H137" s="5">
         <f ref="H137:H146" t="shared" si="46">IF(OR(F137="",G137=""),"",G137-F137)</f>
@@ -35300,10 +35302,10 @@
         <f t="shared" si="45"/>
       </c>
       <c r="F138" s="5">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="G138" s="5">
-        <v>1175.7657417428356</v>
+        <v>1175.759319389965</v>
       </c>
       <c r="H138" s="5">
         <f t="shared" si="46"/>
@@ -35643,10 +35645,10 @@
         <v>0</v>
       </c>
       <c r="F150" s="5">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="G150" s="5">
-        <v>2892.5493717294921</v>
+        <v>2892.5205781603231</v>
       </c>
       <c r="H150" s="5">
         <f>G150-F150</f>
@@ -35757,10 +35759,10 @@
         <f>IF(OR(C153="",D153=""),"",D153-C153)</f>
       </c>
       <c r="F153" s="5">
-        <v>45.636937739702176</v>
+        <v>45.636888743597581</v>
       </c>
       <c r="G153" s="5">
-        <v>4.5101822397685343</v>
+        <v>4.51018220152083</v>
       </c>
       <c r="H153" s="5">
         <f>IF(OR(F153="",G153=""),"",G153-F153)</f>
@@ -35789,10 +35791,10 @@
         <f ref="E154:E163" t="shared" si="53">IF(OR(C154="",D154=""),"",D154-C154)</f>
       </c>
       <c r="F154" s="5">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="G154" s="5">
-        <v>1717.739329673431</v>
+        <v>1717.7172292554833</v>
       </c>
       <c r="H154" s="5">
         <f ref="H154:H163" t="shared" si="54">IF(OR(F154="",G154=""),"",G154-F154)</f>
@@ -35821,10 +35823,10 @@
         <f t="shared" si="53"/>
       </c>
       <c r="F155" s="5">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="G155" s="5">
-        <v>1170.2998598162928</v>
+        <v>1170.2931667033167</v>
       </c>
       <c r="H155" s="5">
         <f t="shared" si="54"/>
@@ -36105,7 +36107,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -40001,7 +40005,7 @@
         <v>1.70730255120847</v>
       </c>
       <c r="R59" s="152">
-        <v>5.0858242235902305</v>
+        <v>0.151242475397909</v>
       </c>
       <c r="S59" s="152">
         <v>0.995560875526543</v>
@@ -40025,7 +40029,7 @@
         <v>-0.0048046135414537838</v>
       </c>
       <c r="Z59" s="154">
-        <v>-1.1840036023859915</v>
+        <v>-72.441395323635163</v>
       </c>
       <c r="AA59" s="154">
         <v>0.55105633802816789</v>
@@ -40885,7 +40889,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -41156,19 +41162,19 @@
         <v>3077.6334744959</v>
       </c>
       <c r="D19" s="150">
-        <v>971.828025564782</v>
+        <v>971.82260850269608</v>
       </c>
       <c r="E19" s="150">
-        <v>-2105.805448931118</v>
+        <v>-2105.8108659932036</v>
       </c>
       <c r="F19" s="150">
         <v>1461.65899615677</v>
       </c>
       <c r="G19" s="150">
-        <v>1051.97109987</v>
+        <v>1051.94098214966</v>
       </c>
       <c r="H19" s="150">
-        <v>-409.68789628677</v>
+        <v>-409.71801400711013</v>
       </c>
     </row>
     <row r="20">
@@ -41179,19 +41185,19 @@
         <v>2615.69359808125</v>
       </c>
       <c r="D20" s="150">
-        <v>2837.92585458156</v>
+        <v>2837.9100357122197</v>
       </c>
       <c r="E20" s="150">
-        <v>222.2322565003098</v>
+        <v>222.21643763096955</v>
       </c>
       <c r="F20" s="150">
         <v>1242.27011127482</v>
       </c>
       <c r="G20" s="150">
-        <v>3071.9591368634196</v>
+        <v>3071.87118729315</v>
       </c>
       <c r="H20" s="150">
-        <v>1829.6890255885996</v>
+        <v>1829.6010760183299</v>
       </c>
     </row>
     <row r="21">
@@ -41202,19 +41208,19 @@
         <v>5693.32707257715</v>
       </c>
       <c r="D21" s="167">
-        <v>3809.75388014634</v>
+        <v>3809.7326442149197</v>
       </c>
       <c r="E21" s="167">
-        <v>-1883.5731924308095</v>
+        <v>-1883.5944283622298</v>
       </c>
       <c r="F21" s="167">
         <v>2703.9291074315797</v>
       </c>
       <c r="G21" s="167">
-        <v>4123.9302367334194</v>
+        <v>4123.81216944281</v>
       </c>
       <c r="H21" s="167">
-        <v>1420.00112930184</v>
+        <v>1419.8830620112303</v>
       </c>
     </row>
     <row r="22">
@@ -42021,19 +42027,19 @@
         <v>12594.3907756086</v>
       </c>
       <c r="D58" s="167">
-        <v>73749.7538801463</v>
+        <v>73749.732644214891</v>
       </c>
       <c r="E58" s="167">
-        <v>61155.3631045377</v>
+        <v>61155.3418686063</v>
       </c>
       <c r="F58" s="167">
         <v>9604.99281046305</v>
       </c>
       <c r="G58" s="167">
-        <v>74063.9302367334</v>
+        <v>74063.8121694428</v>
       </c>
       <c r="H58" s="167">
-        <v>64458.937426270357</v>
+        <v>64458.819358979752</v>
       </c>
     </row>
     <row r="59"/>
@@ -42253,19 +42259,19 @@
         <v>-71622.5675577247</v>
       </c>
       <c r="D70" s="167">
-        <v>17062.753880146298</v>
+        <v>17062.7326442149</v>
       </c>
       <c r="E70" s="167">
-        <v>88685.321437871</v>
+        <v>88685.3002019396</v>
       </c>
       <c r="F70" s="167">
         <v>-74611.9655228703</v>
       </c>
       <c r="G70" s="167">
-        <v>17376.9302367334</v>
+        <v>17376.812169442797</v>
       </c>
       <c r="H70" s="167">
-        <v>91988.8957596037</v>
+        <v>91988.7776923131</v>
       </c>
     </row>
     <row r="71">
@@ -42362,19 +42368,19 @@
         <v>77828.705601549489</v>
       </c>
       <c r="D77" s="150">
-        <v>45636.937739702174</v>
+        <v>45636.888743597578</v>
       </c>
       <c r="E77" s="150">
-        <v>-32191.767861847315</v>
+        <v>-32191.816857951912</v>
       </c>
       <c r="F77" s="150">
         <v>40643.756324045906</v>
       </c>
       <c r="G77" s="150">
-        <v>41098.068245285409</v>
+        <v>41097.445655335956</v>
       </c>
       <c r="H77" s="150">
-        <v>454.31192123950314</v>
+        <v>453.68933129005018</v>
       </c>
     </row>
     <row r="78">
@@ -42385,19 +42391,19 @@
         <v>77828.705601549489</v>
       </c>
       <c r="D78" s="167">
-        <v>45636.937739702174</v>
+        <v>45636.888743597578</v>
       </c>
       <c r="E78" s="167">
-        <v>-32191.767861847315</v>
+        <v>-32191.816857951912</v>
       </c>
       <c r="F78" s="167">
         <v>40643.756324045906</v>
       </c>
       <c r="G78" s="167">
-        <v>41098.068245285409</v>
+        <v>41097.445655335956</v>
       </c>
       <c r="H78" s="167">
-        <v>454.31192123950314</v>
+        <v>453.68933129005018</v>
       </c>
     </row>
     <row r="79">
@@ -42417,10 +42423,10 @@
         <v>49628.739247063153</v>
       </c>
       <c r="G79" s="150">
-        <v>157597.42342906754</v>
+        <v>157597.85561617621</v>
       </c>
       <c r="H79" s="150">
-        <v>107968.68418200439</v>
+        <v>107969.11636911306</v>
       </c>
     </row>
     <row r="80">
@@ -42440,10 +42446,10 @@
         <v>49628.739247063153</v>
       </c>
       <c r="G80" s="167">
-        <v>157597.42342906754</v>
+        <v>157597.85561617621</v>
       </c>
       <c r="H80" s="167">
-        <v>107968.68418200439</v>
+        <v>107969.11636911306</v>
       </c>
     </row>
     <row r="81">
@@ -42532,17 +42538,17 @@
       </c>
       <c r="C85" s="150"/>
       <c r="D85" s="150">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="E85" s="150">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="F85" s="150"/>
       <c r="G85" s="150">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="H85" s="150">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
     </row>
     <row r="86">
@@ -42553,19 +42559,19 @@
         <v>8883.55368871945</v>
       </c>
       <c r="D86" s="167">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="E86" s="167">
-        <v>167169.18285440351</v>
+        <v>167166.35642331492</v>
       </c>
       <c r="F86" s="167">
         <v>9537.3994902954655</v>
       </c>
       <c r="G86" s="167">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="H86" s="167">
-        <v>171274.36053389023</v>
+        <v>171261.93688942911</v>
       </c>
     </row>
     <row r="87">
@@ -42576,19 +42582,19 @@
         <v>11256.3960606522</v>
       </c>
       <c r="D87" s="167">
-        <v>176052.73654312297</v>
+        <v>176049.91011203438</v>
       </c>
       <c r="E87" s="167">
-        <v>164796.34048247078</v>
+        <v>164793.5140513822</v>
       </c>
       <c r="F87" s="167">
         <v>12234.210597345771</v>
       </c>
       <c r="G87" s="167">
-        <v>180811.7600241857</v>
+        <v>180799.33637972458</v>
       </c>
       <c r="H87" s="167">
-        <v>168577.54942683992</v>
+        <v>168565.1257823788</v>
       </c>
     </row>
     <row r="88">
@@ -42599,19 +42605,19 @@
         <v>82517.405584114807</v>
       </c>
       <c r="D88" s="167">
-        <v>1181874.9587653424</v>
+        <v>1181872.1323342545</v>
       </c>
       <c r="E88" s="167">
-        <v>1099357.5531812275</v>
+        <v>1099354.7267501396</v>
       </c>
       <c r="F88" s="167">
         <v>72555.691103571618</v>
       </c>
       <c r="G88" s="167">
-        <v>1180142.5865210025</v>
+        <v>1180130.5950636489</v>
       </c>
       <c r="H88" s="167">
-        <v>1107586.8954174309</v>
+        <v>1107574.9039600773</v>
       </c>
     </row>
     <row r="89">
@@ -42641,19 +42647,19 @@
         <v>2354.0735512283891</v>
       </c>
       <c r="D90" s="150">
-        <v>18512.252635527231</v>
+        <v>18512.24542506519</v>
       </c>
       <c r="E90" s="150">
-        <v>16158.179084298841</v>
+        <v>16158.1718738368</v>
       </c>
       <c r="F90" s="150">
         <v>2368.6942389550845</v>
       </c>
       <c r="G90" s="150">
-        <v>18372.931914815148</v>
+        <v>18372.939943037669</v>
       </c>
       <c r="H90" s="150">
-        <v>16004.237675860064</v>
+        <v>16004.245704082585</v>
       </c>
     </row>
     <row r="91">
@@ -42664,19 +42670,19 @@
         <v>4447.098586625907</v>
       </c>
       <c r="D91" s="167">
-        <v>18512.252635527231</v>
+        <v>18512.24542506519</v>
       </c>
       <c r="E91" s="167">
-        <v>14065.154048901324</v>
+        <v>14065.146838439283</v>
       </c>
       <c r="F91" s="167">
         <v>4296.1307121340378</v>
       </c>
       <c r="G91" s="167">
-        <v>18372.931914815148</v>
+        <v>18372.939943037669</v>
       </c>
       <c r="H91" s="167">
-        <v>14076.80120268111</v>
+        <v>14076.809230903631</v>
       </c>
     </row>
     <row r="92">
@@ -42733,19 +42739,19 @@
         <v>26950.289587267565</v>
       </c>
       <c r="D94" s="150">
-        <v>662140.290467387</v>
+        <v>662117.69724173786</v>
       </c>
       <c r="E94" s="150">
-        <v>635190.00088011939</v>
+        <v>635167.4076544703</v>
       </c>
       <c r="F94" s="150">
         <v>23323.377013090907</v>
       </c>
       <c r="G94" s="150">
-        <v>524424.42222166189</v>
+        <v>524328.1361375011</v>
       </c>
       <c r="H94" s="150">
-        <v>501101.045208571</v>
+        <v>501004.75912441022</v>
       </c>
     </row>
     <row r="95">
@@ -42779,19 +42785,19 @@
         <v>33717.167161336969</v>
       </c>
       <c r="D96" s="167">
-        <v>663853.6636333022</v>
+        <v>663831.07040765346</v>
       </c>
       <c r="E96" s="167">
-        <v>630136.49647196522</v>
+        <v>630113.90324631648</v>
       </c>
       <c r="F96" s="167">
         <v>29191.698240717753</v>
       </c>
       <c r="G96" s="167">
-        <v>525817.65810044063</v>
+        <v>525721.37201628</v>
       </c>
       <c r="H96" s="167">
-        <v>496625.95985972288</v>
+        <v>496529.6737755622</v>
       </c>
     </row>
     <row r="97">
@@ -42802,19 +42808,19 @@
         <v>35944.712979882461</v>
       </c>
       <c r="D97" s="167">
-        <v>666663.5956254038</v>
+        <v>666641.002399755</v>
       </c>
       <c r="E97" s="167">
-        <v>630718.88264552131</v>
+        <v>630696.28941987245</v>
       </c>
       <c r="F97" s="167">
         <v>31691.9256134974</v>
       </c>
       <c r="G97" s="167">
-        <v>528102.56494163873</v>
+        <v>528006.278857478</v>
       </c>
       <c r="H97" s="167">
-        <v>496410.63932814135</v>
+        <v>496314.35324398067</v>
       </c>
     </row>
     <row r="98">
@@ -42890,19 +42896,19 @@
         <v>42584.265526551295</v>
       </c>
       <c r="D101" s="167">
-        <v>864606.30041158746</v>
+        <v>864583.699975477</v>
       </c>
       <c r="E101" s="167">
-        <v>822022.03488503618</v>
+        <v>821999.43444892566</v>
       </c>
       <c r="F101" s="167">
         <v>37631.731517895452</v>
       </c>
       <c r="G101" s="167">
-        <v>703546.59290632955</v>
+        <v>703450.31485039135</v>
       </c>
       <c r="H101" s="167">
-        <v>665914.86138843407</v>
+        <v>665818.58333249588</v>
       </c>
     </row>
     <row r="102">
@@ -42978,19 +42984,19 @@
         <v>40656.906837001</v>
       </c>
       <c r="D105" s="150">
-        <v>340476.29942283325</v>
+        <v>340473.827476102</v>
       </c>
       <c r="E105" s="150">
-        <v>299819.39258583228</v>
+        <v>299816.920639101</v>
       </c>
       <c r="F105" s="150">
         <v>35931.004245283148</v>
       </c>
       <c r="G105" s="150">
-        <v>254438.60635074781</v>
+        <v>254437.96815059794</v>
       </c>
       <c r="H105" s="150">
-        <v>218507.60210546467</v>
+        <v>218506.9639053148</v>
       </c>
     </row>
     <row r="106">
@@ -43001,19 +43007,19 @@
         <v>4132.463168223414</v>
       </c>
       <c r="D106" s="150">
-        <v>188573.43945692442</v>
+        <v>188579.30528773429</v>
       </c>
       <c r="E106" s="150">
-        <v>184440.976288701</v>
+        <v>184446.84211951087</v>
       </c>
       <c r="F106" s="150">
         <v>4418.557378515764</v>
       </c>
       <c r="G106" s="150">
-        <v>170962.95807579011</v>
+        <v>170971.7992679906</v>
       </c>
       <c r="H106" s="150">
-        <v>166544.40069727434</v>
+        <v>166553.24188947483</v>
       </c>
     </row>
     <row r="107">
@@ -43070,19 +43076,19 @@
         <v>112719.46904180222</v>
       </c>
       <c r="D109" s="167">
-        <v>1760352.7735727972</v>
+        <v>1760333.5670207653</v>
       </c>
       <c r="E109" s="167">
-        <v>1647633.304530995</v>
+        <v>1647614.0979789631</v>
       </c>
       <c r="F109" s="167">
         <v>104417.512963864</v>
       </c>
       <c r="G109" s="167">
-        <v>1495945.5133852309</v>
+        <v>1495857.4383213457</v>
       </c>
       <c r="H109" s="167">
-        <v>1391528.0004213669</v>
+        <v>1391439.9253574817</v>
       </c>
     </row>
     <row r="110">
@@ -43204,19 +43210,19 @@
         <v>273065.58022746647</v>
       </c>
       <c r="D115" s="167">
-        <v>2987864.6700778422</v>
+        <v>2987842.5880986168</v>
       </c>
       <c r="E115" s="167">
-        <v>2714799.0898503759</v>
+        <v>2714777.0078711505</v>
       </c>
       <c r="F115" s="167">
         <v>217616.9603914812</v>
       </c>
       <c r="G115" s="167">
-        <v>2717186.1681515193</v>
+        <v>2717085.4790403312</v>
       </c>
       <c r="H115" s="167">
-        <v>2499569.2077600379</v>
+        <v>2499468.51864885</v>
       </c>
     </row>
     <row r="116"/>
@@ -43436,19 +43442,19 @@
         <v>-223799.27007578826</v>
       </c>
       <c r="D127" s="167">
-        <v>2689040.2231528154</v>
+        <v>2689018.14117359</v>
       </c>
       <c r="E127" s="167">
-        <v>2912839.4932286036</v>
+        <v>2912817.4112493782</v>
       </c>
       <c r="F127" s="167">
         <v>-215990.74062723987</v>
       </c>
       <c r="G127" s="167">
-        <v>2425360.0105495704</v>
+        <v>2425259.321438381</v>
       </c>
       <c r="H127" s="167">
-        <v>2641350.7511768104</v>
+        <v>2641250.0620656209</v>
       </c>
     </row>
     <row r="128">
@@ -43558,10 +43564,10 @@
         <v>2.0383747157</v>
       </c>
       <c r="G134" s="149">
-        <v>1.3979010437442583</v>
+        <v>1.3979010572578059</v>
       </c>
       <c r="H134" s="149">
-        <v>-0.64047367195574156</v>
+        <v>-0.640473658442194</v>
       </c>
     </row>
     <row r="135">
@@ -43572,19 +43578,19 @@
         <v>1.0636188470545271</v>
       </c>
       <c r="D135" s="168">
-        <v>1.3119014928251083</v>
+        <v>1.3119014928251074</v>
       </c>
       <c r="E135" s="168">
-        <v>0.24828264577058112</v>
+        <v>0.24828264577058024</v>
       </c>
       <c r="F135" s="168">
         <v>0.93649348199728377</v>
       </c>
       <c r="G135" s="168">
-        <v>1.0413112340044368</v>
+        <v>1.04131124407082</v>
       </c>
       <c r="H135" s="168">
-        <v>0.10481775200715304</v>
+        <v>0.10481776207353633</v>
       </c>
     </row>
     <row r="136">
@@ -43604,10 +43610,10 @@
         <v>2.2482273972143507</v>
       </c>
       <c r="G136" s="149">
-        <v>2.8643661110335832</v>
+        <v>2.8643739661246044</v>
       </c>
       <c r="H136" s="149">
-        <v>0.61613871381923246</v>
+        <v>0.61614656891025366</v>
       </c>
     </row>
     <row r="137">
@@ -43627,10 +43633,10 @@
         <v>2.2482273972143507</v>
       </c>
       <c r="G137" s="168">
-        <v>2.8643661110335832</v>
+        <v>2.8643739661246044</v>
       </c>
       <c r="H137" s="168">
-        <v>0.61613871381923246</v>
+        <v>0.61614656891025366</v>
       </c>
     </row>
     <row r="138">
@@ -43719,17 +43725,17 @@
       </c>
       <c r="C142" s="149"/>
       <c r="D142" s="149">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="E142" s="149">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="F142" s="149"/>
       <c r="G142" s="149">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="H142" s="149">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
     </row>
     <row r="143">
@@ -43740,19 +43746,19 @@
         <v>2.2939587199865206</v>
       </c>
       <c r="D143" s="168">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="E143" s="168">
-        <v>-0.13811500030905632</v>
+        <v>-0.13815338550834433</v>
       </c>
       <c r="F143" s="168">
         <v>2.42979587762705</v>
       </c>
       <c r="G143" s="168">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="H143" s="168">
-        <v>-0.20353118005210735</v>
+        <v>-0.20369955201709233</v>
       </c>
     </row>
     <row r="144">
@@ -43763,19 +43769,19 @@
         <v>2.3074004904501009</v>
       </c>
       <c r="D144" s="168">
-        <v>2.1558437196774642</v>
+        <v>2.1558053344781762</v>
       </c>
       <c r="E144" s="168">
-        <v>-0.15155677077263663</v>
+        <v>-0.15159515597192463</v>
       </c>
       <c r="F144" s="168">
         <v>2.4645585858573464</v>
       </c>
       <c r="G144" s="168">
-        <v>2.2262646975749427</v>
+        <v>2.2260963256099577</v>
       </c>
       <c r="H144" s="168">
-        <v>-0.23829388828240372</v>
+        <v>-0.2384622602473887</v>
       </c>
     </row>
     <row r="145">
@@ -43786,19 +43792,19 @@
         <v>2.5992164489874465</v>
       </c>
       <c r="D145" s="168">
-        <v>2.6628415769406346</v>
+        <v>2.6628351159177686</v>
       </c>
       <c r="E145" s="168">
-        <v>0.063625127953188088</v>
+        <v>0.063618666930322032</v>
       </c>
       <c r="F145" s="168">
         <v>2.2783654395385944</v>
       </c>
       <c r="G145" s="168">
-        <v>2.6598513008444811</v>
+        <v>2.6598239486236031</v>
       </c>
       <c r="H145" s="168">
-        <v>0.38148586130588669</v>
+        <v>0.38145850908500867</v>
       </c>
     </row>
     <row r="146">
@@ -43828,19 +43834,19 @@
         <v>4.18673158476532</v>
       </c>
       <c r="D147" s="149">
-        <v>10.870213122978514</v>
+        <v>10.870208699382175</v>
       </c>
       <c r="E147" s="149">
-        <v>6.6834815382131945</v>
+        <v>6.6834771146168555</v>
       </c>
       <c r="F147" s="149">
         <v>4.2157591940903494</v>
       </c>
       <c r="G147" s="149">
-        <v>10.784740288186617</v>
+        <v>10.784745213476532</v>
       </c>
       <c r="H147" s="149">
-        <v>6.5689810940962676</v>
+        <v>6.5689860193861822</v>
       </c>
     </row>
     <row r="148">
@@ -43851,19 +43857,19 @@
         <v>4.9072653048054</v>
       </c>
       <c r="D148" s="168">
-        <v>10.870213122978514</v>
+        <v>10.870208699382175</v>
       </c>
       <c r="E148" s="168">
-        <v>5.9629478181731139</v>
+        <v>5.9629433945767749</v>
       </c>
       <c r="F148" s="168">
         <v>4.7241435881926028</v>
       </c>
       <c r="G148" s="168">
-        <v>10.784740288186617</v>
+        <v>10.784745213476532</v>
       </c>
       <c r="H148" s="168">
-        <v>6.0605966999940142</v>
+        <v>6.0606016252839288</v>
       </c>
     </row>
     <row r="149">
@@ -43920,19 +43926,19 @@
         <v>8.016117855779811</v>
       </c>
       <c r="D151" s="149">
-        <v>5.7064645203862945</v>
+        <v>5.7062621753880265</v>
       </c>
       <c r="E151" s="149">
-        <v>-2.3096533353935165</v>
+        <v>-2.3098556803917845</v>
       </c>
       <c r="F151" s="149">
         <v>6.786519525645172</v>
       </c>
       <c r="G151" s="149">
-        <v>4.4773976049836008</v>
+        <v>4.47653750305839</v>
       </c>
       <c r="H151" s="149">
-        <v>-2.3091219206615712</v>
+        <v>-2.309982022586782</v>
       </c>
     </row>
     <row r="152">
@@ -43966,19 +43972,19 @@
         <v>7.3204886124091288</v>
       </c>
       <c r="D153" s="168">
-        <v>5.70729013383009</v>
+        <v>5.7070882410196262</v>
       </c>
       <c r="E153" s="168">
-        <v>-1.6131984785790392</v>
+        <v>-1.6134003713895027</v>
       </c>
       <c r="F153" s="168">
         <v>6.2045901402842345</v>
       </c>
       <c r="G153" s="168">
-        <v>4.4781449285386508</v>
+        <v>4.4772867487148167</v>
       </c>
       <c r="H153" s="168">
-        <v>-1.7264452117455837</v>
+        <v>-1.7273033915694178</v>
       </c>
     </row>
     <row r="154">
@@ -43989,19 +43995,19 @@
         <v>7.0683409172281229</v>
       </c>
       <c r="D154" s="168">
-        <v>5.7086361808113635</v>
+        <v>5.7084350252297247</v>
       </c>
       <c r="E154" s="168">
-        <v>-1.3597047364167594</v>
+        <v>-1.3599058919983982</v>
       </c>
       <c r="F154" s="168">
         <v>6.1080732530592883</v>
       </c>
       <c r="G154" s="168">
-        <v>4.4793633348314179</v>
+        <v>4.4785082887244334</v>
       </c>
       <c r="H154" s="168">
-        <v>-1.6287099182278704</v>
+        <v>-1.6295649643348549</v>
       </c>
     </row>
     <row r="155">
@@ -44077,19 +44083,19 @@
         <v>6.605853966285312</v>
       </c>
       <c r="D158" s="168">
-        <v>5.9281919292427148</v>
+        <v>5.9280305048416819</v>
       </c>
       <c r="E158" s="168">
-        <v>-0.6776620370425972</v>
+        <v>-0.67782346144363</v>
       </c>
       <c r="F158" s="168">
         <v>5.7210379350674172</v>
       </c>
       <c r="G158" s="168">
-        <v>4.7503479693075148</v>
+        <v>4.7496620837068466</v>
       </c>
       <c r="H158" s="168">
-        <v>-0.97068996575990241</v>
+        <v>-0.97137585136057059</v>
       </c>
     </row>
     <row r="159">
@@ -44165,19 +44171,19 @@
         <v>8.2054932059881569</v>
       </c>
       <c r="D162" s="149">
-        <v>11.743565492563784</v>
+        <v>11.743475642390232</v>
       </c>
       <c r="E162" s="149">
-        <v>3.5380722865756269</v>
+        <v>3.5379824364020749</v>
       </c>
       <c r="F162" s="149">
         <v>7.0649761303626848</v>
       </c>
       <c r="G162" s="149">
-        <v>8.560668212402943</v>
+        <v>8.5606451986516756</v>
       </c>
       <c r="H162" s="149">
-        <v>1.4956920820402582</v>
+        <v>1.4956690682889908</v>
       </c>
     </row>
     <row r="163">
@@ -44188,19 +44194,19 @@
         <v>5.3744677342104588</v>
       </c>
       <c r="D163" s="149">
-        <v>11.320388838802584</v>
+        <v>11.320806930824618</v>
       </c>
       <c r="E163" s="149">
-        <v>5.9459211045921254</v>
+        <v>5.94633919661416</v>
       </c>
       <c r="F163" s="149">
         <v>5.6063395747503542</v>
       </c>
       <c r="G163" s="149">
-        <v>9.5638175149535609</v>
+        <v>9.5644476783148</v>
       </c>
       <c r="H163" s="149">
-        <v>3.9574779402032068</v>
+        <v>3.9581081035644452</v>
       </c>
     </row>
     <row r="164">
@@ -44257,19 +44263,19 @@
         <v>5.9794487269405083</v>
       </c>
       <c r="D166" s="168">
-        <v>6.3292987524767641</v>
+        <v>6.3292251382833031</v>
       </c>
       <c r="E166" s="168">
-        <v>0.34985002553625577</v>
+        <v>0.3497764113427948</v>
       </c>
       <c r="F166" s="168">
         <v>5.4108521849436739</v>
       </c>
       <c r="G166" s="168">
-        <v>5.2681150596341926</v>
+        <v>5.2677784233709275</v>
       </c>
       <c r="H166" s="168">
-        <v>-0.14273712530948135</v>
+        <v>-0.14307376157274643</v>
       </c>
     </row>
     <row r="167">
@@ -44391,19 +44397,19 @@
         <v>1.8613704641594391</v>
       </c>
       <c r="D172" s="168">
-        <v>3.8957690551196351</v>
+        <v>3.895739285921282</v>
       </c>
       <c r="E172" s="168">
-        <v>2.0343985909601958</v>
+        <v>2.0343688217618432</v>
       </c>
       <c r="F172" s="168">
         <v>1.8475425727379766</v>
       </c>
       <c r="G172" s="168">
-        <v>3.489403895951162</v>
+        <v>3.4892709432279827</v>
       </c>
       <c r="H172" s="168">
-        <v>1.6418613232131853</v>
+        <v>1.6417283704900061</v>
       </c>
     </row>
     <row r="173"/>
@@ -44685,19 +44691,19 @@
         <v>45808.257780829248</v>
       </c>
       <c r="D188" s="150">
-        <v>10854.528061035311</v>
+        <v>10854.509579505311</v>
       </c>
       <c r="E188" s="150">
-        <v>-34953.729719793941</v>
+        <v>-34953.748201323942</v>
       </c>
       <c r="F188" s="150">
         <v>26421.264805611496</v>
       </c>
       <c r="G188" s="150">
-        <v>12168.08288214863</v>
+        <v>12167.873071141445</v>
       </c>
       <c r="H188" s="150">
-        <v>-14253.181923462864</v>
+        <v>-14253.391734470051</v>
       </c>
     </row>
     <row r="189">
@@ -44708,19 +44714,19 @@
         <v>2615.6935980812532</v>
       </c>
       <c r="D189" s="150">
-        <v>2837.9258545815633</v>
+        <v>2837.9100357122284</v>
       </c>
       <c r="E189" s="150">
-        <v>222.23225650031026</v>
+        <v>222.21643763097515</v>
       </c>
       <c r="F189" s="150">
         <v>1242.2701112748139</v>
       </c>
       <c r="G189" s="150">
-        <v>3069.4377466425067</v>
+        <v>3069.3495234900188</v>
       </c>
       <c r="H189" s="150">
-        <v>1827.1676353676928</v>
+        <v>1827.0794122152049</v>
       </c>
     </row>
     <row r="190">
@@ -44731,19 +44737,19 @@
         <v>48423.951378910519</v>
       </c>
       <c r="D190" s="167">
-        <v>13692.453915616883</v>
+        <v>13692.419615217541</v>
       </c>
       <c r="E190" s="167">
-        <v>-34731.497463293636</v>
+        <v>-34731.531763692976</v>
       </c>
       <c r="F190" s="167">
         <v>27663.534916886332</v>
       </c>
       <c r="G190" s="167">
-        <v>15237.520628791132</v>
+        <v>15237.222594631458</v>
       </c>
       <c r="H190" s="167">
-        <v>-12426.014288095203</v>
+        <v>-12426.312322254877</v>
       </c>
     </row>
     <row r="191">
@@ -44878,17 +44884,17 @@
       </c>
       <c r="C197" s="150"/>
       <c r="D197" s="150">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="E197" s="150">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="F197" s="150"/>
       <c r="G197" s="150">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="H197" s="150">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
     </row>
     <row r="198">
@@ -44899,19 +44905,19 @@
         <v>52.802134744491518</v>
       </c>
       <c r="D198" s="167">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="E198" s="167">
-        <v>991.83734717033053</v>
+        <v>991.831213997471</v>
       </c>
       <c r="F198" s="167">
         <v>51.159973411908879</v>
       </c>
       <c r="G198" s="167">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="H198" s="167">
-        <v>1176.0979235160683</v>
+        <v>1176.062140718793</v>
       </c>
     </row>
     <row r="199">
@@ -44922,19 +44928,19 @@
         <v>85.055555328429151</v>
       </c>
       <c r="D199" s="167">
-        <v>1044.639481914822</v>
+        <v>1044.6333487419624</v>
       </c>
       <c r="E199" s="167">
-        <v>959.58392658639286</v>
+        <v>959.5777934135333</v>
       </c>
       <c r="F199" s="167">
         <v>73.369105833157533</v>
       </c>
       <c r="G199" s="167">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="H199" s="167">
-        <v>1153.8887910948197</v>
+        <v>1153.8530082975444</v>
       </c>
     </row>
     <row r="200">
@@ -44945,19 +44951,19 @@
         <v>211.654030542718</v>
       </c>
       <c r="D200" s="167">
-        <v>1351.6394819149218</v>
+        <v>1351.6333487420625</v>
       </c>
       <c r="E200" s="167">
-        <v>1139.9854513722039</v>
+        <v>1139.9793181993443</v>
       </c>
       <c r="F200" s="167">
         <v>658.99578046608224</v>
       </c>
       <c r="G200" s="167">
-        <v>1227.2578969279773</v>
+        <v>1227.2221141307018</v>
       </c>
       <c r="H200" s="167">
-        <v>568.262116461895</v>
+        <v>568.22633366461957</v>
       </c>
     </row>
     <row r="201">
@@ -45079,19 +45085,19 @@
         <v>91.619765356419535</v>
       </c>
       <c r="D206" s="150">
-        <v>4849.8676850174243</v>
+        <v>4849.807226899421</v>
       </c>
       <c r="E206" s="150">
-        <v>4758.2479196610047</v>
+        <v>4758.1874615430015</v>
       </c>
       <c r="F206" s="150">
         <v>101.97803198249964</v>
       </c>
       <c r="G206" s="150">
-        <v>4333.6429144641625</v>
+        <v>4333.3103945731073</v>
       </c>
       <c r="H206" s="150">
-        <v>4231.664882481663</v>
+        <v>4231.3323625906078</v>
       </c>
     </row>
     <row r="207">
@@ -45125,19 +45131,19 @@
         <v>143.48601862133793</v>
       </c>
       <c r="D208" s="167">
-        <v>4859.0545356086341</v>
+        <v>4858.994077490629</v>
       </c>
       <c r="E208" s="167">
-        <v>4715.5685169872968</v>
+        <v>4715.5080588692908</v>
       </c>
       <c r="F208" s="167">
         <v>151.82719627234681</v>
       </c>
       <c r="G208" s="167">
-        <v>4342.9035098197419</v>
+        <v>4342.570989928684</v>
       </c>
       <c r="H208" s="167">
-        <v>4191.0763135473953</v>
+        <v>4190.7437936563374</v>
       </c>
     </row>
     <row r="209">
@@ -45148,19 +45154,19 @@
         <v>159.42874568340889</v>
       </c>
       <c r="D209" s="167">
-        <v>4874.1209705782157</v>
+        <v>4874.0605124602134</v>
       </c>
       <c r="E209" s="167">
-        <v>4714.6922248948067</v>
+        <v>4714.6317667768044</v>
       </c>
       <c r="F209" s="167">
         <v>167.57531653555679</v>
       </c>
       <c r="G209" s="167">
-        <v>4358.0908862028891</v>
+        <v>4357.758366311833</v>
       </c>
       <c r="H209" s="167">
-        <v>4190.5155696673328</v>
+        <v>4190.1830497762767</v>
       </c>
     </row>
     <row r="210">
@@ -45236,19 +45242,19 @@
         <v>179.51622528635994</v>
       </c>
       <c r="D213" s="167">
-        <v>5725.4127529218558</v>
+        <v>5725.3522948038526</v>
       </c>
       <c r="E213" s="167">
-        <v>5545.8965276354957</v>
+        <v>5545.8360695174924</v>
       </c>
       <c r="F213" s="167">
         <v>180.6769204792073</v>
       </c>
       <c r="G213" s="167">
-        <v>5294.33571862633</v>
+        <v>5294.003198735275</v>
       </c>
       <c r="H213" s="167">
-        <v>5113.658798147123</v>
+        <v>5113.3262782560678</v>
       </c>
     </row>
     <row r="214">
@@ -45324,19 +45330,19 @@
         <v>122.58908564866734</v>
       </c>
       <c r="D217" s="150">
-        <v>1170.5477607957694</v>
+        <v>1170.5488679268306</v>
       </c>
       <c r="E217" s="150">
-        <v>1047.958675147102</v>
+        <v>1047.9597822781634</v>
       </c>
       <c r="F217" s="150">
         <v>140.77826088092027</v>
       </c>
       <c r="G217" s="150">
-        <v>1322.6091128634068</v>
+        <v>1322.6093632118932</v>
       </c>
       <c r="H217" s="150">
-        <v>1181.8308519824866</v>
+        <v>1181.831102330973</v>
       </c>
     </row>
     <row r="218">
@@ -45347,19 +45353,19 @@
         <v>12.668248996302674</v>
       </c>
       <c r="D218" s="150">
-        <v>560.43954243792007</v>
+        <v>560.43701872391136</v>
       </c>
       <c r="E218" s="150">
-        <v>547.77129344161744</v>
+        <v>547.76876972760874</v>
       </c>
       <c r="F218" s="150">
         <v>19.531644829983779</v>
       </c>
       <c r="G218" s="150">
-        <v>880.54824685474944</v>
+        <v>880.54540476228158</v>
       </c>
       <c r="H218" s="150">
-        <v>861.01660202476558</v>
+        <v>861.01375993229783</v>
       </c>
     </row>
     <row r="219">
@@ -45416,19 +45422,19 @@
         <v>477.48142666409836</v>
       </c>
       <c r="D221" s="167">
-        <v>7602.025260532032</v>
+        <v>7601.963385831079</v>
       </c>
       <c r="E221" s="167">
-        <v>7124.5438338679332</v>
+        <v>7124.4819591669811</v>
       </c>
       <c r="F221" s="167">
         <v>775.2197508364909</v>
       </c>
       <c r="G221" s="167">
-        <v>7643.610638570558</v>
+        <v>7643.2755269355212</v>
       </c>
       <c r="H221" s="167">
-        <v>6868.3908877340673</v>
+        <v>6868.0557760990305</v>
       </c>
     </row>
     <row r="222">
@@ -45550,19 +45556,19 @@
         <v>49113.086836117327</v>
       </c>
       <c r="D227" s="167">
-        <v>22646.118658063828</v>
+        <v>22646.01634979068</v>
       </c>
       <c r="E227" s="167">
-        <v>-26466.9681780535</v>
+        <v>-26467.070486326647</v>
       </c>
       <c r="F227" s="167">
         <v>29097.75044818889</v>
       </c>
       <c r="G227" s="167">
-        <v>24108.389164289671</v>
+        <v>24107.720235697685</v>
       </c>
       <c r="H227" s="167">
-        <v>-4989.3612838992176</v>
+        <v>-4990.0302124912032</v>
       </c>
     </row>
     <row r="228"/>
@@ -45894,19 +45900,19 @@
         <v>0.088339323094579161</v>
       </c>
       <c r="D245" s="168">
-        <v>0.19142776728246194</v>
+        <v>0.19142617199506995</v>
       </c>
       <c r="E245" s="168">
-        <v>0.10308844418788278</v>
+        <v>0.10308684890049079</v>
       </c>
       <c r="F245" s="168">
         <v>0.0771049235366095</v>
       </c>
       <c r="G245" s="168">
-        <v>0.15588445467553375</v>
+        <v>0.15587825980010878</v>
       </c>
       <c r="H245" s="168">
-        <v>0.078779531138924247</v>
+        <v>0.078773336263499277</v>
       </c>
     </row>
     <row r="246">
@@ -45917,19 +45923,19 @@
         <v>1.6959929072</v>
       </c>
       <c r="D246" s="149">
-        <v>1.6472201784000002</v>
+        <v>1.6479601064999996</v>
       </c>
       <c r="E246" s="149">
-        <v>-0.048772728799999721</v>
+        <v>-0.048032800700000378</v>
       </c>
       <c r="F246" s="149">
         <v>1.7332197696499998</v>
       </c>
       <c r="G246" s="149">
-        <v>1.6539250659</v>
+        <v>1.6549308419999997</v>
       </c>
       <c r="H246" s="149">
-        <v>-0.0792947037499998</v>
+        <v>-0.078288927650000062</v>
       </c>
     </row>
     <row r="247">
@@ -45940,19 +45946,19 @@
         <v>1.6959929072</v>
       </c>
       <c r="D247" s="168">
-        <v>1.6472201784000002</v>
+        <v>1.6479601064999996</v>
       </c>
       <c r="E247" s="168">
-        <v>-0.048772728799999721</v>
+        <v>-0.048032800700000378</v>
       </c>
       <c r="F247" s="168">
         <v>1.7332197696499998</v>
       </c>
       <c r="G247" s="168">
-        <v>1.6539250659</v>
+        <v>1.6549308419999997</v>
       </c>
       <c r="H247" s="168">
-        <v>-0.0792947037499998</v>
+        <v>-0.078288927650000062</v>
       </c>
     </row>
     <row r="248">
@@ -46041,17 +46047,17 @@
       </c>
       <c r="C252" s="149"/>
       <c r="D252" s="149">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="E252" s="149">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="F252" s="149"/>
       <c r="G252" s="149">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="H252" s="149">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
     </row>
     <row r="253">
@@ -46062,19 +46068,19 @@
         <v>3.7196191042125477</v>
       </c>
       <c r="D253" s="168">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="E253" s="168">
-        <v>-0.92235066811254773</v>
+        <v>-0.92317098201254844</v>
       </c>
       <c r="F253" s="168">
         <v>3.7812201978535165</v>
       </c>
       <c r="G253" s="168">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="H253" s="168">
-        <v>-0.97314917915351673</v>
+        <v>-0.9739693971535166</v>
       </c>
     </row>
     <row r="254">
@@ -46085,19 +46091,19 @@
         <v>3.6561133081203145</v>
       </c>
       <c r="D254" s="168">
-        <v>2.7972684361</v>
+        <v>2.7964481221999993</v>
       </c>
       <c r="E254" s="168">
-        <v>-0.85884487202031456</v>
+        <v>-0.85966518592031527</v>
       </c>
       <c r="F254" s="168">
         <v>3.7366655814335115</v>
       </c>
       <c r="G254" s="168">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="H254" s="168">
-        <v>-0.92859456273351171</v>
+        <v>-0.92941478073351158</v>
       </c>
     </row>
     <row r="255">
@@ -46108,19 +46114,19 @@
         <v>3.5103058586668112</v>
       </c>
       <c r="D255" s="168">
-        <v>2.72622243958894</v>
+        <v>2.725456268366095</v>
       </c>
       <c r="E255" s="168">
-        <v>-0.78408341907787138</v>
+        <v>-0.78484959030071622</v>
       </c>
       <c r="F255" s="168">
         <v>3.5301083698582292</v>
       </c>
       <c r="G255" s="168">
-        <v>2.8080710186999998</v>
+        <v>2.8072508007</v>
       </c>
       <c r="H255" s="168">
-        <v>-0.72203735115822942</v>
+        <v>-0.7228575691582293</v>
       </c>
     </row>
     <row r="256">
@@ -46150,19 +46156,19 @@
         <v>6.4823772641566739</v>
       </c>
       <c r="D257" s="149">
-        <v>6.0651544711000014</v>
+        <v>6.0649080903999986</v>
       </c>
       <c r="E257" s="149">
-        <v>-0.41722279305667254</v>
+        <v>-0.41746917375667536</v>
       </c>
       <c r="F257" s="149">
         <v>6.5081863946991048</v>
       </c>
       <c r="G257" s="149">
-        <v>6.0512266789</v>
+        <v>6.0523452405</v>
       </c>
       <c r="H257" s="149">
-        <v>-0.45695971579910477</v>
+        <v>-0.45584115419910454</v>
       </c>
     </row>
     <row r="258">
@@ -46173,19 +46179,19 @@
         <v>6.1274440265526247</v>
       </c>
       <c r="D258" s="168">
-        <v>6.0651544711000014</v>
+        <v>6.0649080903999986</v>
       </c>
       <c r="E258" s="168">
-        <v>-0.062289555452623269</v>
+        <v>-0.062535936152626093</v>
       </c>
       <c r="F258" s="168">
         <v>6.1481657472783615</v>
       </c>
       <c r="G258" s="168">
-        <v>6.0512266789</v>
+        <v>6.0523452405</v>
       </c>
       <c r="H258" s="168">
-        <v>-0.096939068378361526</v>
+        <v>-0.095820506778361292</v>
       </c>
     </row>
     <row r="259">
@@ -46242,19 +46248,19 @@
         <v>4.559739828</v>
       </c>
       <c r="D261" s="149">
-        <v>3.5994314468000006</v>
+        <v>3.5979805574999997</v>
       </c>
       <c r="E261" s="149">
-        <v>-0.96030838119999906</v>
+        <v>-0.9617592705</v>
       </c>
       <c r="F261" s="149">
         <v>4.6310244716</v>
       </c>
       <c r="G261" s="149">
-        <v>3.6101403625000006</v>
+        <v>3.6086896415</v>
       </c>
       <c r="H261" s="149">
-        <v>-1.0208841090999994</v>
+        <v>-1.0223348301000002</v>
       </c>
     </row>
     <row r="262">
@@ -46288,19 +46294,19 @@
         <v>4.5606235491347205</v>
       </c>
       <c r="D263" s="168">
-        <v>3.6013912277766504</v>
+        <v>3.5999443960707977</v>
       </c>
       <c r="E263" s="168">
-        <v>-0.95923232135807</v>
+        <v>-0.96067915306392271</v>
       </c>
       <c r="F263" s="168">
         <v>4.5122523158142984</v>
       </c>
       <c r="G263" s="168">
-        <v>3.6107214310052975</v>
+        <v>3.6092739495261466</v>
       </c>
       <c r="H263" s="168">
-        <v>-0.9015308848090009</v>
+        <v>-0.90297836628815187</v>
       </c>
     </row>
     <row r="264">
@@ -46311,19 +46317,19 @@
         <v>4.5578562371365043</v>
       </c>
       <c r="D264" s="168">
-        <v>3.6045650152407629</v>
+        <v>3.6031247613254878</v>
       </c>
       <c r="E264" s="168">
-        <v>-0.95329122189574145</v>
+        <v>-0.95473147581101658</v>
       </c>
       <c r="F264" s="168">
         <v>4.4778018963270547</v>
       </c>
       <c r="G264" s="168">
-        <v>3.6116688716487584</v>
+        <v>3.6102266709549387</v>
       </c>
       <c r="H264" s="168">
-        <v>-0.86613302467829634</v>
+        <v>-0.86757522537211607</v>
       </c>
     </row>
     <row r="265">
@@ -46399,19 +46405,19 @@
         <v>4.5776446745430688</v>
       </c>
       <c r="D268" s="168">
-        <v>3.7961583770744594</v>
+        <v>3.7949877165439934</v>
       </c>
       <c r="E268" s="168">
-        <v>-0.78148629746860943</v>
+        <v>-0.78265695799907542</v>
       </c>
       <c r="F268" s="168">
         <v>4.44362374210954</v>
       </c>
       <c r="G268" s="168">
-        <v>3.7980477297263149</v>
+        <v>3.796879659045878</v>
       </c>
       <c r="H268" s="168">
-        <v>-0.64557601238322482</v>
+        <v>-0.64674408306366171</v>
       </c>
     </row>
     <row r="269">
@@ -46487,19 +46493,19 @@
         <v>4.3438790641</v>
       </c>
       <c r="D272" s="149">
-        <v>4.261684301</v>
+        <v>4.2613207719</v>
       </c>
       <c r="E272" s="149">
-        <v>-0.0821947631000004</v>
+        <v>-0.082558292199999883</v>
       </c>
       <c r="F272" s="149">
         <v>4.3265091864</v>
       </c>
       <c r="G272" s="149">
-        <v>4.2024568161999989</v>
+        <v>4.2027810921</v>
       </c>
       <c r="H272" s="149">
-        <v>-0.12405237020000115</v>
+        <v>-0.12372809429999965</v>
       </c>
     </row>
     <row r="273">
@@ -46510,19 +46516,19 @@
         <v>9.6253691978</v>
       </c>
       <c r="D273" s="149">
-        <v>9.7041199106</v>
+        <v>9.7068141058</v>
       </c>
       <c r="E273" s="149">
-        <v>0.078750712799999789</v>
+        <v>0.081444907999999927</v>
       </c>
       <c r="F273" s="149">
         <v>9.5334806632</v>
       </c>
       <c r="G273" s="149">
-        <v>9.5859583451</v>
+        <v>9.585978174900001</v>
       </c>
       <c r="H273" s="149">
-        <v>0.05247768189999924</v>
+        <v>0.052497511700000388</v>
       </c>
     </row>
     <row r="274">
@@ -46579,19 +46585,19 @@
         <v>4.4034254977942782</v>
       </c>
       <c r="D276" s="168">
-        <v>4.3648220275813152</v>
+        <v>4.36411237472685</v>
       </c>
       <c r="E276" s="168">
-        <v>-0.038603470212962954</v>
+        <v>-0.03931312306742818</v>
       </c>
       <c r="F276" s="168">
         <v>4.5484945724696066</v>
       </c>
       <c r="G276" s="168">
-        <v>4.5624524572927951</v>
+        <v>4.561711371110877</v>
       </c>
       <c r="H276" s="168">
-        <v>0.013957884823188493</v>
+        <v>0.013216798641270344</v>
       </c>
     </row>
     <row r="277">
@@ -46713,19 +46719,19 @@
         <v>0.14363286112305163</v>
       </c>
       <c r="D282" s="168">
-        <v>1.8186773192745342</v>
+        <v>1.8183636886040189</v>
       </c>
       <c r="E282" s="168">
-        <v>1.6750444581514827</v>
+        <v>1.6747308274809671</v>
       </c>
       <c r="F282" s="168">
         <v>0.21893204087240611</v>
       </c>
       <c r="G282" s="168">
-        <v>1.7824164197872705</v>
+        <v>1.7821027260275182</v>
       </c>
       <c r="H282" s="168">
-        <v>1.5634843789148645</v>
+        <v>1.5631706851551122</v>
       </c>
     </row>
     <row r="283"/>
@@ -47118,19 +47124,19 @@
         <v>0.37658910398439593</v>
       </c>
       <c r="D303" s="150">
-        <v>25.184720701868596</v>
+        <v>25.184713224926352</v>
       </c>
       <c r="E303" s="150">
-        <v>24.8081315978842</v>
+        <v>24.808124120941958</v>
       </c>
       <c r="F303" s="150">
         <v>0.82583637770514251</v>
       </c>
       <c r="G303" s="150">
-        <v>24.65730155339218</v>
+        <v>24.657020046123659</v>
       </c>
       <c r="H303" s="150">
-        <v>23.831465175687036</v>
+        <v>23.831183668418518</v>
       </c>
     </row>
     <row r="304">
@@ -47164,19 +47170,19 @@
         <v>1.2153868828033552</v>
       </c>
       <c r="D305" s="167">
-        <v>25.379116361730063</v>
+        <v>25.379108884787851</v>
       </c>
       <c r="E305" s="167">
-        <v>24.163729478926708</v>
+        <v>24.163722001984492</v>
       </c>
       <c r="F305" s="167">
         <v>1.6443259087622641</v>
       </c>
       <c r="G305" s="167">
-        <v>24.847584944821886</v>
+        <v>24.847303437553361</v>
       </c>
       <c r="H305" s="167">
-        <v>23.203259036059624</v>
+        <v>23.202977528791095</v>
       </c>
     </row>
     <row r="306">
@@ -47187,19 +47193,19 @@
         <v>1.5468274165794331</v>
       </c>
       <c r="D306" s="167">
-        <v>25.697925243903761</v>
+        <v>25.69791776696151</v>
       </c>
       <c r="E306" s="167">
-        <v>24.151097827324325</v>
+        <v>24.151090350382077</v>
       </c>
       <c r="F306" s="167">
         <v>1.967156076857826</v>
       </c>
       <c r="G306" s="167">
-        <v>25.159649706767297</v>
+        <v>25.159368199498768</v>
       </c>
       <c r="H306" s="167">
-        <v>23.192493629909471</v>
+        <v>23.192212122640942</v>
       </c>
     </row>
     <row r="307">
@@ -47275,19 +47281,19 @@
         <v>2.0811989668924911</v>
       </c>
       <c r="D310" s="167">
-        <v>34.896557994777169</v>
+        <v>34.896550517834882</v>
       </c>
       <c r="E310" s="167">
-        <v>32.815359027884675</v>
+        <v>32.815351550942395</v>
       </c>
       <c r="F310" s="167">
         <v>2.5538170715559283</v>
       </c>
       <c r="G310" s="167">
-        <v>38.687891122049784</v>
+        <v>38.687609614781259</v>
       </c>
       <c r="H310" s="167">
-        <v>36.134074050493858</v>
+        <v>36.133792543225326</v>
       </c>
     </row>
     <row r="311">
@@ -47363,19 +47369,19 @@
         <v>3.110062341295555</v>
       </c>
       <c r="D314" s="150">
-        <v>17.6456840322548</v>
+        <v>17.64568206679423</v>
       </c>
       <c r="E314" s="150">
-        <v>14.535621690959243</v>
+        <v>14.535619725498675</v>
       </c>
       <c r="F314" s="150">
         <v>3.6029584504230678</v>
       </c>
       <c r="G314" s="150">
-        <v>19.10583719179095</v>
+        <v>19.105831639663403</v>
       </c>
       <c r="H314" s="150">
-        <v>15.502878741367882</v>
+        <v>15.502873189240336</v>
       </c>
     </row>
     <row r="315">
@@ -47386,19 +47392,19 @@
         <v>1.1261583465500413</v>
       </c>
       <c r="D315" s="150">
-        <v>29.748384048524311</v>
+        <v>29.748384048265006</v>
       </c>
       <c r="E315" s="150">
-        <v>28.622225701974273</v>
+        <v>28.622225701714964</v>
       </c>
       <c r="F315" s="150">
         <v>1.2825508883798149</v>
       </c>
       <c r="G315" s="150">
-        <v>36.782598340991825</v>
+        <v>36.782598341233978</v>
       </c>
       <c r="H315" s="150">
-        <v>35.500047452612009</v>
+        <v>35.500047452854162</v>
       </c>
     </row>
     <row r="316">
@@ -47455,19 +47461,19 @@
         <v>8.6163660974678074</v>
       </c>
       <c r="D318" s="167">
-        <v>109.79824490190607</v>
+        <v>109.79823545924397</v>
       </c>
       <c r="E318" s="167">
-        <v>101.18187880443827</v>
+        <v>101.18186936177617</v>
       </c>
       <c r="F318" s="167">
         <v>10.213761456158782</v>
       </c>
       <c r="G318" s="167">
-        <v>122.12646813382831</v>
+        <v>122.12618107467426</v>
       </c>
       <c r="H318" s="167">
-        <v>111.91270667766953</v>
+        <v>111.91241961851549</v>
       </c>
     </row>
     <row r="319">
@@ -47652,19 +47658,19 @@
         <v>2.98609619499838</v>
       </c>
       <c r="D329" s="150">
-        <v>83.6297569407325</v>
+        <v>83.6354150460955</v>
       </c>
       <c r="E329" s="150">
-        <v>80.643660745734124</v>
+        <v>80.649318851097121</v>
       </c>
       <c r="F329" s="150">
         <v>3.43315503440048</v>
       </c>
       <c r="G329" s="150">
-        <v>121.418919817875</v>
+        <v>121.42691936066599</v>
       </c>
       <c r="H329" s="150">
-        <v>117.98576478347451</v>
+        <v>117.99376432626552</v>
       </c>
     </row>
     <row r="330">
@@ -47698,19 +47704,19 @@
         <v>4.6821804455579707</v>
       </c>
       <c r="D331" s="167">
-        <v>83.9844577293414</v>
+        <v>83.9901158347043</v>
       </c>
       <c r="E331" s="167">
-        <v>79.30227728378344</v>
+        <v>79.307935389146323</v>
       </c>
       <c r="F331" s="167">
         <v>5.25792951898668</v>
       </c>
       <c r="G331" s="167">
-        <v>121.758150258163</v>
+        <v>121.766149800953</v>
       </c>
       <c r="H331" s="167">
-        <v>116.50022073917633</v>
+        <v>116.50822028196633</v>
       </c>
     </row>
     <row r="332">
@@ -47721,19 +47727,19 @@
         <v>5.2767879940296494</v>
       </c>
       <c r="D332" s="167">
-        <v>84.566167022659812</v>
+        <v>84.5718251280228</v>
       </c>
       <c r="E332" s="167">
-        <v>79.289379028630151</v>
+        <v>79.295037133993148</v>
       </c>
       <c r="F332" s="167">
         <v>5.8284622424017</v>
       </c>
       <c r="G332" s="167">
-        <v>122.314488180234</v>
+        <v>122.32248772302499</v>
       </c>
       <c r="H332" s="167">
-        <v>116.4860259378323</v>
+        <v>116.49402548062329</v>
       </c>
     </row>
     <row r="333">
@@ -47809,19 +47815,19 @@
         <v>8.06569629772422</v>
       </c>
       <c r="D336" s="167">
-        <v>151.129511087046</v>
+        <v>151.135169192409</v>
       </c>
       <c r="E336" s="167">
-        <v>143.06381478932178</v>
+        <v>143.06947289468477</v>
       </c>
       <c r="F336" s="167">
         <v>8.66259533880268</v>
       </c>
       <c r="G336" s="167">
-        <v>249.052943873707</v>
+        <v>249.060943416498</v>
       </c>
       <c r="H336" s="167">
-        <v>240.39034853490432</v>
+        <v>240.39834807769532</v>
       </c>
     </row>
     <row r="337">
@@ -47897,19 +47903,19 @@
         <v>16.4974198370973</v>
       </c>
       <c r="D340" s="150">
-        <v>26.393839268901502</v>
+        <v>26.3938066967282</v>
       </c>
       <c r="E340" s="150">
-        <v>9.8964194318042029</v>
+        <v>9.8963868596309</v>
       </c>
       <c r="F340" s="150">
         <v>15.5943340393316</v>
       </c>
       <c r="G340" s="150">
-        <v>28.2381108541089</v>
+        <v>28.238153708939898</v>
       </c>
       <c r="H340" s="150">
-        <v>12.643776814777302</v>
+        <v>12.6438196696083</v>
       </c>
     </row>
     <row r="341">
@@ -47920,19 +47926,19 @@
         <v>4.17145103695772</v>
       </c>
       <c r="D341" s="150">
-        <v>37.5929436932556</v>
+        <v>37.5929990301701</v>
       </c>
       <c r="E341" s="150">
-        <v>33.421492656297879</v>
+        <v>33.421547993212378</v>
       </c>
       <c r="F341" s="150">
         <v>3.7435669780066703</v>
       </c>
       <c r="G341" s="150">
-        <v>32.163780408509</v>
+        <v>32.1637262856442</v>
       </c>
       <c r="H341" s="150">
-        <v>28.420213430502329</v>
+        <v>28.42015930763753</v>
       </c>
     </row>
     <row r="342">
@@ -47989,19 +47995,19 @@
         <v>37.329877199533996</v>
       </c>
       <c r="D344" s="167">
-        <v>293.529315326046</v>
+        <v>293.53499619615</v>
       </c>
       <c r="E344" s="167">
-        <v>256.199438126512</v>
+        <v>256.205118996616</v>
       </c>
       <c r="F344" s="167">
         <v>42.092351623303</v>
       </c>
       <c r="G344" s="167">
-        <v>364.986803230586</v>
+        <v>364.994791505343</v>
       </c>
       <c r="H344" s="167">
-        <v>322.894451607283</v>
+        <v>322.90243988203997</v>
       </c>
     </row>
     <row r="345">
@@ -48098,16 +48104,16 @@
         <v>-65.4712264536086</v>
       </c>
       <c r="G354" s="108">
-        <v>687.095031801516</v>
+        <v>687.094745365842</v>
       </c>
       <c r="H354" s="108">
-        <v>683.29375811315606</v>
+        <v>683.291558392266</v>
       </c>
       <c r="I354" s="108">
-        <v>669.915166528333</v>
+        <v>669.90881049804</v>
       </c>
       <c r="J354" s="108">
-        <v>648.736266709811</v>
+        <v>648.723026917442</v>
       </c>
     </row>
     <row r="355" s="108" customFormat="1">
@@ -48152,10 +48158,10 @@
         <v>-304</v>
       </c>
       <c r="D371" s="112">
-        <v>769.077537093538</v>
+        <v>769.07725065786394</v>
       </c>
       <c r="E371" s="113">
-        <v>-352.98603193866381</v>
+        <v>-352.98593771640259</v>
       </c>
     </row>
     <row r="372">
@@ -48166,10 +48172,10 @@
         <v>-1117</v>
       </c>
       <c r="D372" s="112">
-        <v>463.007254040698</v>
+        <v>463.007040983315</v>
       </c>
       <c r="E372" s="113">
-        <v>-141.45096276102936</v>
+        <v>-141.45094368695749</v>
       </c>
     </row>
     <row r="373">
@@ -48180,10 +48186,10 @@
         <v>780</v>
       </c>
       <c r="D373" s="112">
-        <v>293.78029878082049</v>
+        <v>293.78022548693951</v>
       </c>
       <c r="E373" s="113">
-        <v>-62.335859130664041</v>
+        <v>-62.335868527315448</v>
       </c>
     </row>
     <row r="374">
@@ -48194,10 +48200,10 @@
         <v>33</v>
       </c>
       <c r="D374" s="112">
-        <v>12.289984272019524</v>
+        <v>12.289984187609434</v>
       </c>
       <c r="E374" s="113">
-        <v>-62.757623418122655</v>
+        <v>-62.757623673910807</v>
       </c>
     </row>
     <row r="375">
@@ -48222,10 +48228,10 @@
         <v>-211</v>
       </c>
       <c r="D376" s="112">
-        <v>687.09503180151637</v>
+        <v>687.0947453658423</v>
       </c>
       <c r="E376" s="113">
-        <v>-425.63745583010257</v>
+        <v>-425.63732007859824</v>
       </c>
     </row>
     <row r="377">
@@ -48281,7 +48287,7 @@
         <v>0</v>
       </c>
       <c r="E380" s="113">
-        <v>-352.98603193866381</v>
+        <v>-352.98593771640259</v>
       </c>
     </row>
     <row r="381">
@@ -48302,10 +48308,10 @@
         <v>-89</v>
       </c>
       <c r="D382" s="112">
-        <v>6.2233090089980294</v>
+        <v>6.22329803445115</v>
       </c>
       <c r="E382" s="113">
-        <v>-106.99248203258206</v>
+        <v>-106.99246970163051</v>
       </c>
     </row>
     <row r="383">
@@ -48316,10 +48322,10 @@
         <v>56</v>
       </c>
       <c r="D383" s="112">
-        <v>156.20505612585049</v>
+        <v>156.20478066472359</v>
       </c>
       <c r="E383" s="113">
-        <v>178.93760022473302</v>
+        <v>178.93710832986355</v>
       </c>
     </row>
     <row r="385">
@@ -48350,7 +48356,7 @@
       </c>
       <c r="C387" s="112"/>
       <c r="D387" s="112">
-        <v>2987.8646700778422</v>
+        <v>2987.8425880986169</v>
       </c>
       <c r="E387" s="113"/>
     </row>
@@ -48360,7 +48366,7 @@
       </c>
       <c r="C388" s="112"/>
       <c r="D388" s="112">
-        <v>1760.3527735727971</v>
+        <v>1760.3335670207653</v>
       </c>
       <c r="E388" s="113"/>
     </row>
@@ -48370,7 +48376,7 @@
       </c>
       <c r="C389" s="112"/>
       <c r="D389" s="112">
-        <v>1181.8749587653424</v>
+        <v>1181.8721323342545</v>
       </c>
       <c r="E389" s="113"/>
     </row>
@@ -48380,7 +48386,7 @@
       </c>
       <c r="C390" s="112"/>
       <c r="D390" s="112">
-        <v>45.636937739702716</v>
+        <v>45.636888743597183</v>
       </c>
       <c r="E390" s="113"/>
     </row>
@@ -48400,7 +48406,7 @@
       </c>
       <c r="C392" s="112"/>
       <c r="D392" s="112">
-        <v>2689.0402231528169</v>
+        <v>2689.0181411735916</v>
       </c>
       <c r="E392" s="113"/>
     </row>
@@ -48458,7 +48464,7 @@
       </c>
       <c r="C398" s="112"/>
       <c r="D398" s="112">
-        <v>22.619676493722128</v>
+        <v>22.618830440878245</v>
       </c>
       <c r="E398" s="113"/>
     </row>
@@ -48468,7 +48474,7 @@
       </c>
       <c r="C399" s="112"/>
       <c r="D399" s="112">
-        <v>567.75387999242514</v>
+        <v>567.73264406604358</v>
       </c>
       <c r="E399" s="113"/>
     </row>
@@ -48694,7 +48700,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -48711,7 +48719,9 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>